--- a/express/db/filesheet.xlsx
+++ b/express/db/filesheet.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="1089">
   <si>
     <t>ResID</t>
   </si>
@@ -2768,9 +2768,15 @@
 Activ/Not</t>
   </si>
   <si>
+    <t>N.Zenna@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">YEO, Pétanhangui Arnaud</t>
   </si>
   <si>
+    <t>P.Yeo@cgiar.org</t>
+  </si>
+  <si>
     <t>A10815</t>
   </si>
   <si>
@@ -2801,6 +2807,15 @@
     <t>&gt;</t>
   </si>
   <si>
+    <t>C.Wonal@cgiar.org</t>
+  </si>
+  <si>
+    <t>E.Twine@cgiar.org</t>
+  </si>
+  <si>
+    <t>Mathia.Traore@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRAORE, Jean baptiste</t>
   </si>
   <si>
@@ -2813,6 +2828,9 @@
     <t xml:space="preserve">Administrateur de projet</t>
   </si>
   <si>
+    <t>J.Tougma@cgiar.org</t>
+  </si>
+  <si>
     <t>A10816</t>
   </si>
   <si>
@@ -2852,6 +2870,15 @@
     <t xml:space="preserve">Sitraka, Maminiaina ANDRIAMIHAJA</t>
   </si>
   <si>
+    <t>Sh.Yadav@cgiar.org</t>
+  </si>
+  <si>
+    <t>V.Semwal@cgiar.org</t>
+  </si>
+  <si>
+    <t>A.Sanwidi@cgiar.org</t>
+  </si>
+  <si>
     <t>A10825</t>
   </si>
   <si>
@@ -2864,15 +2891,27 @@
     <t>k.sams@cgiar.org</t>
   </si>
   <si>
+    <t>A.Sadikou@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAZAFINDRAZAKA, Tokiniainamalala Harena</t>
   </si>
   <si>
     <t xml:space="preserve">RAZAFIMANDIMBY, Minosoa Ny Ony</t>
   </si>
   <si>
+    <t>J.Ravitamanana@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">RATSIRAHONANA, Domoina</t>
   </si>
   <si>
+    <t>F.Rasoazanany@cgiar.org</t>
+  </si>
+  <si>
+    <t>G.Rafanomezantsoa@cgiar.org</t>
+  </si>
+  <si>
     <t>A10822</t>
   </si>
   <si>
@@ -2894,12 +2933,18 @@
     <t xml:space="preserve">RANDRIANAIVO, Mirindrafihobiana Nekenjanahary</t>
   </si>
   <si>
+    <t>M.Randriamiarivony@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Randriamanana, Jaonaniliva Mahenintsoa</t>
   </si>
   <si>
     <t xml:space="preserve">Randriamamonjy Phanoel, Steve Marie Mickael</t>
   </si>
   <si>
+    <t>S.Ranaivoarisoa@cgiar.org</t>
+  </si>
+  <si>
     <t>A10823</t>
   </si>
   <si>
@@ -2933,6 +2978,9 @@
     <t xml:space="preserve">Rahaimalala, Andrialalao Sophie</t>
   </si>
   <si>
+    <t>S.Raharimalala@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rabenomanamanjaka, Fanomezantahina Tsiorizara</t>
   </si>
   <si>
@@ -2948,12 +2996,18 @@
     <t>FI</t>
   </si>
   <si>
+    <t>N.OSUOLALE@cgiar.org</t>
+  </si>
+  <si>
     <t>k.olatifede@cgiar.org</t>
   </si>
   <si>
     <t xml:space="preserve">NWILENE, Francis</t>
   </si>
   <si>
+    <t>F.NWILENE@cgiar.org</t>
+  </si>
+  <si>
     <t>m.nwalozie@cgiar.org</t>
   </si>
   <si>
@@ -2966,9 +3020,21 @@
     <t xml:space="preserve">Coordinateur National de Projet </t>
   </si>
   <si>
+    <t>M.Ndjiondjop@cgiar.org</t>
+  </si>
+  <si>
+    <t>N.Ndiour-Bella@cgiar.org</t>
+  </si>
+  <si>
+    <t>S.Ndindeng@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">N’Guessan, Kouadio Baudoin</t>
   </si>
   <si>
+    <t>G.Mujawamariya@cgiar.org</t>
+  </si>
+  <si>
     <t>A10808</t>
   </si>
   <si>
@@ -2978,6 +3044,15 @@
     <t xml:space="preserve">Gestionnaire des contrats et des subventions</t>
   </si>
   <si>
+    <t>Y.Mouzong@cgiar.org</t>
+  </si>
+  <si>
+    <t>L.Medenilla@cgiar.org</t>
+  </si>
+  <si>
+    <t>B.Manneh@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">A10821 </t>
   </si>
   <si>
@@ -2990,6 +3065,9 @@
     <t xml:space="preserve">Expert en service climatique aux éleveurs et Agro éleveurs</t>
   </si>
   <si>
+    <t>E.Pegalepo@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kristina, Grotelueschen</t>
   </si>
   <si>
@@ -3020,6 +3098,9 @@
     <t xml:space="preserve">Observateur Terrain-Sélection bas-fond</t>
   </si>
   <si>
+    <t>V.Kouadio@cgiar.org</t>
+  </si>
+  <si>
     <t>A10820</t>
   </si>
   <si>
@@ -3029,6 +3110,9 @@
     <t xml:space="preserve">Consultant for yield stability analysis</t>
   </si>
   <si>
+    <t>A.Kouadio2@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">KONE, PIERRE</t>
   </si>
   <si>
@@ -3041,6 +3125,12 @@
     <t xml:space="preserve">Comptable En Charge Des Immobilisation</t>
   </si>
   <si>
+    <t>J.Kone@cgiar.org</t>
+  </si>
+  <si>
+    <t>A.Kone@cgiar.org</t>
+  </si>
+  <si>
     <t>m.konan@cgiar.org</t>
   </si>
   <si>
@@ -3062,6 +3152,9 @@
     <t xml:space="preserve">Partnership and Innovation Scaling Consultant</t>
   </si>
   <si>
+    <t>K.Senthilkumar@cgiar.org</t>
+  </si>
+  <si>
     <t>c.kacou@cgiar.org</t>
   </si>
   <si>
@@ -3092,6 +3185,9 @@
     <t xml:space="preserve">GUINDO, Amakene dit Jonathan</t>
   </si>
   <si>
+    <t>F.Harison@cgiar.org</t>
+  </si>
+  <si>
     <t>A10810</t>
   </si>
   <si>
@@ -3122,6 +3218,9 @@
     <t xml:space="preserve">Assistant De Recherche Agroeconomiste</t>
   </si>
   <si>
+    <t>K.Futakuchi@cgiar.org</t>
+  </si>
+  <si>
     <t>A10819</t>
   </si>
   <si>
@@ -3134,7 +3233,7 @@
     <t xml:space="preserve">Fatoumata, Diabaté</t>
   </si>
   <si>
-    <t>africarice-hrtrainee1@cgiar.org</t>
+    <t>F.Famey@cgiar.org</t>
   </si>
   <si>
     <t>A10829</t>
@@ -3155,6 +3254,12 @@
     <t xml:space="preserve">Research Assistant – Trialist</t>
   </si>
   <si>
+    <t>E.Dossou-Yovo@cgiar.org</t>
+  </si>
+  <si>
+    <t>G.Dion@cgiar.org</t>
+  </si>
+  <si>
     <t>A10809</t>
   </si>
   <si>
@@ -3164,9 +3269,21 @@
     <t xml:space="preserve">French Translator-Editor</t>
   </si>
   <si>
+    <t>a.diomande@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIALLO, Aboubacar</t>
   </si>
   <si>
+    <t>M.Diagne@cgiar.org</t>
+  </si>
+  <si>
+    <t>G.Dago@cgiar.org</t>
+  </si>
+  <si>
+    <t>N.O.Coulibaly@cgiar.org</t>
+  </si>
+  <si>
     <t>A10803</t>
   </si>
   <si>
@@ -3182,15 +3299,39 @@
     <t xml:space="preserve">BENGALY, Oumar</t>
   </si>
   <si>
+    <t>N.Belko@cgiar.org</t>
+  </si>
+  <si>
+    <t>F.Balley@cgiar.org</t>
+  </si>
+  <si>
     <t>s.bah@cgiar.org</t>
   </si>
   <si>
+    <t>F.Bachabi@cgiar.org</t>
+  </si>
+  <si>
+    <t>S.Ba@cgiar.org</t>
+  </si>
+  <si>
+    <t>M.Azatassou@cgiar.org</t>
+  </si>
+  <si>
+    <t>A.Arouna@cgiar.org</t>
+  </si>
+  <si>
+    <t>E.Anoh@cgiar.org</t>
+  </si>
+  <si>
     <t>A10277</t>
   </si>
   <si>
     <t xml:space="preserve">ANDRIATSIORIMANANA, Aina</t>
   </si>
   <si>
+    <t>A.Andriatsiorimanana@cgiar.org</t>
+  </si>
+  <si>
     <t>A10807</t>
   </si>
   <si>
@@ -3204,6 +3345,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ouedraogo Mathieu</t>
+  </si>
+  <si>
+    <t>N.Amoah@cgiar.org</t>
   </si>
   <si>
     <t xml:space="preserve">Alvari, Christian Tarfa</t>
@@ -3485,7 +3629,7 @@
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -3756,6 +3900,10 @@
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="5" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="20" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
@@ -3772,11 +3920,10 @@
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="14" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -20600,7 +20747,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" priority="2" id="{009F00C7-0034-422E-9E4E-002200F70042}">
+          <x14:cfRule type="dataBar" priority="2" id="{00290073-00F2-473A-9BA9-000000810011}">
             <x14:dataBar maxLength="90" minLength="10" axisPosition="none" direction="context">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -20615,7 +20762,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{008D0037-00D3-4967-94D3-00BB005D000B}" type="custom" allowBlank="1" error="Must be a valid date." errorStyle="stop" errorTitle="Incorrect format" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007E00F6-0073-4338-9CB3-00B8005F0087}" type="custom" allowBlank="1" error="Must be a valid date." errorStyle="stop" errorTitle="Incorrect format" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(ISNUMBER(AG2),LEFT(CELL("format",AG2),1)="D")</xm:f>
           </x14:formula1>
@@ -20664,7 +20811,9 @@
     <col customWidth="1" min="22" max="22" style="46" width="11.43"/>
     <col customWidth="1" min="23" max="27" style="0" width="11.43"/>
     <col customWidth="0" min="44" max="44" style="46" width="10.859999999999999"/>
-    <col customWidth="0" min="46" max="60" style="47" width="10.859999999999999"/>
+    <col customWidth="0" min="46" max="50" style="47" width="10.859999999999999"/>
+    <col customWidth="1" min="51" max="51" style="47" width="24.57421875"/>
+    <col customWidth="0" min="52" max="60" style="47" width="10.859999999999999"/>
   </cols>
   <sheetData>
     <row r="1" s="48" customFormat="1" ht="26.25" customHeight="1">
@@ -21046,8 +21195,8 @@
       <c r="AX3" s="72">
         <v>0</v>
       </c>
-      <c r="AY3" s="72">
-        <v>0</v>
+      <c r="AY3" s="73" t="s">
+        <v>890</v>
       </c>
       <c r="AZ3" s="72"/>
       <c r="BA3" s="72"/>
@@ -21236,7 +21385,7 @@
         <v>817</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="I5" s="72" t="s">
         <v>52</v>
@@ -21354,8 +21503,8 @@
       <c r="AX5" s="72">
         <v>0</v>
       </c>
-      <c r="AY5" s="72">
-        <v>0</v>
+      <c r="AY5" s="73" t="s">
+        <v>892</v>
       </c>
       <c r="AZ5" s="72"/>
       <c r="BA5" s="72"/>
@@ -21369,13 +21518,13 @@
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="68" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B6" s="69">
         <v>0</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D6" s="69">
         <v>0</v>
@@ -21387,13 +21536,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="I6" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J6" s="72" t="s">
         <v>37</v>
@@ -21407,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="72" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="P6" s="72">
         <v>0</v>
@@ -21544,7 +21693,7 @@
         <v>778</v>
       </c>
       <c r="H7" s="71" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="I7" s="72" t="s">
         <v>180</v>
@@ -21677,13 +21826,13 @@
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="68" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B8" s="69">
         <v>0</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D8" s="69">
         <v>0</v>
@@ -21695,16 +21844,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="H8" s="71" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J8" s="72" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="K8" s="72"/>
       <c r="L8" s="72"/>
@@ -21714,8 +21863,8 @@
       <c r="N8" s="72">
         <v>0</v>
       </c>
-      <c r="O8" s="73" t="s">
-        <v>899</v>
+      <c r="O8" s="74" t="s">
+        <v>901</v>
       </c>
       <c r="P8" s="72">
         <v>0</v>
@@ -22266,8 +22415,8 @@
       <c r="AT11" s="72">
         <v>0</v>
       </c>
-      <c r="AU11" s="74" t="s">
-        <v>900</v>
+      <c r="AU11" s="75" t="s">
+        <v>902</v>
       </c>
       <c r="AV11" s="72">
         <v>0</v>
@@ -22432,8 +22581,8 @@
       <c r="AX12" s="72">
         <v>0</v>
       </c>
-      <c r="AY12" s="72">
-        <v>0</v>
+      <c r="AY12" s="73" t="s">
+        <v>903</v>
       </c>
       <c r="AZ12" s="72"/>
       <c r="BA12" s="72"/>
@@ -22586,8 +22735,8 @@
       <c r="AX13" s="72">
         <v>0</v>
       </c>
-      <c r="AY13" s="72">
-        <v>0</v>
+      <c r="AY13" s="73" t="s">
+        <v>904</v>
       </c>
       <c r="AZ13" s="72"/>
       <c r="BA13" s="72"/>
@@ -22740,8 +22889,8 @@
       <c r="AX14" s="72">
         <v>0</v>
       </c>
-      <c r="AY14" s="72">
-        <v>0</v>
+      <c r="AY14" s="73" t="s">
+        <v>905</v>
       </c>
       <c r="AZ14" s="72"/>
       <c r="BA14" s="72"/>
@@ -22776,10 +22925,10 @@
         <v>159</v>
       </c>
       <c r="H15" s="71" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="I15" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J15" s="72" t="s">
         <v>161</v>
@@ -23241,7 +23390,7 @@
         <v>857</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J18" s="72" t="s">
         <v>282</v>
@@ -23371,7 +23520,7 @@
     </row>
     <row r="19" ht="16.5">
       <c r="A19" s="68" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="B19" s="69">
         <v>0</v>
@@ -23386,13 +23535,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="H19" s="71" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="I19" s="72" t="s">
         <v>631</v>
@@ -23409,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="72" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="P19" s="72">
         <v>0</v>
@@ -23510,8 +23659,8 @@
       <c r="AX19" s="72">
         <v>0</v>
       </c>
-      <c r="AY19" s="72">
-        <v>0</v>
+      <c r="AY19" s="73" t="s">
+        <v>910</v>
       </c>
       <c r="AZ19" s="72"/>
       <c r="BA19" s="72"/>
@@ -23833,13 +23982,13 @@
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="68" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="B22" s="69">
         <v>0</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="D22" s="69">
         <v>0</v>
@@ -23851,13 +24000,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="H22" s="71" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="I22" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J22" s="72" t="s">
         <v>130</v>
@@ -23871,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="72" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="P22" s="72">
         <v>0</v>
@@ -23987,13 +24136,13 @@
     </row>
     <row r="23" ht="16.5">
       <c r="A23" s="68" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="B23" s="69">
         <v>0</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="D23" s="69">
         <v>0</v>
@@ -24005,13 +24154,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="H23" s="71" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="I23" s="72" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="J23" s="72" t="s">
         <v>293</v>
@@ -24025,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="72" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="P23" s="72">
         <v>0</v>
@@ -24295,13 +24444,13 @@
     </row>
     <row r="25" ht="16.5">
       <c r="A25" s="68" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="B25" s="69">
         <v>0</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="D25" s="69">
         <v>0</v>
@@ -24313,16 +24462,16 @@
         <v>0</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="H25" s="71" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="I25" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J25" s="72" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="K25" s="72"/>
       <c r="L25" s="72"/>
@@ -24332,8 +24481,8 @@
       <c r="N25" s="72">
         <v>0</v>
       </c>
-      <c r="O25" s="73" t="s">
-        <v>899</v>
+      <c r="O25" s="74" t="s">
+        <v>901</v>
       </c>
       <c r="P25" s="72">
         <v>0</v>
@@ -24757,7 +24906,7 @@
     </row>
     <row r="28" ht="16.5">
       <c r="A28" s="68" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="B28" s="69">
         <v>0</v>
@@ -24766,7 +24915,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="E28" s="69">
         <v>0</v>
@@ -24775,10 +24924,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="H28" s="71" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="I28" s="72" t="s">
         <v>180</v>
@@ -24795,7 +24944,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="72" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="P28" s="72">
         <v>0</v>
@@ -25086,7 +25235,7 @@
         <v>671</v>
       </c>
       <c r="H30" s="71" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="I30" s="72" t="s">
         <v>180</v>
@@ -25358,8 +25507,8 @@
       <c r="AX31" s="72">
         <v>0</v>
       </c>
-      <c r="AY31" s="72">
-        <v>0</v>
+      <c r="AY31" s="73" t="s">
+        <v>924</v>
       </c>
       <c r="AZ31" s="72"/>
       <c r="BA31" s="72"/>
@@ -25666,8 +25815,8 @@
       <c r="AX33" s="72">
         <v>0</v>
       </c>
-      <c r="AY33" s="72">
-        <v>0</v>
+      <c r="AY33" s="73" t="s">
+        <v>925</v>
       </c>
       <c r="AZ33" s="72"/>
       <c r="BA33" s="72"/>
@@ -25820,8 +25969,8 @@
       <c r="AX34" s="72">
         <v>0</v>
       </c>
-      <c r="AY34" s="72">
-        <v>0</v>
+      <c r="AY34" s="73" t="s">
+        <v>926</v>
       </c>
       <c r="AZ34" s="72"/>
       <c r="BA34" s="72"/>
@@ -25859,7 +26008,7 @@
         <v>840</v>
       </c>
       <c r="I35" s="72" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="J35" s="72" t="s">
         <v>181</v>
@@ -26297,7 +26446,7 @@
     </row>
     <row r="38" ht="28.5">
       <c r="A38" s="68" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="B38" s="69">
         <v>0</v>
@@ -26312,13 +26461,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="H38" s="71" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="I38" s="72" t="s">
         <v>251</v>
@@ -26335,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="72" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="P38" s="72">
         <v>0</v>
@@ -26436,8 +26585,8 @@
       <c r="AX38" s="72">
         <v>0</v>
       </c>
-      <c r="AY38" s="75" t="s">
-        <v>921</v>
+      <c r="AY38" s="76" t="s">
+        <v>930</v>
       </c>
       <c r="AZ38" s="72"/>
       <c r="BA38" s="72"/>
@@ -26898,8 +27047,8 @@
       <c r="AX41" s="72">
         <v>0</v>
       </c>
-      <c r="AY41" s="72">
-        <v>0</v>
+      <c r="AY41" s="73" t="s">
+        <v>931</v>
       </c>
       <c r="AZ41" s="72"/>
       <c r="BA41" s="72"/>
@@ -26934,7 +27083,7 @@
         <v>663</v>
       </c>
       <c r="H42" s="71" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="I42" s="72" t="s">
         <v>180</v>
@@ -27088,7 +27237,7 @@
         <v>661</v>
       </c>
       <c r="H43" s="71" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="I43" s="72" t="s">
         <v>180</v>
@@ -27360,8 +27509,8 @@
       <c r="AX44" s="72">
         <v>0</v>
       </c>
-      <c r="AY44" s="72">
-        <v>0</v>
+      <c r="AY44" s="73" t="s">
+        <v>934</v>
       </c>
       <c r="AZ44" s="72"/>
       <c r="BA44" s="72"/>
@@ -27396,7 +27545,7 @@
         <v>665</v>
       </c>
       <c r="H45" s="71" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="I45" s="72" t="s">
         <v>180</v>
@@ -27822,8 +27971,8 @@
       <c r="AX47" s="72">
         <v>0</v>
       </c>
-      <c r="AY47" s="72">
-        <v>0</v>
+      <c r="AY47" s="73" t="s">
+        <v>936</v>
       </c>
       <c r="AZ47" s="72"/>
       <c r="BA47" s="72"/>
@@ -27976,8 +28125,8 @@
       <c r="AX48" s="72">
         <v>0</v>
       </c>
-      <c r="AY48" s="72">
-        <v>0</v>
+      <c r="AY48" s="73" t="s">
+        <v>937</v>
       </c>
       <c r="AZ48" s="72"/>
       <c r="BA48" s="72"/>
@@ -27991,7 +28140,7 @@
     </row>
     <row r="49" ht="16.5">
       <c r="A49" s="68" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
       <c r="B49" s="69">
         <v>0</v>
@@ -28000,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="69" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
       <c r="E49" s="69">
         <v>0</v>
@@ -28009,10 +28158,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="70" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
       <c r="H49" s="71" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
       <c r="I49" s="72" t="s">
         <v>36</v>
@@ -28029,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="72" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
       <c r="P49" s="72">
         <v>0</v>
@@ -28145,7 +28294,7 @@
     </row>
     <row r="50" ht="16.5">
       <c r="A50" s="68" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="B50" s="69">
         <v>0</v>
@@ -28154,7 +28303,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="E50" s="69">
         <v>0</v>
@@ -28163,10 +28312,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="70" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="H50" s="71" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
       <c r="I50" s="72" t="s">
         <v>137</v>
@@ -28183,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="72" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="P50" s="72">
         <v>0</v>
@@ -28320,7 +28469,7 @@
         <v>709</v>
       </c>
       <c r="H51" s="71" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
       <c r="I51" s="72" t="s">
         <v>251</v>
@@ -28592,8 +28741,8 @@
       <c r="AX52" s="72">
         <v>0</v>
       </c>
-      <c r="AY52" s="72">
-        <v>0</v>
+      <c r="AY52" s="73" t="s">
+        <v>945</v>
       </c>
       <c r="AZ52" s="72"/>
       <c r="BA52" s="72"/>
@@ -28628,7 +28777,7 @@
         <v>677</v>
       </c>
       <c r="H53" s="71" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
       <c r="I53" s="72" t="s">
         <v>137</v>
@@ -28782,7 +28931,7 @@
         <v>643</v>
       </c>
       <c r="H54" s="71" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
       <c r="I54" s="72" t="s">
         <v>180</v>
@@ -29208,8 +29357,8 @@
       <c r="AX56" s="72">
         <v>0</v>
       </c>
-      <c r="AY56" s="72">
-        <v>0</v>
+      <c r="AY56" s="73" t="s">
+        <v>948</v>
       </c>
       <c r="AZ56" s="72"/>
       <c r="BA56" s="72"/>
@@ -29223,7 +29372,7 @@
     </row>
     <row r="57" ht="16.5">
       <c r="A57" s="68" t="s">
-        <v>934</v>
+        <v>949</v>
       </c>
       <c r="B57" s="69">
         <v>0</v>
@@ -29232,7 +29381,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="69" t="s">
-        <v>934</v>
+        <v>949</v>
       </c>
       <c r="E57" s="69">
         <v>0</v>
@@ -29241,10 +29390,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="70" t="s">
-        <v>934</v>
+        <v>949</v>
       </c>
       <c r="H57" s="71" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="I57" s="72" t="s">
         <v>36</v>
@@ -29261,7 +29410,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="72" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
       <c r="P57" s="72">
         <v>0</v>
@@ -29377,7 +29526,7 @@
     </row>
     <row r="58" ht="16.5">
       <c r="A58" s="68" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="B58" s="69">
         <v>0</v>
@@ -29386,7 +29535,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="E58" s="69">
         <v>0</v>
@@ -29395,10 +29544,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="70" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="H58" s="71" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="I58" s="72" t="s">
         <v>137</v>
@@ -29552,7 +29701,7 @@
         <v>668</v>
       </c>
       <c r="H59" s="71" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
       <c r="I59" s="72" t="s">
         <v>180</v>
@@ -29709,7 +29858,7 @@
         <v>850</v>
       </c>
       <c r="I60" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J60" s="72" t="s">
         <v>130</v>
@@ -30014,7 +30163,7 @@
         <v>595</v>
       </c>
       <c r="H62" s="71" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="I62" s="72" t="s">
         <v>137</v>
@@ -30171,7 +30320,7 @@
         <v>531</v>
       </c>
       <c r="I63" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J63" s="72" t="s">
         <v>121</v>
@@ -30301,7 +30450,7 @@
     </row>
     <row r="64" ht="16.5">
       <c r="A64" s="68" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="B64" s="69">
         <v>0</v>
@@ -30310,7 +30459,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="69" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="E64" s="69">
         <v>0</v>
@@ -30319,16 +30468,16 @@
         <v>0</v>
       </c>
       <c r="G64" s="70" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="H64" s="71" t="s">
-        <v>941</v>
-      </c>
-      <c r="I64" s="76" t="s">
+        <v>956</v>
+      </c>
+      <c r="I64" s="77" t="s">
         <v>251</v>
       </c>
       <c r="J64" s="72" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
       <c r="K64" s="72"/>
       <c r="L64" s="72"/>
@@ -30339,7 +30488,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="72" t="s">
-        <v>943</v>
+        <v>958</v>
       </c>
       <c r="P64" s="72">
         <v>0</v>
@@ -30476,7 +30625,7 @@
         <v>753</v>
       </c>
       <c r="H65" s="71" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
       <c r="I65" s="72" t="s">
         <v>180</v>
@@ -30594,8 +30743,8 @@
       <c r="AX65" s="72">
         <v>0</v>
       </c>
-      <c r="AY65" s="72">
-        <v>0</v>
+      <c r="AY65" s="73" t="s">
+        <v>960</v>
       </c>
       <c r="AZ65" s="72"/>
       <c r="BA65" s="72"/>
@@ -30630,7 +30779,7 @@
         <v>705</v>
       </c>
       <c r="H66" s="71" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="I66" s="72" t="s">
         <v>180</v>
@@ -30763,7 +30912,7 @@
     </row>
     <row r="67" ht="15.75">
       <c r="A67" s="68" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="B67" s="69">
         <v>0</v>
@@ -30775,16 +30924,16 @@
         <v>0</v>
       </c>
       <c r="E67" s="69" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="F67" s="69">
         <v>0</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="H67" s="71" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="I67" s="72" t="s">
         <v>36</v>
@@ -30801,10 +30950,10 @@
         <v>0</v>
       </c>
       <c r="O67" s="72" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="P67" s="72" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
       <c r="Q67" s="72"/>
       <c r="R67" s="72"/>
@@ -31672,8 +31821,8 @@
       <c r="AX72" s="72">
         <v>0</v>
       </c>
-      <c r="AY72" s="72">
-        <v>0</v>
+      <c r="AY72" s="73" t="s">
+        <v>966</v>
       </c>
       <c r="AZ72" s="72"/>
       <c r="BA72" s="72"/>
@@ -31980,8 +32129,8 @@
       <c r="AX74" s="72">
         <v>0</v>
       </c>
-      <c r="AY74" s="74" t="s">
-        <v>950</v>
+      <c r="AY74" s="75" t="s">
+        <v>967</v>
       </c>
       <c r="AZ74" s="72"/>
       <c r="BA74" s="72"/>
@@ -32173,7 +32322,7 @@
         <v>416</v>
       </c>
       <c r="I76" s="72" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="J76" s="72" t="s">
         <v>300</v>
@@ -32327,7 +32476,7 @@
         <v>848</v>
       </c>
       <c r="I77" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J77" s="72" t="s">
         <v>122</v>
@@ -33094,7 +33243,7 @@
         <v>84</v>
       </c>
       <c r="H82" s="71" t="s">
-        <v>951</v>
+        <v>968</v>
       </c>
       <c r="I82" s="72" t="s">
         <v>66</v>
@@ -33212,8 +33361,8 @@
       <c r="AX82" s="72">
         <v>0</v>
       </c>
-      <c r="AY82" s="72">
-        <v>0</v>
+      <c r="AY82" s="73" t="s">
+        <v>969</v>
       </c>
       <c r="AZ82" s="72"/>
       <c r="BA82" s="72"/>
@@ -33366,8 +33515,8 @@
       <c r="AX83" s="72">
         <v>0</v>
       </c>
-      <c r="AY83" s="74" t="s">
-        <v>952</v>
+      <c r="AY83" s="75" t="s">
+        <v>970</v>
       </c>
       <c r="AZ83" s="72"/>
       <c r="BA83" s="72"/>
@@ -33520,8 +33669,8 @@
       <c r="AX84" s="72">
         <v>0</v>
       </c>
-      <c r="AY84" s="75" t="s">
-        <v>953</v>
+      <c r="AY84" s="76" t="s">
+        <v>971</v>
       </c>
       <c r="AZ84" s="72"/>
       <c r="BA84" s="72"/>
@@ -34172,10 +34321,10 @@
         <v>831</v>
       </c>
       <c r="H89" s="71" t="s">
-        <v>954</v>
+        <v>972</v>
       </c>
       <c r="I89" s="72" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="J89" s="72" t="s">
         <v>65</v>
@@ -34188,8 +34337,8 @@
       <c r="N89" s="72">
         <v>0</v>
       </c>
-      <c r="O89" s="73" t="s">
-        <v>955</v>
+      <c r="O89" s="74" t="s">
+        <v>973</v>
       </c>
       <c r="P89" s="72">
         <v>0</v>
@@ -34598,8 +34747,8 @@
       <c r="AX91" s="72">
         <v>0</v>
       </c>
-      <c r="AY91" s="72">
-        <v>0</v>
+      <c r="AY91" s="73" t="s">
+        <v>974</v>
       </c>
       <c r="AZ91" s="72"/>
       <c r="BA91" s="72"/>
@@ -34752,8 +34901,8 @@
       <c r="AX92" s="72">
         <v>0</v>
       </c>
-      <c r="AY92" s="72">
-        <v>0</v>
+      <c r="AY92" s="73" t="s">
+        <v>975</v>
       </c>
       <c r="AZ92" s="72"/>
       <c r="BA92" s="72"/>
@@ -34906,8 +35055,8 @@
       <c r="AX93" s="72">
         <v>0</v>
       </c>
-      <c r="AY93" s="72">
-        <v>0</v>
+      <c r="AY93" s="73" t="s">
+        <v>976</v>
       </c>
       <c r="AZ93" s="72"/>
       <c r="BA93" s="72"/>
@@ -35096,7 +35245,7 @@
         <v>700</v>
       </c>
       <c r="H95" s="71" t="s">
-        <v>956</v>
+        <v>977</v>
       </c>
       <c r="I95" s="72" t="s">
         <v>137</v>
@@ -35522,8 +35671,8 @@
       <c r="AX97" s="72">
         <v>0</v>
       </c>
-      <c r="AY97" s="72">
-        <v>0</v>
+      <c r="AY97" s="73" t="s">
+        <v>978</v>
       </c>
       <c r="AZ97" s="72"/>
       <c r="BA97" s="72"/>
@@ -35537,10 +35686,10 @@
     </row>
     <row r="98" ht="15.75">
       <c r="A98" s="68" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
       <c r="B98" s="69" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
       <c r="C98" s="69">
         <v>0</v>
@@ -35555,10 +35704,10 @@
         <v>0</v>
       </c>
       <c r="G98" s="70" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
       <c r="H98" s="71" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="I98" s="72" t="s">
         <v>269</v>
@@ -35575,7 +35724,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="72" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="P98" s="72">
         <v>0</v>
@@ -35676,8 +35825,8 @@
       <c r="AX98" s="72">
         <v>0</v>
       </c>
-      <c r="AY98" s="72">
-        <v>0</v>
+      <c r="AY98" s="73" t="s">
+        <v>982</v>
       </c>
       <c r="AZ98" s="72"/>
       <c r="BA98" s="72"/>
@@ -35984,8 +36133,8 @@
       <c r="AX100" s="72">
         <v>0</v>
       </c>
-      <c r="AY100" s="72">
-        <v>0</v>
+      <c r="AY100" s="73" t="s">
+        <v>983</v>
       </c>
       <c r="AZ100" s="72"/>
       <c r="BA100" s="72"/>
@@ -36598,8 +36747,8 @@
       <c r="AX104" s="72">
         <v>0</v>
       </c>
-      <c r="AY104" s="72">
-        <v>0</v>
+      <c r="AY104" s="73" t="s">
+        <v>984</v>
       </c>
       <c r="AZ104" s="72"/>
       <c r="BA104" s="72"/>
@@ -36767,13 +36916,13 @@
     </row>
     <row r="106" ht="15.75">
       <c r="A106" s="68" t="s">
-        <v>960</v>
+        <v>985</v>
       </c>
       <c r="B106" s="69">
         <v>0</v>
       </c>
       <c r="C106" s="69" t="s">
-        <v>960</v>
+        <v>985</v>
       </c>
       <c r="D106" s="69">
         <v>0</v>
@@ -36785,16 +36934,16 @@
         <v>0</v>
       </c>
       <c r="G106" s="70" t="s">
-        <v>960</v>
+        <v>985</v>
       </c>
       <c r="H106" s="71" t="s">
-        <v>961</v>
+        <v>986</v>
       </c>
       <c r="I106" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J106" s="72" t="s">
-        <v>962</v>
+        <v>987</v>
       </c>
       <c r="K106" s="72"/>
       <c r="L106" s="72"/>
@@ -36804,8 +36953,8 @@
       <c r="N106" s="72">
         <v>0</v>
       </c>
-      <c r="O106" s="73" t="s">
-        <v>963</v>
+      <c r="O106" s="74" t="s">
+        <v>988</v>
       </c>
       <c r="P106" s="72">
         <v>0</v>
@@ -37060,8 +37209,8 @@
       <c r="AX107" s="72">
         <v>0</v>
       </c>
-      <c r="AY107" s="72">
-        <v>0</v>
+      <c r="AY107" s="73" t="s">
+        <v>989</v>
       </c>
       <c r="AZ107" s="72"/>
       <c r="BA107" s="72"/>
@@ -37404,10 +37553,10 @@
         <v>811</v>
       </c>
       <c r="H110" s="71" t="s">
-        <v>964</v>
+        <v>990</v>
       </c>
       <c r="I110" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J110" s="72" t="s">
         <v>130</v>
@@ -37454,7 +37603,7 @@
         <v>81</v>
       </c>
       <c r="AB110" s="72" t="s">
-        <v>965</v>
+        <v>991</v>
       </c>
       <c r="AC110" s="72" t="s">
         <v>83</v>
@@ -37830,8 +37979,8 @@
       <c r="AX112" s="72">
         <v>0</v>
       </c>
-      <c r="AY112" s="75" t="s">
-        <v>966</v>
+      <c r="AY112" s="76" t="s">
+        <v>992</v>
       </c>
       <c r="AZ112" s="72"/>
       <c r="BA112" s="72"/>
@@ -38020,10 +38169,10 @@
         <v>593</v>
       </c>
       <c r="H114" s="71" t="s">
-        <v>967</v>
+        <v>993</v>
       </c>
       <c r="I114" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J114" s="72" t="s">
         <v>100</v>
@@ -38307,7 +38456,7 @@
     </row>
     <row r="116" ht="15.75">
       <c r="A116" s="68" t="s">
-        <v>968</v>
+        <v>994</v>
       </c>
       <c r="B116" s="69">
         <v>0</v>
@@ -38322,13 +38471,13 @@
         <v>0</v>
       </c>
       <c r="F116" s="69" t="s">
-        <v>968</v>
+        <v>994</v>
       </c>
       <c r="G116" s="70" t="s">
-        <v>968</v>
+        <v>994</v>
       </c>
       <c r="H116" s="71" t="s">
-        <v>969</v>
+        <v>995</v>
       </c>
       <c r="I116" s="72" t="s">
         <v>209</v>
@@ -38345,7 +38494,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="72" t="s">
-        <v>970</v>
+        <v>996</v>
       </c>
       <c r="P116" s="72">
         <v>0</v>
@@ -38793,7 +38942,7 @@
         <v>835</v>
       </c>
       <c r="I119" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J119" s="72" t="s">
         <v>181</v>
@@ -39693,7 +39842,7 @@
     </row>
     <row r="125" ht="15.75">
       <c r="A125" s="68" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="B125" s="69">
         <v>0</v>
@@ -39708,13 +39857,13 @@
         <v>0</v>
       </c>
       <c r="F125" s="69" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="G125" s="70" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="H125" s="71" t="s">
-        <v>972</v>
+        <v>998</v>
       </c>
       <c r="I125" s="72" t="s">
         <v>137</v>
@@ -39731,7 +39880,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="72" t="s">
-        <v>973</v>
+        <v>999</v>
       </c>
       <c r="P125" s="72">
         <v>0</v>
@@ -40602,8 +40751,8 @@
       <c r="AX130" s="72">
         <v>0</v>
       </c>
-      <c r="AY130" s="72">
-        <v>0</v>
+      <c r="AY130" s="73" t="s">
+        <v>1000</v>
       </c>
       <c r="AZ130" s="72"/>
       <c r="BA130" s="72"/>
@@ -40771,13 +40920,13 @@
     </row>
     <row r="132" ht="15.75">
       <c r="A132" s="68" t="s">
-        <v>974</v>
+        <v>1001</v>
       </c>
       <c r="B132" s="69">
         <v>0</v>
       </c>
       <c r="C132" s="69" t="s">
-        <v>974</v>
+        <v>1001</v>
       </c>
       <c r="D132" s="69">
         <v>0</v>
@@ -40789,13 +40938,13 @@
         <v>0</v>
       </c>
       <c r="G132" s="70" t="s">
-        <v>974</v>
+        <v>1001</v>
       </c>
       <c r="H132" s="71" t="s">
-        <v>975</v>
+        <v>1002</v>
       </c>
       <c r="I132" s="72" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="J132" s="72" t="s">
         <v>130</v>
@@ -40809,7 +40958,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="72" t="s">
-        <v>976</v>
+        <v>1003</v>
       </c>
       <c r="P132" s="72">
         <v>0</v>
@@ -40910,8 +41059,8 @@
       <c r="AX132" s="72">
         <v>0</v>
       </c>
-      <c r="AY132" s="72">
-        <v>0</v>
+      <c r="AY132" s="73" t="s">
+        <v>1004</v>
       </c>
       <c r="AZ132" s="72"/>
       <c r="BA132" s="72"/>
@@ -41100,10 +41249,10 @@
         <v>694</v>
       </c>
       <c r="H134" s="71" t="s">
-        <v>977</v>
+        <v>1005</v>
       </c>
       <c r="I134" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J134" s="72" t="s">
         <v>282</v>
@@ -41233,7 +41382,7 @@
     </row>
     <row r="135" ht="15.75">
       <c r="A135" s="68" t="s">
-        <v>978</v>
+        <v>1006</v>
       </c>
       <c r="B135" s="69">
         <v>0</v>
@@ -41248,13 +41397,13 @@
         <v>0</v>
       </c>
       <c r="F135" s="69" t="s">
-        <v>978</v>
+        <v>1006</v>
       </c>
       <c r="G135" s="70" t="s">
-        <v>978</v>
+        <v>1006</v>
       </c>
       <c r="H135" s="71" t="s">
-        <v>979</v>
+        <v>1007</v>
       </c>
       <c r="I135" s="72" t="s">
         <v>251</v>
@@ -41271,7 +41420,7 @@
         <v>0</v>
       </c>
       <c r="O135" s="72" t="s">
-        <v>980</v>
+        <v>1008</v>
       </c>
       <c r="P135" s="72">
         <v>0</v>
@@ -41372,8 +41521,8 @@
       <c r="AX135" s="72">
         <v>0</v>
       </c>
-      <c r="AY135" s="72">
-        <v>0</v>
+      <c r="AY135" s="73" t="s">
+        <v>1009</v>
       </c>
       <c r="AZ135" s="72"/>
       <c r="BA135" s="72"/>
@@ -41526,8 +41675,8 @@
       <c r="AX136" s="72">
         <v>0</v>
       </c>
-      <c r="AY136" s="72">
-        <v>0</v>
+      <c r="AY136" s="73" t="s">
+        <v>1010</v>
       </c>
       <c r="AZ136" s="72"/>
       <c r="BA136" s="72"/>
@@ -41680,8 +41829,8 @@
       <c r="AX137" s="72">
         <v>0</v>
       </c>
-      <c r="AY137" s="74" t="s">
-        <v>981</v>
+      <c r="AY137" s="75" t="s">
+        <v>1011</v>
       </c>
       <c r="AZ137" s="72"/>
       <c r="BA137" s="72"/>
@@ -42181,7 +42330,7 @@
         <v>859</v>
       </c>
       <c r="I141" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J141" s="72" t="s">
         <v>181</v>
@@ -42332,7 +42481,7 @@
         <v>619</v>
       </c>
       <c r="H142" s="71" t="s">
-        <v>982</v>
+        <v>1012</v>
       </c>
       <c r="I142" s="72" t="s">
         <v>36</v>
@@ -42794,7 +42943,7 @@
         <v>760</v>
       </c>
       <c r="H145" s="71" t="s">
-        <v>983</v>
+        <v>1013</v>
       </c>
       <c r="I145" s="72" t="s">
         <v>137</v>
@@ -42965,7 +43114,7 @@
         <v>252</v>
       </c>
       <c r="O146" s="72" t="s">
-        <v>984</v>
+        <v>1014</v>
       </c>
       <c r="P146" s="72" t="s">
         <v>71</v>
@@ -43081,13 +43230,13 @@
     </row>
     <row r="147" ht="15.75">
       <c r="A147" s="68" t="s">
-        <v>985</v>
+        <v>1015</v>
       </c>
       <c r="B147" s="69">
         <v>0</v>
       </c>
       <c r="C147" s="69" t="s">
-        <v>985</v>
+        <v>1015</v>
       </c>
       <c r="D147" s="69">
         <v>0</v>
@@ -43099,13 +43248,13 @@
         <v>0</v>
       </c>
       <c r="G147" s="70" t="s">
-        <v>985</v>
+        <v>1015</v>
       </c>
       <c r="H147" s="71" t="s">
-        <v>986</v>
+        <v>1016</v>
       </c>
       <c r="I147" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J147" s="72" t="s">
         <v>130</v>
@@ -43119,7 +43268,7 @@
         <v>0</v>
       </c>
       <c r="O147" s="72" t="s">
-        <v>987</v>
+        <v>1017</v>
       </c>
       <c r="P147" s="72">
         <v>0</v>
@@ -43528,8 +43677,8 @@
       <c r="AX149" s="72">
         <v>0</v>
       </c>
-      <c r="AY149" s="72">
-        <v>0</v>
+      <c r="AY149" s="78" t="s">
+        <v>1018</v>
       </c>
       <c r="AZ149" s="72"/>
       <c r="BA149" s="72"/>
@@ -43541,7 +43690,7 @@
       <c r="BG149" s="72"/>
       <c r="BH149" s="72"/>
     </row>
-    <row r="150" ht="15.75">
+    <row r="150" ht="18" customHeight="1">
       <c r="A150" s="68" t="s">
         <v>268</v>
       </c>
@@ -43682,8 +43831,8 @@
       <c r="AX150" s="72">
         <v>0</v>
       </c>
-      <c r="AY150" s="75" t="s">
-        <v>988</v>
+      <c r="AY150" s="76" t="s">
+        <v>1019</v>
       </c>
       <c r="AZ150" s="72"/>
       <c r="BA150" s="72"/>
@@ -43734,7 +43883,7 @@
       <c r="N151" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="O151" s="77" t="s">
+      <c r="O151" s="79" t="s">
         <v>552</v>
       </c>
       <c r="P151" s="72" t="s">
@@ -43851,13 +44000,13 @@
     </row>
     <row r="152" ht="15.75">
       <c r="A152" s="68" t="s">
-        <v>989</v>
+        <v>1020</v>
       </c>
       <c r="B152" s="69">
         <v>0</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>989</v>
+        <v>1020</v>
       </c>
       <c r="D152" s="69">
         <v>0</v>
@@ -43869,16 +44018,16 @@
         <v>0</v>
       </c>
       <c r="G152" s="70" t="s">
-        <v>989</v>
+        <v>1020</v>
       </c>
       <c r="H152" s="71" t="s">
-        <v>990</v>
+        <v>1021</v>
       </c>
       <c r="I152" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J152" s="72" t="s">
-        <v>991</v>
+        <v>1022</v>
       </c>
       <c r="K152" s="72"/>
       <c r="L152" s="72"/>
@@ -44026,10 +44175,10 @@
         <v>257</v>
       </c>
       <c r="H153" s="71" t="s">
-        <v>992</v>
+        <v>1023</v>
       </c>
       <c r="I153" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J153" s="72" t="s">
         <v>130</v>
@@ -44337,7 +44486,7 @@
         <v>841</v>
       </c>
       <c r="I155" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J155" s="72" t="s">
         <v>224</v>
@@ -44467,13 +44616,13 @@
     </row>
     <row r="156" ht="15.75">
       <c r="A156" s="68" t="s">
-        <v>993</v>
+        <v>1024</v>
       </c>
       <c r="B156" s="69">
         <v>0</v>
       </c>
       <c r="C156" s="69" t="s">
-        <v>993</v>
+        <v>1024</v>
       </c>
       <c r="D156" s="69">
         <v>0</v>
@@ -44485,13 +44634,13 @@
         <v>0</v>
       </c>
       <c r="G156" s="70" t="s">
-        <v>993</v>
+        <v>1024</v>
       </c>
       <c r="H156" s="71" t="s">
-        <v>994</v>
+        <v>1025</v>
       </c>
       <c r="I156" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J156" s="72" t="s">
         <v>282</v>
@@ -44505,7 +44654,7 @@
         <v>0</v>
       </c>
       <c r="O156" s="72" t="s">
-        <v>995</v>
+        <v>1026</v>
       </c>
       <c r="P156" s="72">
         <v>0</v>
@@ -44950,7 +45099,7 @@
         <v>481</v>
       </c>
       <c r="H159" s="71" t="s">
-        <v>996</v>
+        <v>1027</v>
       </c>
       <c r="I159" s="72" t="s">
         <v>209</v>
@@ -45104,10 +45253,10 @@
         <v>697</v>
       </c>
       <c r="H160" s="71" t="s">
-        <v>997</v>
+        <v>1028</v>
       </c>
       <c r="I160" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J160" s="72" t="s">
         <v>282</v>
@@ -45222,8 +45371,8 @@
       <c r="AX160" s="72">
         <v>0</v>
       </c>
-      <c r="AY160" s="72">
-        <v>0</v>
+      <c r="AY160" s="73" t="s">
+        <v>1029</v>
       </c>
       <c r="AZ160" s="72"/>
       <c r="BA160" s="72"/>
@@ -45237,7 +45386,7 @@
     </row>
     <row r="161" ht="15.75">
       <c r="A161" s="68" t="s">
-        <v>998</v>
+        <v>1030</v>
       </c>
       <c r="B161" s="69">
         <v>0</v>
@@ -45249,16 +45398,16 @@
         <v>0</v>
       </c>
       <c r="E161" s="69" t="s">
-        <v>998</v>
+        <v>1030</v>
       </c>
       <c r="F161" s="69">
         <v>0</v>
       </c>
       <c r="G161" s="70" t="s">
-        <v>998</v>
+        <v>1030</v>
       </c>
       <c r="H161" s="71" t="s">
-        <v>999</v>
+        <v>1031</v>
       </c>
       <c r="I161" s="72" t="s">
         <v>180</v>
@@ -45275,7 +45424,7 @@
         <v>0</v>
       </c>
       <c r="O161" s="72" t="s">
-        <v>1000</v>
+        <v>1032</v>
       </c>
       <c r="P161" s="72">
         <v>0</v>
@@ -46336,10 +46485,10 @@
         <v>820</v>
       </c>
       <c r="H168" s="71" t="s">
-        <v>1001</v>
+        <v>1033</v>
       </c>
       <c r="I168" s="72" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="J168" s="72" t="s">
         <v>165</v>
@@ -46644,13 +46793,13 @@
         <v>715</v>
       </c>
       <c r="H170" s="71" t="s">
-        <v>1002</v>
+        <v>1034</v>
       </c>
       <c r="I170" s="72" t="s">
         <v>180</v>
       </c>
       <c r="J170" s="72" t="s">
-        <v>1003</v>
+        <v>1035</v>
       </c>
       <c r="K170" s="72"/>
       <c r="L170" s="72"/>
@@ -47224,8 +47373,8 @@
       <c r="AX173" s="72">
         <v>0</v>
       </c>
-      <c r="AY173" s="74" t="s">
-        <v>1004</v>
+      <c r="AY173" s="75" t="s">
+        <v>1036</v>
       </c>
       <c r="AZ173" s="72"/>
       <c r="BA173" s="72"/>
@@ -47239,7 +47388,7 @@
     </row>
     <row r="174" ht="15.75">
       <c r="A174" s="68" t="s">
-        <v>1005</v>
+        <v>1037</v>
       </c>
       <c r="B174" s="69">
         <v>0</v>
@@ -47254,13 +47403,13 @@
         <v>0</v>
       </c>
       <c r="F174" s="69" t="s">
-        <v>1005</v>
+        <v>1037</v>
       </c>
       <c r="G174" s="70" t="s">
-        <v>1005</v>
+        <v>1037</v>
       </c>
       <c r="H174" s="71" t="s">
-        <v>1006</v>
+        <v>1038</v>
       </c>
       <c r="I174" s="72" t="s">
         <v>180</v>
@@ -47277,7 +47426,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="72" t="s">
-        <v>1007</v>
+        <v>1039</v>
       </c>
       <c r="P174" s="72">
         <v>0</v>
@@ -47571,7 +47720,7 @@
         <v>828</v>
       </c>
       <c r="I176" s="72" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="J176" s="72" t="s">
         <v>37</v>
@@ -47840,8 +47989,8 @@
       <c r="AX177" s="72">
         <v>0</v>
       </c>
-      <c r="AY177" s="72">
-        <v>0</v>
+      <c r="AY177" s="73" t="s">
+        <v>1040</v>
       </c>
       <c r="AZ177" s="72"/>
       <c r="BA177" s="72"/>
@@ -47855,7 +48004,7 @@
     </row>
     <row r="178" ht="15.75">
       <c r="A178" s="68" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
       <c r="B178" s="69">
         <v>0</v>
@@ -47867,16 +48016,16 @@
         <v>0</v>
       </c>
       <c r="E178" s="69" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
       <c r="F178" s="69">
         <v>0</v>
       </c>
       <c r="G178" s="70" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
       <c r="H178" s="71" t="s">
-        <v>1009</v>
+        <v>1042</v>
       </c>
       <c r="I178" s="72" t="s">
         <v>36</v>
@@ -47893,7 +48042,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="72" t="s">
-        <v>1010</v>
+        <v>1043</v>
       </c>
       <c r="P178" s="72">
         <v>0</v>
@@ -48184,10 +48333,10 @@
         <v>686</v>
       </c>
       <c r="H180" s="71" t="s">
-        <v>1011</v>
+        <v>1044</v>
       </c>
       <c r="I180" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J180" s="72" t="s">
         <v>121</v>
@@ -48610,8 +48759,8 @@
       <c r="AX182" s="72">
         <v>0</v>
       </c>
-      <c r="AY182" s="72">
-        <v>0</v>
+      <c r="AY182" s="73" t="s">
+        <v>1045</v>
       </c>
       <c r="AZ182" s="72"/>
       <c r="BA182" s="72"/>
@@ -48764,9 +48913,7 @@
       <c r="AX183" s="72">
         <v>0</v>
       </c>
-      <c r="AY183" s="78" t="s">
-        <v>1012</v>
-      </c>
+      <c r="AY183" s="73"/>
       <c r="AZ183" s="72"/>
       <c r="BA183" s="72"/>
       <c r="BB183" s="72"/>
@@ -49087,7 +49234,7 @@
     </row>
     <row r="186" ht="15.75">
       <c r="A186" s="68" t="s">
-        <v>1013</v>
+        <v>1046</v>
       </c>
       <c r="B186" s="69">
         <v>0</v>
@@ -49096,7 +49243,7 @@
         <v>0</v>
       </c>
       <c r="D186" s="69" t="s">
-        <v>1013</v>
+        <v>1046</v>
       </c>
       <c r="E186" s="69">
         <v>0</v>
@@ -49105,10 +49252,10 @@
         <v>0</v>
       </c>
       <c r="G186" s="70" t="s">
-        <v>1013</v>
+        <v>1046</v>
       </c>
       <c r="H186" s="71" t="s">
-        <v>1014</v>
+        <v>1047</v>
       </c>
       <c r="I186" s="72" t="s">
         <v>137</v>
@@ -49125,7 +49272,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="72" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="P186" s="72">
         <v>0</v>
@@ -49395,7 +49542,7 @@
     </row>
     <row r="188" ht="15.75">
       <c r="A188" s="68" t="s">
-        <v>1015</v>
+        <v>1048</v>
       </c>
       <c r="B188" s="69">
         <v>0</v>
@@ -49407,19 +49554,19 @@
         <v>0</v>
       </c>
       <c r="E188" s="69" t="s">
-        <v>1015</v>
+        <v>1048</v>
       </c>
       <c r="F188" s="69">
         <v>0</v>
       </c>
       <c r="G188" s="70" t="s">
-        <v>1015</v>
+        <v>1048</v>
       </c>
       <c r="H188" s="71" t="s">
-        <v>1016</v>
+        <v>1049</v>
       </c>
       <c r="I188" s="72" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
       <c r="J188" s="72" t="s">
         <v>286</v>
@@ -49433,7 +49580,7 @@
         <v>0</v>
       </c>
       <c r="O188" s="72" t="s">
-        <v>1018</v>
+        <v>1051</v>
       </c>
       <c r="P188" s="72">
         <v>0</v>
@@ -49688,8 +49835,8 @@
       <c r="AX189" s="72">
         <v>0</v>
       </c>
-      <c r="AY189" s="72">
-        <v>0</v>
+      <c r="AY189" s="73" t="s">
+        <v>1052</v>
       </c>
       <c r="AZ189" s="72"/>
       <c r="BA189" s="72"/>
@@ -50458,8 +50605,8 @@
       <c r="AX194" s="72">
         <v>0</v>
       </c>
-      <c r="AY194" s="72">
-        <v>0</v>
+      <c r="AY194" s="73" t="s">
+        <v>1053</v>
       </c>
       <c r="AZ194" s="72"/>
       <c r="BA194" s="72"/>
@@ -50473,10 +50620,10 @@
     </row>
     <row r="195" ht="15.75">
       <c r="A195" s="68" t="s">
-        <v>1019</v>
+        <v>1054</v>
       </c>
       <c r="B195" s="69" t="s">
-        <v>1019</v>
+        <v>1054</v>
       </c>
       <c r="C195" s="69">
         <v>0</v>
@@ -50491,10 +50638,10 @@
         <v>0</v>
       </c>
       <c r="G195" s="70" t="s">
-        <v>1019</v>
+        <v>1054</v>
       </c>
       <c r="H195" s="71" t="s">
-        <v>1020</v>
+        <v>1055</v>
       </c>
       <c r="I195" s="72" t="s">
         <v>269</v>
@@ -50510,8 +50657,8 @@
       <c r="N195" s="72">
         <v>0</v>
       </c>
-      <c r="O195" s="73" t="s">
-        <v>1021</v>
+      <c r="O195" s="74" t="s">
+        <v>1056</v>
       </c>
       <c r="P195" s="72">
         <v>0</v>
@@ -50612,8 +50759,8 @@
       <c r="AX195" s="72">
         <v>0</v>
       </c>
-      <c r="AY195" s="72">
-        <v>0</v>
+      <c r="AY195" s="73" t="s">
+        <v>1057</v>
       </c>
       <c r="AZ195" s="72"/>
       <c r="BA195" s="72"/>
@@ -50956,10 +51103,10 @@
         <v>737</v>
       </c>
       <c r="H198" s="71" t="s">
-        <v>1022</v>
+        <v>1058</v>
       </c>
       <c r="I198" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J198" s="72" t="s">
         <v>282</v>
@@ -51382,8 +51529,8 @@
       <c r="AX200" s="72">
         <v>0</v>
       </c>
-      <c r="AY200" s="72">
-        <v>0</v>
+      <c r="AY200" s="73" t="s">
+        <v>1059</v>
       </c>
       <c r="AZ200" s="72"/>
       <c r="BA200" s="72"/>
@@ -52306,8 +52453,8 @@
       <c r="AX206" s="72">
         <v>0</v>
       </c>
-      <c r="AY206" s="72">
-        <v>0</v>
+      <c r="AY206" s="73" t="s">
+        <v>1060</v>
       </c>
       <c r="AZ206" s="72"/>
       <c r="BA206" s="72"/>
@@ -52922,8 +53069,8 @@
       <c r="AX210" s="72">
         <v>0</v>
       </c>
-      <c r="AY210" s="72">
-        <v>0</v>
+      <c r="AY210" s="73" t="s">
+        <v>1061</v>
       </c>
       <c r="AZ210" s="72"/>
       <c r="BA210" s="72"/>
@@ -53091,7 +53238,7 @@
     </row>
     <row r="212" ht="15.75">
       <c r="A212" s="68" t="s">
-        <v>1023</v>
+        <v>1062</v>
       </c>
       <c r="B212" s="69">
         <v>0</v>
@@ -53103,16 +53250,16 @@
         <v>0</v>
       </c>
       <c r="E212" s="69" t="s">
-        <v>1023</v>
+        <v>1062</v>
       </c>
       <c r="F212" s="69">
         <v>0</v>
       </c>
       <c r="G212" s="70" t="s">
-        <v>1023</v>
+        <v>1062</v>
       </c>
       <c r="H212" s="71" t="s">
-        <v>1024</v>
+        <v>1063</v>
       </c>
       <c r="I212" s="72" t="s">
         <v>180</v>
@@ -53129,7 +53276,7 @@
         <v>0</v>
       </c>
       <c r="O212" s="72" t="s">
-        <v>1025</v>
+        <v>1064</v>
       </c>
       <c r="P212" s="72">
         <v>0</v>
@@ -53574,7 +53721,7 @@
         <v>234</v>
       </c>
       <c r="H215" s="71" t="s">
-        <v>1026</v>
+        <v>1065</v>
       </c>
       <c r="I215" s="72" t="s">
         <v>137</v>
@@ -53728,10 +53875,10 @@
         <v>739</v>
       </c>
       <c r="H216" s="71" t="s">
-        <v>1027</v>
+        <v>1066</v>
       </c>
       <c r="I216" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J216" s="72" t="s">
         <v>282</v>
@@ -54000,8 +54147,8 @@
       <c r="AX217" s="72">
         <v>0</v>
       </c>
-      <c r="AY217" s="72">
-        <v>0</v>
+      <c r="AY217" s="73" t="s">
+        <v>1067</v>
       </c>
       <c r="AZ217" s="72"/>
       <c r="BA217" s="72"/>
@@ -54038,7 +54185,7 @@
       <c r="H218" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="I218" s="79" t="s">
+      <c r="I218" s="80" t="s">
         <v>144</v>
       </c>
       <c r="J218" s="72" t="s">
@@ -54308,8 +54455,8 @@
       <c r="AX219" s="72">
         <v>0</v>
       </c>
-      <c r="AY219" s="72">
-        <v>0</v>
+      <c r="AY219" s="73" t="s">
+        <v>1068</v>
       </c>
       <c r="AZ219" s="72"/>
       <c r="BA219" s="72"/>
@@ -54360,7 +54507,7 @@
       <c r="N220" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="O220" s="77" t="s">
+      <c r="O220" s="79" t="s">
         <v>401</v>
       </c>
       <c r="P220" s="72" t="s">
@@ -54616,8 +54763,8 @@
       <c r="AX221" s="72">
         <v>0</v>
       </c>
-      <c r="AY221" s="74" t="s">
-        <v>1028</v>
+      <c r="AY221" s="75" t="s">
+        <v>1069</v>
       </c>
       <c r="AZ221" s="72"/>
       <c r="BA221" s="72"/>
@@ -54924,8 +55071,8 @@
       <c r="AX223" s="72">
         <v>0</v>
       </c>
-      <c r="AY223" s="72">
-        <v>0</v>
+      <c r="AY223" s="73" t="s">
+        <v>1070</v>
       </c>
       <c r="AZ223" s="72"/>
       <c r="BA223" s="72"/>
@@ -55078,8 +55225,8 @@
       <c r="AX224" s="72">
         <v>0</v>
       </c>
-      <c r="AY224" s="72">
-        <v>0</v>
+      <c r="AY224" s="73" t="s">
+        <v>1071</v>
       </c>
       <c r="AZ224" s="72"/>
       <c r="BA224" s="72"/>
@@ -55386,8 +55533,8 @@
       <c r="AX226" s="72">
         <v>0</v>
       </c>
-      <c r="AY226" s="72">
-        <v>0</v>
+      <c r="AY226" s="73" t="s">
+        <v>1072</v>
       </c>
       <c r="AZ226" s="72"/>
       <c r="BA226" s="72"/>
@@ -55540,8 +55687,8 @@
       <c r="AX227" s="72">
         <v>0</v>
       </c>
-      <c r="AY227" s="72">
-        <v>0</v>
+      <c r="AY227" s="73" t="s">
+        <v>1073</v>
       </c>
       <c r="AZ227" s="72"/>
       <c r="BA227" s="72"/>
@@ -55576,7 +55723,7 @@
         <v>630</v>
       </c>
       <c r="H228" s="71" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
       <c r="I228" s="72" t="s">
         <v>631</v>
@@ -56002,8 +56149,8 @@
       <c r="AX230" s="72">
         <v>0</v>
       </c>
-      <c r="AY230" s="72">
-        <v>0</v>
+      <c r="AY230" s="73" t="s">
+        <v>1074</v>
       </c>
       <c r="AZ230" s="72"/>
       <c r="BA230" s="72"/>
@@ -56017,13 +56164,13 @@
     </row>
     <row r="231" ht="15.75">
       <c r="A231" s="68" t="s">
-        <v>1029</v>
+        <v>1075</v>
       </c>
       <c r="B231" s="69">
         <v>0</v>
       </c>
       <c r="C231" s="69" t="s">
-        <v>1029</v>
+        <v>1075</v>
       </c>
       <c r="D231" s="69">
         <v>0</v>
@@ -56035,7 +56182,7 @@
         <v>0</v>
       </c>
       <c r="G231" s="70" t="s">
-        <v>1029</v>
+        <v>1075</v>
       </c>
       <c r="H231" s="71" t="s">
         <v>105</v>
@@ -56192,7 +56339,7 @@
         <v>533</v>
       </c>
       <c r="H232" s="71" t="s">
-        <v>1030</v>
+        <v>1076</v>
       </c>
       <c r="I232" s="72" t="s">
         <v>180</v>
@@ -56310,8 +56457,8 @@
       <c r="AX232" s="72">
         <v>0</v>
       </c>
-      <c r="AY232" s="72">
-        <v>0</v>
+      <c r="AY232" s="73" t="s">
+        <v>1077</v>
       </c>
       <c r="AZ232" s="72"/>
       <c r="BA232" s="72"/>
@@ -56479,7 +56626,7 @@
     </row>
     <row r="234" ht="15.75">
       <c r="A234" s="68" t="s">
-        <v>1031</v>
+        <v>1078</v>
       </c>
       <c r="B234" s="69">
         <v>0</v>
@@ -56488,7 +56635,7 @@
         <v>0</v>
       </c>
       <c r="D234" s="69" t="s">
-        <v>1031</v>
+        <v>1078</v>
       </c>
       <c r="E234" s="69">
         <v>0</v>
@@ -56497,12 +56644,12 @@
         <v>0</v>
       </c>
       <c r="G234" s="70" t="s">
-        <v>1031</v>
+        <v>1078</v>
       </c>
       <c r="H234" s="71" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I234" s="80" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I234" s="81" t="s">
         <v>137</v>
       </c>
       <c r="J234" s="72" t="s">
@@ -56517,7 +56664,7 @@
         <v>0</v>
       </c>
       <c r="O234" s="72" t="s">
-        <v>1033</v>
+        <v>1080</v>
       </c>
       <c r="P234" s="72">
         <v>0</v>
@@ -56654,13 +56801,13 @@
         <v>762</v>
       </c>
       <c r="H235" s="71" t="s">
-        <v>1034</v>
+        <v>1081</v>
       </c>
       <c r="I235" s="72" t="s">
         <v>36</v>
       </c>
       <c r="J235" s="72" t="s">
-        <v>1035</v>
+        <v>1082</v>
       </c>
       <c r="K235" s="72"/>
       <c r="L235" s="72"/>
@@ -56926,8 +57073,8 @@
       <c r="AX236" s="72">
         <v>0</v>
       </c>
-      <c r="AY236" s="72">
-        <v>0</v>
+      <c r="AY236" s="73" t="s">
+        <v>1083</v>
       </c>
       <c r="AZ236" s="72"/>
       <c r="BA236" s="72"/>
@@ -57116,13 +57263,13 @@
         <v>748</v>
       </c>
       <c r="H238" s="71" t="s">
-        <v>1036</v>
+        <v>1084</v>
       </c>
       <c r="I238" s="72" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J238" s="72" t="s">
-        <v>1037</v>
+        <v>1085</v>
       </c>
       <c r="K238" s="72"/>
       <c r="L238" s="72"/>
@@ -57249,13 +57396,13 @@
     </row>
     <row r="239" ht="15.75">
       <c r="A239" s="68" t="s">
-        <v>1038</v>
+        <v>1086</v>
       </c>
       <c r="B239" s="69">
         <v>0</v>
       </c>
       <c r="C239" s="69" t="s">
-        <v>1038</v>
+        <v>1086</v>
       </c>
       <c r="D239" s="69">
         <v>0</v>
@@ -57267,13 +57414,13 @@
         <v>0</v>
       </c>
       <c r="G239" s="70" t="s">
-        <v>1038</v>
+        <v>1086</v>
       </c>
       <c r="H239" s="71" t="s">
-        <v>1039</v>
+        <v>1087</v>
       </c>
       <c r="I239" s="72" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="J239" s="72" t="s">
         <v>130</v>
@@ -57286,7 +57433,7 @@
       <c r="N239" s="72">
         <v>0</v>
       </c>
-      <c r="O239" s="73" t="s">
+      <c r="O239" s="74" t="s">
         <v>509</v>
       </c>
       <c r="P239" s="72">
@@ -57902,7 +58049,7 @@
       <c r="N243" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="O243" s="77" t="s">
+      <c r="O243" s="79" t="s">
         <v>789</v>
       </c>
       <c r="P243" s="72" t="s">
@@ -58040,10 +58187,10 @@
         <v>272</v>
       </c>
       <c r="H244" s="71" t="s">
-        <v>1040</v>
+        <v>1088</v>
       </c>
       <c r="I244" s="72" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="J244" s="72" t="s">
         <v>86</v>
@@ -58364,7 +58511,7 @@
       <c r="N246" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="O246" s="77" t="s">
+      <c r="O246" s="79" t="s">
         <v>804</v>
       </c>
       <c r="P246" s="72" t="s">
@@ -60246,1915 +60393,1915 @@
       <c r="BH273" s="72"/>
     </row>
     <row r="274" ht="15.75">
-      <c r="A274" s="81"/>
+      <c r="A274" s="82"/>
       <c r="J274" s="45"/>
     </row>
     <row r="275" ht="15.75">
-      <c r="A275" s="81"/>
+      <c r="A275" s="82"/>
       <c r="J275" s="45"/>
     </row>
     <row r="276" ht="15.75">
-      <c r="A276" s="81"/>
+      <c r="A276" s="82"/>
       <c r="J276" s="45"/>
     </row>
     <row r="277" ht="15.75">
-      <c r="A277" s="81"/>
+      <c r="A277" s="82"/>
       <c r="J277" s="45"/>
     </row>
     <row r="278" ht="15.75">
-      <c r="A278" s="81"/>
+      <c r="A278" s="82"/>
       <c r="J278" s="45"/>
     </row>
     <row r="279" ht="15.75">
-      <c r="A279" s="81"/>
+      <c r="A279" s="82"/>
       <c r="J279" s="45"/>
     </row>
     <row r="280" ht="15.75">
-      <c r="A280" s="81"/>
+      <c r="A280" s="82"/>
       <c r="J280" s="45"/>
     </row>
     <row r="281" ht="15.75">
-      <c r="A281" s="81"/>
+      <c r="A281" s="82"/>
       <c r="J281" s="45"/>
     </row>
     <row r="282" ht="15.75">
-      <c r="A282" s="81"/>
+      <c r="A282" s="82"/>
       <c r="J282" s="45"/>
     </row>
     <row r="283" ht="15.75">
-      <c r="A283" s="81"/>
+      <c r="A283" s="82"/>
       <c r="J283" s="45"/>
     </row>
     <row r="284" ht="15.75">
-      <c r="A284" s="81"/>
+      <c r="A284" s="82"/>
       <c r="J284" s="45"/>
     </row>
     <row r="285" ht="15.75">
-      <c r="A285" s="81"/>
+      <c r="A285" s="82"/>
       <c r="J285" s="45"/>
     </row>
     <row r="286" ht="15.75">
-      <c r="A286" s="81"/>
+      <c r="A286" s="82"/>
       <c r="J286" s="45"/>
     </row>
     <row r="287" ht="15.75">
-      <c r="A287" s="81"/>
+      <c r="A287" s="82"/>
       <c r="J287" s="45"/>
     </row>
     <row r="288" ht="15.75">
-      <c r="A288" s="81"/>
+      <c r="A288" s="82"/>
       <c r="J288" s="45"/>
     </row>
     <row r="289" ht="15.75">
-      <c r="A289" s="81"/>
+      <c r="A289" s="82"/>
       <c r="J289" s="45"/>
     </row>
     <row r="290" ht="15.75">
-      <c r="A290" s="81"/>
+      <c r="A290" s="82"/>
       <c r="J290" s="45"/>
     </row>
     <row r="291" ht="15.75">
-      <c r="A291" s="81"/>
+      <c r="A291" s="82"/>
       <c r="J291" s="45"/>
     </row>
     <row r="292" ht="15.75">
-      <c r="A292" s="81"/>
+      <c r="A292" s="82"/>
       <c r="J292" s="45"/>
     </row>
     <row r="293" ht="15.75">
-      <c r="A293" s="81"/>
+      <c r="A293" s="82"/>
       <c r="J293" s="45"/>
     </row>
     <row r="294" ht="15.75">
-      <c r="A294" s="81"/>
+      <c r="A294" s="82"/>
       <c r="J294" s="45"/>
     </row>
     <row r="295" ht="15.75">
-      <c r="A295" s="81"/>
+      <c r="A295" s="82"/>
       <c r="J295" s="45"/>
     </row>
     <row r="296" ht="15.75">
-      <c r="A296" s="81"/>
+      <c r="A296" s="82"/>
       <c r="J296" s="45"/>
     </row>
     <row r="297" ht="15.75">
-      <c r="A297" s="81"/>
+      <c r="A297" s="82"/>
       <c r="J297" s="45"/>
     </row>
     <row r="298" ht="15.75">
-      <c r="A298" s="81"/>
+      <c r="A298" s="82"/>
       <c r="J298" s="45"/>
     </row>
     <row r="299" ht="15.75">
-      <c r="A299" s="81"/>
+      <c r="A299" s="82"/>
       <c r="J299" s="45"/>
     </row>
     <row r="300" ht="15.75">
-      <c r="A300" s="81"/>
+      <c r="A300" s="82"/>
       <c r="J300" s="45"/>
     </row>
     <row r="301" ht="15.75">
-      <c r="A301" s="81"/>
+      <c r="A301" s="82"/>
       <c r="J301" s="45"/>
     </row>
     <row r="302" ht="15.75">
-      <c r="A302" s="81"/>
+      <c r="A302" s="82"/>
       <c r="J302" s="45"/>
     </row>
     <row r="303" ht="15.75">
-      <c r="A303" s="81"/>
+      <c r="A303" s="82"/>
       <c r="J303" s="45"/>
     </row>
     <row r="304" ht="15.75">
-      <c r="A304" s="81"/>
+      <c r="A304" s="82"/>
       <c r="J304" s="45"/>
     </row>
     <row r="305" ht="15.75">
-      <c r="A305" s="81"/>
+      <c r="A305" s="82"/>
       <c r="J305" s="45"/>
     </row>
     <row r="306" ht="15.75">
-      <c r="A306" s="81"/>
+      <c r="A306" s="82"/>
       <c r="J306" s="45"/>
     </row>
     <row r="307" ht="15.75">
-      <c r="A307" s="81"/>
+      <c r="A307" s="82"/>
       <c r="J307" s="45"/>
     </row>
     <row r="308" ht="15.75">
-      <c r="A308" s="81"/>
+      <c r="A308" s="82"/>
       <c r="J308" s="45"/>
     </row>
     <row r="309" ht="15.75">
-      <c r="A309" s="81"/>
+      <c r="A309" s="82"/>
       <c r="J309" s="45"/>
     </row>
     <row r="310" ht="15.75">
-      <c r="A310" s="81"/>
+      <c r="A310" s="82"/>
       <c r="J310" s="45"/>
     </row>
     <row r="311" ht="15.75">
-      <c r="A311" s="81"/>
+      <c r="A311" s="82"/>
       <c r="J311" s="45"/>
     </row>
     <row r="312" ht="15.75">
-      <c r="A312" s="81"/>
+      <c r="A312" s="82"/>
       <c r="J312" s="45"/>
     </row>
     <row r="313" ht="15.75">
-      <c r="A313" s="81"/>
+      <c r="A313" s="82"/>
       <c r="J313" s="45"/>
     </row>
     <row r="314" ht="15.75">
-      <c r="A314" s="81"/>
+      <c r="A314" s="82"/>
       <c r="J314" s="45"/>
     </row>
     <row r="315" ht="15.75">
-      <c r="A315" s="81"/>
+      <c r="A315" s="82"/>
       <c r="J315" s="45"/>
     </row>
     <row r="316" ht="15.75">
-      <c r="A316" s="81"/>
+      <c r="A316" s="82"/>
       <c r="J316" s="45"/>
     </row>
     <row r="317" ht="15.75">
-      <c r="A317" s="81"/>
+      <c r="A317" s="82"/>
       <c r="J317" s="45"/>
     </row>
     <row r="318" ht="15.75">
-      <c r="A318" s="81"/>
+      <c r="A318" s="82"/>
       <c r="J318" s="45"/>
     </row>
     <row r="319" ht="15.75">
-      <c r="A319" s="81"/>
+      <c r="A319" s="82"/>
       <c r="J319" s="45"/>
     </row>
     <row r="320" ht="15.75">
-      <c r="A320" s="81"/>
+      <c r="A320" s="82"/>
       <c r="J320" s="45"/>
     </row>
     <row r="321" ht="15.75">
-      <c r="A321" s="81"/>
+      <c r="A321" s="82"/>
       <c r="J321" s="45"/>
     </row>
     <row r="322" ht="15.75">
-      <c r="A322" s="81"/>
+      <c r="A322" s="82"/>
       <c r="J322" s="45"/>
     </row>
     <row r="323" ht="15.75">
-      <c r="A323" s="81"/>
+      <c r="A323" s="82"/>
       <c r="J323" s="45"/>
     </row>
     <row r="324" ht="15.75">
-      <c r="A324" s="81"/>
+      <c r="A324" s="82"/>
       <c r="J324" s="45"/>
     </row>
     <row r="325" ht="15.75">
-      <c r="A325" s="81"/>
+      <c r="A325" s="82"/>
       <c r="J325" s="45"/>
     </row>
     <row r="326" ht="15.75">
-      <c r="A326" s="81"/>
+      <c r="A326" s="82"/>
       <c r="J326" s="45"/>
     </row>
     <row r="327" ht="15.75">
-      <c r="A327" s="81"/>
+      <c r="A327" s="82"/>
       <c r="J327" s="45"/>
     </row>
     <row r="328" ht="15.75">
-      <c r="A328" s="81"/>
+      <c r="A328" s="82"/>
       <c r="J328" s="45"/>
     </row>
     <row r="329" ht="15.75">
-      <c r="A329" s="81"/>
+      <c r="A329" s="82"/>
       <c r="J329" s="45"/>
     </row>
     <row r="330" ht="15.75">
-      <c r="A330" s="81"/>
+      <c r="A330" s="82"/>
       <c r="J330" s="45"/>
     </row>
     <row r="331" ht="15.75">
-      <c r="A331" s="81"/>
+      <c r="A331" s="82"/>
       <c r="J331" s="45"/>
     </row>
     <row r="332" ht="15.75">
-      <c r="A332" s="81"/>
+      <c r="A332" s="82"/>
       <c r="J332" s="45"/>
     </row>
     <row r="333" ht="15.75">
-      <c r="A333" s="81"/>
+      <c r="A333" s="82"/>
       <c r="J333" s="45"/>
     </row>
     <row r="334" ht="15.75">
-      <c r="A334" s="81"/>
+      <c r="A334" s="82"/>
       <c r="J334" s="45"/>
     </row>
     <row r="335" ht="15.75">
-      <c r="A335" s="81"/>
+      <c r="A335" s="82"/>
       <c r="J335" s="45"/>
     </row>
     <row r="336" ht="15.75">
-      <c r="A336" s="81"/>
+      <c r="A336" s="82"/>
       <c r="J336" s="45"/>
     </row>
     <row r="337" ht="15.75">
-      <c r="A337" s="81"/>
+      <c r="A337" s="82"/>
       <c r="J337" s="45"/>
     </row>
     <row r="338" ht="15.75">
-      <c r="A338" s="81"/>
+      <c r="A338" s="82"/>
       <c r="J338" s="45"/>
     </row>
     <row r="339" ht="15.75">
-      <c r="A339" s="81"/>
+      <c r="A339" s="82"/>
       <c r="J339" s="45"/>
     </row>
     <row r="340" ht="15.75">
-      <c r="A340" s="81"/>
+      <c r="A340" s="82"/>
       <c r="J340" s="45"/>
     </row>
     <row r="341" ht="15.75">
-      <c r="A341" s="81"/>
+      <c r="A341" s="82"/>
       <c r="J341" s="45"/>
     </row>
     <row r="342" ht="15.75">
-      <c r="A342" s="81"/>
+      <c r="A342" s="82"/>
       <c r="J342" s="45"/>
     </row>
     <row r="343" ht="15.75">
-      <c r="A343" s="81"/>
+      <c r="A343" s="82"/>
       <c r="J343" s="45"/>
     </row>
     <row r="344" ht="15.75">
-      <c r="A344" s="81"/>
+      <c r="A344" s="82"/>
       <c r="J344" s="45"/>
     </row>
     <row r="345" ht="15.75">
-      <c r="A345" s="81"/>
+      <c r="A345" s="82"/>
       <c r="J345" s="45"/>
     </row>
     <row r="346" ht="15.75">
-      <c r="A346" s="81"/>
+      <c r="A346" s="82"/>
       <c r="J346" s="45"/>
     </row>
     <row r="347" ht="15.75">
-      <c r="A347" s="81"/>
+      <c r="A347" s="82"/>
       <c r="J347" s="45"/>
     </row>
     <row r="348" ht="15.75">
-      <c r="A348" s="81"/>
+      <c r="A348" s="82"/>
       <c r="J348" s="45"/>
     </row>
     <row r="349" ht="15.75">
-      <c r="A349" s="81"/>
+      <c r="A349" s="82"/>
       <c r="J349" s="45"/>
     </row>
     <row r="350" ht="15.75">
-      <c r="A350" s="81"/>
+      <c r="A350" s="82"/>
       <c r="J350" s="45"/>
     </row>
     <row r="351" ht="15.75">
-      <c r="A351" s="81"/>
+      <c r="A351" s="82"/>
       <c r="J351" s="45"/>
     </row>
     <row r="352" ht="15.75">
-      <c r="A352" s="81"/>
+      <c r="A352" s="82"/>
       <c r="J352" s="45"/>
     </row>
     <row r="353" ht="15.75">
-      <c r="A353" s="81"/>
+      <c r="A353" s="82"/>
       <c r="J353" s="45"/>
     </row>
     <row r="354" ht="15.75">
-      <c r="A354" s="81"/>
+      <c r="A354" s="82"/>
       <c r="J354" s="45"/>
     </row>
     <row r="355" ht="15.75">
-      <c r="A355" s="81"/>
+      <c r="A355" s="82"/>
       <c r="J355" s="45"/>
     </row>
     <row r="356" ht="15.75">
-      <c r="A356" s="81"/>
+      <c r="A356" s="82"/>
       <c r="J356" s="45"/>
     </row>
     <row r="357" ht="15.75">
-      <c r="A357" s="81"/>
+      <c r="A357" s="82"/>
       <c r="J357" s="45"/>
     </row>
     <row r="358" ht="15.75">
-      <c r="A358" s="81"/>
+      <c r="A358" s="82"/>
       <c r="J358" s="45"/>
     </row>
     <row r="359" ht="15.75">
-      <c r="A359" s="81"/>
+      <c r="A359" s="82"/>
       <c r="J359" s="45"/>
     </row>
     <row r="360" ht="15.75">
-      <c r="A360" s="81"/>
+      <c r="A360" s="82"/>
       <c r="J360" s="45"/>
     </row>
     <row r="361" ht="15.75">
-      <c r="A361" s="81"/>
+      <c r="A361" s="82"/>
       <c r="J361" s="45"/>
     </row>
     <row r="362" ht="15.75">
-      <c r="A362" s="81"/>
+      <c r="A362" s="82"/>
       <c r="J362" s="45"/>
     </row>
     <row r="363" ht="15.75">
-      <c r="A363" s="81"/>
+      <c r="A363" s="82"/>
       <c r="J363" s="45"/>
     </row>
     <row r="364" ht="15.75">
-      <c r="A364" s="81"/>
+      <c r="A364" s="82"/>
       <c r="J364" s="45"/>
     </row>
     <row r="365" ht="15.75">
-      <c r="A365" s="81"/>
+      <c r="A365" s="82"/>
       <c r="J365" s="45"/>
     </row>
     <row r="366" ht="15.75">
-      <c r="A366" s="81"/>
+      <c r="A366" s="82"/>
       <c r="J366" s="45"/>
     </row>
     <row r="367" ht="15.75">
-      <c r="A367" s="81"/>
+      <c r="A367" s="82"/>
       <c r="J367" s="45"/>
     </row>
     <row r="368" ht="15.75">
-      <c r="A368" s="81"/>
+      <c r="A368" s="82"/>
       <c r="J368" s="45"/>
     </row>
     <row r="369" ht="15.75">
-      <c r="A369" s="81"/>
+      <c r="A369" s="82"/>
       <c r="J369" s="45"/>
     </row>
     <row r="370" ht="15.75">
-      <c r="A370" s="81"/>
+      <c r="A370" s="82"/>
       <c r="J370" s="45"/>
     </row>
     <row r="371" ht="15.75">
-      <c r="A371" s="81"/>
+      <c r="A371" s="82"/>
       <c r="J371" s="45"/>
     </row>
     <row r="372" ht="15.75">
-      <c r="A372" s="81"/>
+      <c r="A372" s="82"/>
       <c r="J372" s="45"/>
     </row>
     <row r="373" ht="15.75">
-      <c r="A373" s="81"/>
+      <c r="A373" s="82"/>
       <c r="J373" s="45"/>
     </row>
     <row r="374" ht="15.75">
-      <c r="A374" s="81"/>
+      <c r="A374" s="82"/>
       <c r="J374" s="45"/>
     </row>
     <row r="375" ht="15.75">
-      <c r="A375" s="81"/>
+      <c r="A375" s="82"/>
       <c r="J375" s="45"/>
     </row>
     <row r="376" ht="15.75">
-      <c r="A376" s="81"/>
+      <c r="A376" s="82"/>
       <c r="J376" s="45"/>
     </row>
     <row r="377" ht="15.75">
-      <c r="A377" s="81"/>
+      <c r="A377" s="82"/>
       <c r="J377" s="45"/>
     </row>
     <row r="378" ht="15.75">
-      <c r="A378" s="81"/>
+      <c r="A378" s="82"/>
       <c r="J378" s="45"/>
     </row>
     <row r="379" ht="15.75">
-      <c r="A379" s="81"/>
+      <c r="A379" s="82"/>
       <c r="J379" s="45"/>
     </row>
     <row r="380" ht="15.75">
-      <c r="A380" s="81"/>
+      <c r="A380" s="82"/>
       <c r="J380" s="45"/>
     </row>
     <row r="381" ht="15.75">
-      <c r="A381" s="81"/>
+      <c r="A381" s="82"/>
       <c r="J381" s="45"/>
     </row>
     <row r="382" ht="15.75">
-      <c r="A382" s="81"/>
+      <c r="A382" s="82"/>
       <c r="J382" s="45"/>
     </row>
     <row r="383" ht="15.75">
-      <c r="A383" s="81"/>
+      <c r="A383" s="82"/>
       <c r="J383" s="45"/>
     </row>
     <row r="384" ht="15.75">
-      <c r="A384" s="81"/>
+      <c r="A384" s="82"/>
       <c r="J384" s="45"/>
     </row>
     <row r="385" ht="15.75">
-      <c r="A385" s="81"/>
+      <c r="A385" s="82"/>
       <c r="J385" s="45"/>
     </row>
     <row r="386" ht="15.75">
-      <c r="A386" s="81"/>
+      <c r="A386" s="82"/>
       <c r="J386" s="45"/>
     </row>
     <row r="387" ht="15.75">
-      <c r="A387" s="81"/>
+      <c r="A387" s="82"/>
       <c r="J387" s="45"/>
     </row>
     <row r="388" ht="15.75">
-      <c r="A388" s="81"/>
+      <c r="A388" s="82"/>
       <c r="J388" s="45"/>
     </row>
     <row r="389" ht="15.75">
-      <c r="A389" s="81"/>
+      <c r="A389" s="82"/>
       <c r="J389" s="45"/>
     </row>
     <row r="390" ht="15.75">
-      <c r="A390" s="81"/>
+      <c r="A390" s="82"/>
       <c r="J390" s="45"/>
     </row>
     <row r="391" ht="15.75">
-      <c r="A391" s="81"/>
+      <c r="A391" s="82"/>
       <c r="J391" s="45"/>
     </row>
     <row r="392" ht="15.75">
-      <c r="A392" s="81"/>
+      <c r="A392" s="82"/>
       <c r="J392" s="45"/>
     </row>
     <row r="393" ht="15.75">
-      <c r="A393" s="81"/>
+      <c r="A393" s="82"/>
       <c r="J393" s="45"/>
     </row>
     <row r="394" ht="15.75">
-      <c r="A394" s="81"/>
+      <c r="A394" s="82"/>
       <c r="J394" s="45"/>
     </row>
     <row r="395" ht="15.75">
-      <c r="A395" s="81"/>
+      <c r="A395" s="82"/>
       <c r="J395" s="45"/>
     </row>
     <row r="396" ht="15.75">
-      <c r="A396" s="81"/>
+      <c r="A396" s="82"/>
       <c r="J396" s="45"/>
     </row>
     <row r="397" ht="15.75">
-      <c r="A397" s="81"/>
+      <c r="A397" s="82"/>
       <c r="J397" s="45"/>
     </row>
     <row r="398" ht="15.75">
-      <c r="A398" s="81"/>
+      <c r="A398" s="82"/>
       <c r="J398" s="45"/>
     </row>
     <row r="399" ht="15.75">
-      <c r="A399" s="81"/>
+      <c r="A399" s="82"/>
       <c r="J399" s="45"/>
     </row>
     <row r="400" ht="15.75">
-      <c r="A400" s="81"/>
+      <c r="A400" s="82"/>
       <c r="J400" s="45"/>
     </row>
     <row r="401" ht="15.75">
-      <c r="A401" s="81"/>
+      <c r="A401" s="82"/>
       <c r="J401" s="45"/>
     </row>
     <row r="402" ht="15.75">
-      <c r="A402" s="81"/>
+      <c r="A402" s="82"/>
       <c r="J402" s="45"/>
     </row>
     <row r="403" ht="15.75">
-      <c r="A403" s="81"/>
+      <c r="A403" s="82"/>
       <c r="J403" s="45"/>
     </row>
     <row r="404" ht="15.75">
-      <c r="A404" s="81"/>
+      <c r="A404" s="82"/>
       <c r="J404" s="45"/>
     </row>
     <row r="405" ht="15.75">
-      <c r="A405" s="81"/>
+      <c r="A405" s="82"/>
       <c r="J405" s="45"/>
     </row>
     <row r="406" ht="15.75">
-      <c r="A406" s="81"/>
+      <c r="A406" s="82"/>
       <c r="J406" s="45"/>
     </row>
     <row r="407" ht="15.75">
-      <c r="A407" s="81"/>
+      <c r="A407" s="82"/>
       <c r="J407" s="45"/>
     </row>
     <row r="408" ht="15.75">
-      <c r="A408" s="81"/>
+      <c r="A408" s="82"/>
       <c r="J408" s="45"/>
     </row>
     <row r="409" ht="15.75">
-      <c r="A409" s="81"/>
+      <c r="A409" s="82"/>
       <c r="J409" s="45"/>
     </row>
     <row r="410" ht="15.75">
-      <c r="A410" s="81"/>
+      <c r="A410" s="82"/>
       <c r="J410" s="45"/>
     </row>
     <row r="411" ht="15.75">
-      <c r="A411" s="81"/>
+      <c r="A411" s="82"/>
       <c r="J411" s="45"/>
     </row>
     <row r="412" ht="15.75">
-      <c r="A412" s="81"/>
+      <c r="A412" s="82"/>
       <c r="J412" s="45"/>
     </row>
     <row r="413" ht="15.75">
-      <c r="A413" s="81"/>
+      <c r="A413" s="82"/>
       <c r="J413" s="45"/>
     </row>
     <row r="414" ht="15.75">
-      <c r="A414" s="81"/>
+      <c r="A414" s="82"/>
       <c r="J414" s="45"/>
     </row>
     <row r="415" ht="15.75">
-      <c r="A415" s="81"/>
+      <c r="A415" s="82"/>
       <c r="J415" s="45"/>
     </row>
     <row r="416" ht="15.75">
-      <c r="A416" s="81"/>
+      <c r="A416" s="82"/>
       <c r="J416" s="45"/>
     </row>
     <row r="417" ht="15.75">
-      <c r="A417" s="81"/>
+      <c r="A417" s="82"/>
       <c r="J417" s="45"/>
     </row>
     <row r="418" ht="15.75">
-      <c r="A418" s="81"/>
+      <c r="A418" s="82"/>
       <c r="J418" s="45"/>
     </row>
     <row r="419" ht="15.75">
-      <c r="A419" s="81"/>
+      <c r="A419" s="82"/>
       <c r="J419" s="45"/>
     </row>
     <row r="420" ht="15.75">
-      <c r="A420" s="81"/>
+      <c r="A420" s="82"/>
       <c r="J420" s="45"/>
     </row>
     <row r="421" ht="15.75">
-      <c r="A421" s="81"/>
+      <c r="A421" s="82"/>
       <c r="J421" s="45"/>
     </row>
     <row r="422" ht="15.75">
-      <c r="A422" s="81"/>
+      <c r="A422" s="82"/>
       <c r="J422" s="45"/>
     </row>
     <row r="423" ht="15.75">
-      <c r="A423" s="81"/>
+      <c r="A423" s="82"/>
       <c r="J423" s="45"/>
     </row>
     <row r="424" ht="15.75">
-      <c r="A424" s="81"/>
+      <c r="A424" s="82"/>
       <c r="J424" s="45"/>
     </row>
     <row r="425" ht="15.75">
-      <c r="A425" s="81"/>
+      <c r="A425" s="82"/>
       <c r="J425" s="45"/>
     </row>
     <row r="426" ht="15.75">
-      <c r="A426" s="81"/>
+      <c r="A426" s="82"/>
       <c r="J426" s="45"/>
     </row>
     <row r="427" ht="15.75">
-      <c r="A427" s="81"/>
+      <c r="A427" s="82"/>
       <c r="J427" s="45"/>
     </row>
     <row r="428" ht="15.75">
-      <c r="A428" s="81"/>
+      <c r="A428" s="82"/>
       <c r="J428" s="45"/>
     </row>
     <row r="429" ht="15.75">
-      <c r="A429" s="81"/>
+      <c r="A429" s="82"/>
       <c r="J429" s="45"/>
     </row>
     <row r="430" ht="15.75">
-      <c r="A430" s="81"/>
+      <c r="A430" s="82"/>
       <c r="J430" s="45"/>
     </row>
     <row r="431" ht="15.75">
-      <c r="A431" s="81"/>
+      <c r="A431" s="82"/>
       <c r="J431" s="45"/>
     </row>
     <row r="432" ht="15.75">
-      <c r="A432" s="81"/>
+      <c r="A432" s="82"/>
       <c r="J432" s="45"/>
     </row>
     <row r="433" ht="15.75">
-      <c r="A433" s="81"/>
+      <c r="A433" s="82"/>
       <c r="J433" s="45"/>
     </row>
     <row r="434" ht="15.75">
-      <c r="A434" s="81"/>
+      <c r="A434" s="82"/>
       <c r="J434" s="45"/>
     </row>
     <row r="435" ht="15.75">
-      <c r="A435" s="81"/>
+      <c r="A435" s="82"/>
       <c r="J435" s="45"/>
     </row>
     <row r="436" ht="15.75">
-      <c r="A436" s="81"/>
+      <c r="A436" s="82"/>
       <c r="J436" s="45"/>
     </row>
     <row r="437" ht="15.75">
-      <c r="A437" s="81"/>
+      <c r="A437" s="82"/>
       <c r="J437" s="45"/>
     </row>
     <row r="438" ht="15.75">
-      <c r="A438" s="81"/>
+      <c r="A438" s="82"/>
       <c r="J438" s="45"/>
     </row>
     <row r="439" ht="15.75">
-      <c r="A439" s="81"/>
+      <c r="A439" s="82"/>
       <c r="J439" s="45"/>
     </row>
     <row r="440" ht="15.75">
-      <c r="A440" s="81"/>
+      <c r="A440" s="82"/>
       <c r="J440" s="45"/>
     </row>
     <row r="441" ht="15.75">
-      <c r="A441" s="81"/>
+      <c r="A441" s="82"/>
       <c r="J441" s="45"/>
     </row>
     <row r="442" ht="15.75">
-      <c r="A442" s="81"/>
+      <c r="A442" s="82"/>
       <c r="J442" s="45"/>
     </row>
     <row r="443" ht="15.75">
-      <c r="A443" s="81"/>
+      <c r="A443" s="82"/>
       <c r="J443" s="45"/>
     </row>
     <row r="444" ht="15.75">
-      <c r="A444" s="81"/>
+      <c r="A444" s="82"/>
       <c r="J444" s="45"/>
     </row>
     <row r="445" ht="15.75">
-      <c r="A445" s="81"/>
+      <c r="A445" s="82"/>
       <c r="J445" s="45"/>
     </row>
     <row r="446" ht="15.75">
-      <c r="A446" s="81"/>
+      <c r="A446" s="82"/>
       <c r="J446" s="45"/>
     </row>
     <row r="447" ht="15.75">
-      <c r="A447" s="81"/>
+      <c r="A447" s="82"/>
       <c r="J447" s="45"/>
     </row>
     <row r="448" ht="15.75">
-      <c r="A448" s="81"/>
+      <c r="A448" s="82"/>
       <c r="J448" s="45"/>
     </row>
     <row r="449" ht="15.75">
-      <c r="A449" s="81"/>
+      <c r="A449" s="82"/>
       <c r="J449" s="45"/>
     </row>
     <row r="450" ht="15.75">
-      <c r="A450" s="81"/>
+      <c r="A450" s="82"/>
       <c r="J450" s="45"/>
     </row>
     <row r="451" ht="15.75">
-      <c r="A451" s="81"/>
+      <c r="A451" s="82"/>
       <c r="J451" s="45"/>
     </row>
     <row r="452" ht="15.75">
-      <c r="A452" s="81"/>
+      <c r="A452" s="82"/>
       <c r="J452" s="45"/>
     </row>
     <row r="453" ht="15.75">
-      <c r="A453" s="81"/>
+      <c r="A453" s="82"/>
       <c r="J453" s="45"/>
     </row>
     <row r="454" ht="15.75">
-      <c r="A454" s="81"/>
+      <c r="A454" s="82"/>
       <c r="J454" s="45"/>
     </row>
     <row r="455" ht="15.75">
-      <c r="A455" s="81"/>
+      <c r="A455" s="82"/>
       <c r="J455" s="45"/>
     </row>
     <row r="456" ht="15.75">
-      <c r="A456" s="81"/>
+      <c r="A456" s="82"/>
       <c r="J456" s="45"/>
     </row>
     <row r="457" ht="15.75">
-      <c r="A457" s="81"/>
+      <c r="A457" s="82"/>
       <c r="J457" s="45"/>
     </row>
     <row r="458" ht="15.75">
-      <c r="A458" s="81"/>
+      <c r="A458" s="82"/>
       <c r="J458" s="45"/>
     </row>
     <row r="459" ht="15.75">
-      <c r="A459" s="81"/>
+      <c r="A459" s="82"/>
       <c r="J459" s="45"/>
     </row>
     <row r="460" ht="15.75">
-      <c r="A460" s="81"/>
+      <c r="A460" s="82"/>
       <c r="J460" s="45"/>
     </row>
     <row r="461" ht="15.75">
-      <c r="A461" s="81"/>
+      <c r="A461" s="82"/>
       <c r="J461" s="45"/>
     </row>
     <row r="462" ht="15.75">
-      <c r="A462" s="81"/>
+      <c r="A462" s="82"/>
       <c r="J462" s="45"/>
     </row>
     <row r="463" ht="15.75">
-      <c r="A463" s="81"/>
+      <c r="A463" s="82"/>
       <c r="J463" s="45"/>
     </row>
     <row r="464" ht="15.75">
-      <c r="A464" s="81"/>
+      <c r="A464" s="82"/>
       <c r="J464" s="45"/>
     </row>
     <row r="465" ht="15.75">
-      <c r="A465" s="81"/>
+      <c r="A465" s="82"/>
       <c r="J465" s="45"/>
     </row>
     <row r="466" ht="15.75">
-      <c r="A466" s="81"/>
+      <c r="A466" s="82"/>
       <c r="J466" s="45"/>
     </row>
     <row r="467" ht="15.75">
-      <c r="A467" s="81"/>
+      <c r="A467" s="82"/>
       <c r="J467" s="45"/>
     </row>
     <row r="468" ht="15.75">
-      <c r="A468" s="81"/>
+      <c r="A468" s="82"/>
       <c r="J468" s="45"/>
     </row>
     <row r="469" ht="15.75">
-      <c r="A469" s="81"/>
+      <c r="A469" s="82"/>
       <c r="J469" s="45"/>
     </row>
     <row r="470" ht="15.75">
-      <c r="A470" s="81"/>
+      <c r="A470" s="82"/>
       <c r="J470" s="45"/>
     </row>
     <row r="471" ht="15.75">
-      <c r="A471" s="81"/>
+      <c r="A471" s="82"/>
       <c r="J471" s="45"/>
     </row>
     <row r="472" ht="15.75">
-      <c r="A472" s="81"/>
+      <c r="A472" s="82"/>
       <c r="J472" s="45"/>
     </row>
     <row r="473" ht="15.75">
-      <c r="A473" s="81"/>
+      <c r="A473" s="82"/>
       <c r="J473" s="45"/>
     </row>
     <row r="474" ht="15.75">
-      <c r="A474" s="81"/>
+      <c r="A474" s="82"/>
       <c r="J474" s="45"/>
     </row>
     <row r="475" ht="15.75">
-      <c r="A475" s="81"/>
+      <c r="A475" s="82"/>
       <c r="J475" s="45"/>
     </row>
     <row r="476" ht="15.75">
-      <c r="A476" s="81"/>
+      <c r="A476" s="82"/>
       <c r="J476" s="45"/>
     </row>
     <row r="477" ht="15.75">
-      <c r="A477" s="81"/>
+      <c r="A477" s="82"/>
       <c r="J477" s="45"/>
     </row>
     <row r="478" ht="15.75">
-      <c r="A478" s="81"/>
+      <c r="A478" s="82"/>
       <c r="J478" s="45"/>
     </row>
     <row r="479" ht="15.75">
-      <c r="A479" s="81"/>
+      <c r="A479" s="82"/>
       <c r="J479" s="45"/>
     </row>
     <row r="480" ht="15.75">
-      <c r="A480" s="81"/>
+      <c r="A480" s="82"/>
       <c r="J480" s="45"/>
     </row>
     <row r="481" ht="15.75">
-      <c r="A481" s="81"/>
+      <c r="A481" s="82"/>
       <c r="J481" s="45"/>
     </row>
     <row r="482" ht="15.75">
-      <c r="A482" s="81"/>
+      <c r="A482" s="82"/>
       <c r="J482" s="45"/>
     </row>
     <row r="483" ht="15.75">
-      <c r="A483" s="81"/>
+      <c r="A483" s="82"/>
       <c r="J483" s="45"/>
     </row>
     <row r="484" ht="15.75">
-      <c r="A484" s="81"/>
+      <c r="A484" s="82"/>
       <c r="J484" s="45"/>
     </row>
     <row r="485" ht="15.75">
-      <c r="A485" s="81"/>
+      <c r="A485" s="82"/>
       <c r="J485" s="45"/>
     </row>
     <row r="486" ht="15.75">
-      <c r="A486" s="81"/>
+      <c r="A486" s="82"/>
       <c r="J486" s="45"/>
     </row>
     <row r="487" ht="15.75">
-      <c r="A487" s="81"/>
+      <c r="A487" s="82"/>
       <c r="J487" s="45"/>
     </row>
     <row r="488" ht="15.75">
-      <c r="A488" s="81"/>
+      <c r="A488" s="82"/>
       <c r="J488" s="45"/>
     </row>
     <row r="489" ht="15.75">
-      <c r="A489" s="81"/>
+      <c r="A489" s="82"/>
       <c r="J489" s="45"/>
     </row>
     <row r="490" ht="15.75">
-      <c r="A490" s="81"/>
+      <c r="A490" s="82"/>
       <c r="J490" s="45"/>
     </row>
     <row r="491" ht="15.75">
-      <c r="A491" s="81"/>
+      <c r="A491" s="82"/>
       <c r="J491" s="45"/>
     </row>
     <row r="492" ht="15.75">
-      <c r="A492" s="81"/>
+      <c r="A492" s="82"/>
       <c r="J492" s="45"/>
     </row>
     <row r="493" ht="15.75">
-      <c r="A493" s="81"/>
+      <c r="A493" s="82"/>
       <c r="J493" s="45"/>
     </row>
     <row r="494" ht="15.75">
-      <c r="A494" s="81"/>
+      <c r="A494" s="82"/>
       <c r="J494" s="45"/>
     </row>
     <row r="495" ht="15.75">
-      <c r="A495" s="81"/>
+      <c r="A495" s="82"/>
       <c r="J495" s="45"/>
     </row>
     <row r="496" ht="15.75">
-      <c r="A496" s="81"/>
+      <c r="A496" s="82"/>
       <c r="J496" s="45"/>
     </row>
     <row r="497" ht="15.75">
-      <c r="A497" s="81"/>
+      <c r="A497" s="82"/>
       <c r="J497" s="45"/>
     </row>
     <row r="498" ht="15.75">
-      <c r="A498" s="81"/>
+      <c r="A498" s="82"/>
       <c r="J498" s="45"/>
     </row>
     <row r="499" ht="15.75">
-      <c r="A499" s="81"/>
+      <c r="A499" s="82"/>
       <c r="J499" s="45"/>
     </row>
     <row r="500" ht="15.75">
-      <c r="A500" s="81"/>
+      <c r="A500" s="82"/>
       <c r="J500" s="45"/>
     </row>
     <row r="501" ht="15.75">
-      <c r="A501" s="81"/>
+      <c r="A501" s="82"/>
       <c r="J501" s="45"/>
     </row>
     <row r="502" ht="15.75">
-      <c r="A502" s="81"/>
+      <c r="A502" s="82"/>
       <c r="J502" s="45"/>
     </row>
     <row r="503" ht="15.75">
-      <c r="A503" s="81"/>
+      <c r="A503" s="82"/>
       <c r="J503" s="45"/>
     </row>
     <row r="504" ht="15.75">
-      <c r="A504" s="81"/>
+      <c r="A504" s="82"/>
       <c r="J504" s="45"/>
     </row>
     <row r="505" ht="15.75">
-      <c r="A505" s="81"/>
+      <c r="A505" s="82"/>
       <c r="J505" s="45"/>
     </row>
     <row r="506" ht="15.75">
-      <c r="A506" s="81"/>
+      <c r="A506" s="82"/>
       <c r="J506" s="45"/>
     </row>
     <row r="507" ht="15.75">
-      <c r="A507" s="81"/>
+      <c r="A507" s="82"/>
       <c r="J507" s="45"/>
     </row>
     <row r="508" ht="15.75">
-      <c r="A508" s="81"/>
+      <c r="A508" s="82"/>
       <c r="J508" s="45"/>
     </row>
     <row r="509" ht="15.75">
-      <c r="A509" s="81"/>
+      <c r="A509" s="82"/>
       <c r="J509" s="45"/>
     </row>
     <row r="510" ht="15.75">
-      <c r="A510" s="81"/>
+      <c r="A510" s="82"/>
       <c r="J510" s="45"/>
     </row>
     <row r="511" ht="15.75">
-      <c r="A511" s="81"/>
+      <c r="A511" s="82"/>
       <c r="J511" s="45"/>
     </row>
     <row r="512" ht="15.75">
-      <c r="A512" s="81"/>
+      <c r="A512" s="82"/>
       <c r="J512" s="45"/>
     </row>
     <row r="513" ht="15.75">
-      <c r="A513" s="81"/>
+      <c r="A513" s="82"/>
       <c r="J513" s="45"/>
     </row>
     <row r="514" ht="15.75">
-      <c r="A514" s="81"/>
+      <c r="A514" s="82"/>
       <c r="J514" s="45"/>
     </row>
     <row r="515" ht="15.75">
-      <c r="A515" s="81"/>
+      <c r="A515" s="82"/>
       <c r="J515" s="45"/>
     </row>
     <row r="516" ht="15.75">
-      <c r="A516" s="81"/>
+      <c r="A516" s="82"/>
       <c r="J516" s="45"/>
     </row>
     <row r="517" ht="15.75">
-      <c r="A517" s="81"/>
+      <c r="A517" s="82"/>
       <c r="J517" s="45"/>
     </row>
     <row r="518" ht="15.75">
-      <c r="A518" s="81"/>
+      <c r="A518" s="82"/>
       <c r="J518" s="45"/>
     </row>
     <row r="519" ht="15.75">
-      <c r="A519" s="81"/>
+      <c r="A519" s="82"/>
       <c r="J519" s="45"/>
     </row>
     <row r="520" ht="15.75">
-      <c r="A520" s="81"/>
+      <c r="A520" s="82"/>
       <c r="J520" s="45"/>
     </row>
     <row r="521" ht="15.75">
-      <c r="A521" s="81"/>
+      <c r="A521" s="82"/>
       <c r="J521" s="45"/>
     </row>
     <row r="522" ht="15.75">
-      <c r="A522" s="81"/>
+      <c r="A522" s="82"/>
       <c r="J522" s="45"/>
     </row>
     <row r="523" ht="15.75">
-      <c r="A523" s="81"/>
+      <c r="A523" s="82"/>
       <c r="J523" s="45"/>
     </row>
     <row r="524" ht="15.75">
-      <c r="A524" s="81"/>
+      <c r="A524" s="82"/>
       <c r="J524" s="45"/>
     </row>
     <row r="525" ht="15.75">
-      <c r="A525" s="81"/>
+      <c r="A525" s="82"/>
       <c r="J525" s="45"/>
     </row>
     <row r="526" ht="15.75">
-      <c r="A526" s="81"/>
+      <c r="A526" s="82"/>
       <c r="J526" s="45"/>
     </row>
     <row r="527" ht="15.75">
-      <c r="A527" s="81"/>
+      <c r="A527" s="82"/>
       <c r="J527" s="45"/>
     </row>
     <row r="528" ht="15.75">
-      <c r="A528" s="81"/>
+      <c r="A528" s="82"/>
       <c r="J528" s="45"/>
     </row>
     <row r="529" ht="15.75">
-      <c r="A529" s="81"/>
+      <c r="A529" s="82"/>
       <c r="J529" s="45"/>
     </row>
     <row r="530" ht="15.75">
-      <c r="A530" s="81"/>
+      <c r="A530" s="82"/>
       <c r="J530" s="45"/>
     </row>
     <row r="531" ht="15.75">
-      <c r="A531" s="81"/>
+      <c r="A531" s="82"/>
       <c r="J531" s="45"/>
     </row>
     <row r="532" ht="15.75">
-      <c r="A532" s="81"/>
+      <c r="A532" s="82"/>
       <c r="J532" s="45"/>
     </row>
     <row r="533" ht="15.75">
-      <c r="A533" s="81"/>
+      <c r="A533" s="82"/>
       <c r="J533" s="45"/>
     </row>
     <row r="534" ht="15.75">
-      <c r="A534" s="81"/>
+      <c r="A534" s="82"/>
       <c r="J534" s="45"/>
     </row>
     <row r="535" ht="15.75">
-      <c r="A535" s="81"/>
+      <c r="A535" s="82"/>
       <c r="J535" s="45"/>
     </row>
     <row r="536" ht="15.75">
-      <c r="A536" s="81"/>
+      <c r="A536" s="82"/>
       <c r="J536" s="45"/>
     </row>
     <row r="537" ht="15.75">
-      <c r="A537" s="81"/>
+      <c r="A537" s="82"/>
       <c r="J537" s="45"/>
     </row>
     <row r="538" ht="15.75">
-      <c r="A538" s="81"/>
+      <c r="A538" s="82"/>
       <c r="J538" s="45"/>
     </row>
     <row r="539" ht="15.75">
-      <c r="A539" s="81"/>
+      <c r="A539" s="82"/>
       <c r="J539" s="45"/>
     </row>
     <row r="540" ht="15.75">
-      <c r="A540" s="81"/>
+      <c r="A540" s="82"/>
       <c r="J540" s="45"/>
     </row>
     <row r="541" ht="15.75">
-      <c r="A541" s="81"/>
+      <c r="A541" s="82"/>
       <c r="J541" s="45"/>
     </row>
     <row r="542" ht="15.75">
-      <c r="A542" s="81"/>
+      <c r="A542" s="82"/>
       <c r="J542" s="45"/>
     </row>
     <row r="543" ht="15.75">
-      <c r="A543" s="81"/>
+      <c r="A543" s="82"/>
       <c r="J543" s="45"/>
     </row>
     <row r="544" ht="15.75">
-      <c r="A544" s="81"/>
+      <c r="A544" s="82"/>
       <c r="J544" s="45"/>
     </row>
     <row r="545" ht="15.75">
-      <c r="A545" s="81"/>
+      <c r="A545" s="82"/>
       <c r="J545" s="45"/>
     </row>
     <row r="546" ht="15.75">
-      <c r="A546" s="81"/>
+      <c r="A546" s="82"/>
       <c r="J546" s="45"/>
     </row>
     <row r="547" ht="15.75">
-      <c r="A547" s="81"/>
+      <c r="A547" s="82"/>
       <c r="J547" s="45"/>
     </row>
     <row r="548" ht="15.75">
-      <c r="A548" s="81"/>
+      <c r="A548" s="82"/>
       <c r="J548" s="45"/>
     </row>
     <row r="549" ht="15.75">
-      <c r="A549" s="81"/>
+      <c r="A549" s="82"/>
       <c r="J549" s="45"/>
     </row>
     <row r="550" ht="15.75">
-      <c r="A550" s="81"/>
+      <c r="A550" s="82"/>
       <c r="J550" s="45"/>
     </row>
     <row r="551" ht="15.75">
-      <c r="A551" s="81"/>
+      <c r="A551" s="82"/>
       <c r="J551" s="45"/>
     </row>
     <row r="552" ht="15.75">
-      <c r="A552" s="81"/>
+      <c r="A552" s="82"/>
       <c r="J552" s="45"/>
     </row>
     <row r="553" ht="15.75">
-      <c r="A553" s="81"/>
+      <c r="A553" s="82"/>
       <c r="J553" s="45"/>
     </row>
     <row r="554" ht="15.75">
-      <c r="A554" s="81"/>
+      <c r="A554" s="82"/>
       <c r="J554" s="45"/>
     </row>
     <row r="555" ht="15.75">
-      <c r="A555" s="81"/>
+      <c r="A555" s="82"/>
       <c r="J555" s="45"/>
     </row>
     <row r="556" ht="15.75">
-      <c r="A556" s="81"/>
+      <c r="A556" s="82"/>
       <c r="J556" s="45"/>
     </row>
     <row r="557" ht="15.75">
-      <c r="A557" s="81"/>
+      <c r="A557" s="82"/>
       <c r="J557" s="45"/>
     </row>
     <row r="558" ht="15.75">
-      <c r="A558" s="81"/>
+      <c r="A558" s="82"/>
       <c r="J558" s="45"/>
     </row>
     <row r="559" ht="15.75">
-      <c r="A559" s="81"/>
+      <c r="A559" s="82"/>
       <c r="J559" s="45"/>
     </row>
     <row r="560" ht="15.75">
-      <c r="A560" s="81"/>
+      <c r="A560" s="82"/>
       <c r="J560" s="45"/>
     </row>
     <row r="561" ht="15.75">
-      <c r="A561" s="81"/>
+      <c r="A561" s="82"/>
       <c r="J561" s="45"/>
     </row>
     <row r="562" ht="15.75">
-      <c r="A562" s="81"/>
+      <c r="A562" s="82"/>
       <c r="J562" s="45"/>
     </row>
     <row r="563" ht="15.75">
-      <c r="A563" s="81"/>
+      <c r="A563" s="82"/>
       <c r="J563" s="45"/>
     </row>
     <row r="564" ht="15.75">
-      <c r="A564" s="81"/>
+      <c r="A564" s="82"/>
       <c r="J564" s="45"/>
     </row>
     <row r="565" ht="15.75">
-      <c r="A565" s="81"/>
+      <c r="A565" s="82"/>
       <c r="J565" s="45"/>
     </row>
     <row r="566" ht="15.75">
-      <c r="A566" s="81"/>
+      <c r="A566" s="82"/>
       <c r="J566" s="45"/>
     </row>
     <row r="567" ht="15.75">
-      <c r="A567" s="81"/>
+      <c r="A567" s="82"/>
       <c r="J567" s="45"/>
     </row>
     <row r="568" ht="15.75">
-      <c r="A568" s="81"/>
+      <c r="A568" s="82"/>
       <c r="J568" s="45"/>
     </row>
     <row r="569" ht="15.75">
-      <c r="A569" s="81"/>
+      <c r="A569" s="82"/>
       <c r="J569" s="45"/>
     </row>
     <row r="570" ht="15.75">
-      <c r="A570" s="81"/>
+      <c r="A570" s="82"/>
       <c r="J570" s="45"/>
     </row>
     <row r="571" ht="15.75">
-      <c r="A571" s="81"/>
+      <c r="A571" s="82"/>
       <c r="J571" s="45"/>
     </row>
     <row r="572" ht="15.75">
-      <c r="A572" s="81"/>
+      <c r="A572" s="82"/>
       <c r="J572" s="45"/>
     </row>
     <row r="573" ht="15.75">
-      <c r="A573" s="81"/>
+      <c r="A573" s="82"/>
       <c r="J573" s="45"/>
     </row>
     <row r="574" ht="15.75">
-      <c r="A574" s="81"/>
+      <c r="A574" s="82"/>
       <c r="J574" s="45"/>
     </row>
     <row r="575" ht="15.75">
-      <c r="A575" s="81"/>
+      <c r="A575" s="82"/>
       <c r="J575" s="45"/>
     </row>
     <row r="576" ht="15.75">
-      <c r="A576" s="81"/>
+      <c r="A576" s="82"/>
       <c r="J576" s="45"/>
     </row>
     <row r="577" ht="15.75">
-      <c r="A577" s="81"/>
+      <c r="A577" s="82"/>
       <c r="J577" s="45"/>
     </row>
     <row r="578" ht="15.75">
-      <c r="A578" s="81"/>
+      <c r="A578" s="82"/>
       <c r="J578" s="45"/>
     </row>
     <row r="579" ht="15.75">
-      <c r="A579" s="81"/>
+      <c r="A579" s="82"/>
       <c r="J579" s="45"/>
     </row>
     <row r="580" ht="15.75">
-      <c r="A580" s="81"/>
+      <c r="A580" s="82"/>
       <c r="J580" s="45"/>
     </row>
     <row r="581" ht="15.75">
-      <c r="A581" s="81"/>
+      <c r="A581" s="82"/>
       <c r="J581" s="45"/>
     </row>
     <row r="582" ht="15.75">
-      <c r="A582" s="81"/>
+      <c r="A582" s="82"/>
       <c r="J582" s="45"/>
     </row>
     <row r="583" ht="15.75">
-      <c r="A583" s="81"/>
+      <c r="A583" s="82"/>
       <c r="J583" s="45"/>
     </row>
     <row r="584" ht="15.75">
-      <c r="A584" s="81"/>
+      <c r="A584" s="82"/>
       <c r="J584" s="45"/>
     </row>
     <row r="585" ht="15.75">
-      <c r="A585" s="81"/>
+      <c r="A585" s="82"/>
       <c r="J585" s="45"/>
     </row>
     <row r="586" ht="15.75">
-      <c r="A586" s="81"/>
+      <c r="A586" s="82"/>
       <c r="J586" s="45"/>
     </row>
     <row r="587" ht="15.75">
-      <c r="A587" s="81"/>
+      <c r="A587" s="82"/>
       <c r="J587" s="45"/>
     </row>
     <row r="588" ht="15.75">
-      <c r="A588" s="81"/>
+      <c r="A588" s="82"/>
       <c r="J588" s="45"/>
     </row>
     <row r="589" ht="15.75">
-      <c r="A589" s="81"/>
+      <c r="A589" s="82"/>
       <c r="J589" s="45"/>
     </row>
     <row r="590" ht="15.75">
-      <c r="A590" s="81"/>
+      <c r="A590" s="82"/>
       <c r="J590" s="45"/>
     </row>
     <row r="591" ht="15.75">
-      <c r="A591" s="81"/>
+      <c r="A591" s="82"/>
       <c r="J591" s="45"/>
     </row>
     <row r="592" ht="15.75">
-      <c r="A592" s="81"/>
+      <c r="A592" s="82"/>
       <c r="J592" s="45"/>
     </row>
     <row r="593" ht="15.75">
-      <c r="A593" s="81"/>
+      <c r="A593" s="82"/>
       <c r="J593" s="45"/>
     </row>
     <row r="594" ht="15.75">
-      <c r="A594" s="81"/>
+      <c r="A594" s="82"/>
       <c r="J594" s="45"/>
     </row>
     <row r="595" ht="15.75">
-      <c r="A595" s="81"/>
+      <c r="A595" s="82"/>
       <c r="J595" s="45"/>
     </row>
     <row r="596" ht="15.75">
-      <c r="A596" s="81"/>
+      <c r="A596" s="82"/>
       <c r="J596" s="45"/>
     </row>
     <row r="597" ht="15.75">
-      <c r="A597" s="81"/>
+      <c r="A597" s="82"/>
       <c r="J597" s="45"/>
     </row>
     <row r="598" ht="15.75">
-      <c r="A598" s="81"/>
+      <c r="A598" s="82"/>
       <c r="J598" s="45"/>
     </row>
     <row r="599" ht="15.75">
-      <c r="A599" s="81"/>
+      <c r="A599" s="82"/>
       <c r="J599" s="45"/>
     </row>
     <row r="600" ht="15.75">
-      <c r="A600" s="81"/>
+      <c r="A600" s="82"/>
       <c r="J600" s="45"/>
     </row>
     <row r="601" ht="15.75">
-      <c r="A601" s="81"/>
+      <c r="A601" s="82"/>
       <c r="J601" s="45"/>
     </row>
     <row r="602" ht="15.75">
-      <c r="A602" s="81"/>
+      <c r="A602" s="82"/>
       <c r="J602" s="45"/>
     </row>
     <row r="603" ht="15.75">
-      <c r="A603" s="81"/>
+      <c r="A603" s="82"/>
       <c r="J603" s="45"/>
     </row>
     <row r="604" ht="15.75">
-      <c r="A604" s="81"/>
+      <c r="A604" s="82"/>
       <c r="J604" s="45"/>
     </row>
     <row r="605" ht="15.75">
-      <c r="A605" s="81"/>
+      <c r="A605" s="82"/>
       <c r="J605" s="45"/>
     </row>
     <row r="606" ht="15.75">
-      <c r="A606" s="81"/>
+      <c r="A606" s="82"/>
       <c r="J606" s="45"/>
     </row>
     <row r="607" ht="15.75">
-      <c r="A607" s="81"/>
+      <c r="A607" s="82"/>
       <c r="J607" s="45"/>
     </row>
     <row r="608" ht="15.75">
-      <c r="A608" s="81"/>
+      <c r="A608" s="82"/>
       <c r="J608" s="45"/>
     </row>
     <row r="609" ht="15.75">
-      <c r="A609" s="81"/>
+      <c r="A609" s="82"/>
       <c r="J609" s="45"/>
     </row>
     <row r="610" ht="15.75">
-      <c r="A610" s="81"/>
+      <c r="A610" s="82"/>
       <c r="J610" s="45"/>
     </row>
     <row r="611" ht="15.75">
-      <c r="A611" s="81"/>
+      <c r="A611" s="82"/>
       <c r="J611" s="45"/>
     </row>
     <row r="612" ht="15.75">
-      <c r="A612" s="81"/>
+      <c r="A612" s="82"/>
       <c r="J612" s="45"/>
     </row>
     <row r="613" ht="15.75">
-      <c r="A613" s="81"/>
+      <c r="A613" s="82"/>
       <c r="J613" s="45"/>
     </row>
     <row r="614" ht="15.75">
-      <c r="A614" s="81"/>
+      <c r="A614" s="82"/>
       <c r="J614" s="45"/>
     </row>
     <row r="615" ht="15.75">
-      <c r="A615" s="81"/>
+      <c r="A615" s="82"/>
       <c r="J615" s="45"/>
     </row>
     <row r="616" ht="15.75">
-      <c r="A616" s="81"/>
+      <c r="A616" s="82"/>
       <c r="J616" s="45"/>
     </row>
     <row r="617" ht="15.75">
-      <c r="A617" s="81"/>
+      <c r="A617" s="82"/>
       <c r="J617" s="45"/>
     </row>
     <row r="618" ht="15.75">
-      <c r="A618" s="81"/>
+      <c r="A618" s="82"/>
       <c r="J618" s="45"/>
     </row>
     <row r="619" ht="15.75">
-      <c r="A619" s="81"/>
+      <c r="A619" s="82"/>
       <c r="J619" s="45"/>
     </row>
     <row r="620" ht="15.75">
-      <c r="A620" s="81"/>
+      <c r="A620" s="82"/>
       <c r="J620" s="45"/>
     </row>
     <row r="621" ht="15.75">
-      <c r="A621" s="81"/>
+      <c r="A621" s="82"/>
       <c r="J621" s="45"/>
     </row>
     <row r="622" ht="15.75">
-      <c r="A622" s="81"/>
+      <c r="A622" s="82"/>
       <c r="J622" s="45"/>
     </row>
     <row r="623" ht="15.75">
-      <c r="A623" s="81"/>
+      <c r="A623" s="82"/>
       <c r="J623" s="45"/>
     </row>
     <row r="624" ht="15.75">
-      <c r="A624" s="81"/>
+      <c r="A624" s="82"/>
       <c r="J624" s="45"/>
     </row>
     <row r="625" ht="15.75">
-      <c r="A625" s="81"/>
+      <c r="A625" s="82"/>
       <c r="J625" s="45"/>
     </row>
     <row r="626" ht="15.75">
-      <c r="A626" s="81"/>
+      <c r="A626" s="82"/>
       <c r="J626" s="45"/>
     </row>
     <row r="627" ht="15.75">
-      <c r="A627" s="81"/>
+      <c r="A627" s="82"/>
       <c r="J627" s="45"/>
     </row>
     <row r="628" ht="15.75">
-      <c r="A628" s="81"/>
+      <c r="A628" s="82"/>
       <c r="J628" s="45"/>
     </row>
     <row r="629" ht="15.75">
-      <c r="A629" s="81"/>
+      <c r="A629" s="82"/>
       <c r="J629" s="45"/>
     </row>
     <row r="630" ht="15.75">
-      <c r="A630" s="81"/>
+      <c r="A630" s="82"/>
       <c r="J630" s="45"/>
     </row>
     <row r="631" ht="15.75">
-      <c r="A631" s="81"/>
+      <c r="A631" s="82"/>
       <c r="J631" s="45"/>
     </row>
     <row r="632" ht="15.75">
-      <c r="A632" s="81"/>
+      <c r="A632" s="82"/>
       <c r="J632" s="45"/>
     </row>
     <row r="633" ht="15.75">
-      <c r="A633" s="81"/>
+      <c r="A633" s="82"/>
       <c r="J633" s="45"/>
     </row>
     <row r="634" ht="15.75">
-      <c r="A634" s="81"/>
+      <c r="A634" s="82"/>
       <c r="J634" s="45"/>
     </row>
     <row r="635" ht="15.75">
-      <c r="A635" s="81"/>
+      <c r="A635" s="82"/>
       <c r="J635" s="45"/>
     </row>
     <row r="636" ht="15.75">
-      <c r="A636" s="81"/>
+      <c r="A636" s="82"/>
       <c r="J636" s="45"/>
     </row>
     <row r="637" ht="15.75">
-      <c r="A637" s="81"/>
+      <c r="A637" s="82"/>
       <c r="J637" s="45"/>
     </row>
     <row r="638" ht="15.75">
-      <c r="A638" s="81"/>
+      <c r="A638" s="82"/>
       <c r="J638" s="45"/>
     </row>
     <row r="639" ht="15.75">
-      <c r="A639" s="81"/>
+      <c r="A639" s="82"/>
       <c r="J639" s="45"/>
     </row>
     <row r="640" ht="15.75">
-      <c r="A640" s="81"/>
+      <c r="A640" s="82"/>
       <c r="J640" s="45"/>
     </row>
     <row r="641" ht="15.75">
-      <c r="A641" s="81"/>
+      <c r="A641" s="82"/>
       <c r="J641" s="45"/>
     </row>
     <row r="642" ht="15.75">
-      <c r="A642" s="81"/>
+      <c r="A642" s="82"/>
       <c r="J642" s="45"/>
     </row>
     <row r="643" ht="15.75">
-      <c r="A643" s="81"/>
+      <c r="A643" s="82"/>
       <c r="J643" s="45"/>
     </row>
     <row r="644" ht="15.75">
-      <c r="A644" s="81"/>
+      <c r="A644" s="82"/>
       <c r="J644" s="45"/>
     </row>
     <row r="645" ht="15.75">
-      <c r="A645" s="81"/>
+      <c r="A645" s="82"/>
       <c r="J645" s="45"/>
     </row>
     <row r="646" ht="15.75">
-      <c r="A646" s="81"/>
+      <c r="A646" s="82"/>
       <c r="J646" s="45"/>
     </row>
     <row r="647" ht="15.75">
-      <c r="A647" s="81"/>
+      <c r="A647" s="82"/>
       <c r="J647" s="45"/>
     </row>
     <row r="648" ht="15.75">
-      <c r="A648" s="81"/>
+      <c r="A648" s="82"/>
       <c r="J648" s="45"/>
     </row>
     <row r="649" ht="15.75">
-      <c r="A649" s="81"/>
+      <c r="A649" s="82"/>
       <c r="J649" s="45"/>
     </row>
     <row r="650" ht="15.75">
-      <c r="A650" s="81"/>
+      <c r="A650" s="82"/>
       <c r="J650" s="45"/>
     </row>
     <row r="651" ht="15.75">
-      <c r="A651" s="81"/>
+      <c r="A651" s="82"/>
       <c r="J651" s="45"/>
     </row>
     <row r="652" ht="15.75">
-      <c r="A652" s="81"/>
+      <c r="A652" s="82"/>
       <c r="J652" s="45"/>
     </row>
     <row r="653" ht="15.75">
-      <c r="A653" s="81"/>
+      <c r="A653" s="82"/>
       <c r="J653" s="45"/>
     </row>
     <row r="654" ht="15.75">
-      <c r="A654" s="81"/>
+      <c r="A654" s="82"/>
       <c r="J654" s="45"/>
     </row>
     <row r="655" ht="15.75">
-      <c r="A655" s="81"/>
+      <c r="A655" s="82"/>
       <c r="J655" s="45"/>
     </row>
     <row r="656" ht="15.75">
-      <c r="A656" s="81"/>
+      <c r="A656" s="82"/>
       <c r="J656" s="45"/>
     </row>
     <row r="657" ht="15.75">
-      <c r="A657" s="81"/>
+      <c r="A657" s="82"/>
       <c r="J657" s="45"/>
     </row>
     <row r="658" ht="15.75">
-      <c r="A658" s="81"/>
+      <c r="A658" s="82"/>
       <c r="J658" s="45"/>
     </row>
     <row r="659" ht="15.75">
-      <c r="A659" s="81"/>
+      <c r="A659" s="82"/>
       <c r="J659" s="45"/>
     </row>
     <row r="660" ht="15.75">
-      <c r="A660" s="81"/>
+      <c r="A660" s="82"/>
       <c r="J660" s="45"/>
     </row>
     <row r="661" ht="15.75">
-      <c r="A661" s="81"/>
+      <c r="A661" s="82"/>
       <c r="J661" s="45"/>
     </row>
     <row r="662" ht="15.75">
-      <c r="A662" s="81"/>
+      <c r="A662" s="82"/>
       <c r="J662" s="45"/>
     </row>
     <row r="663" ht="15.75">
-      <c r="A663" s="81"/>
+      <c r="A663" s="82"/>
       <c r="J663" s="45"/>
     </row>
     <row r="664" ht="15.75">
-      <c r="A664" s="81"/>
+      <c r="A664" s="82"/>
       <c r="J664" s="45"/>
     </row>
     <row r="665" ht="15.75">
-      <c r="A665" s="81"/>
+      <c r="A665" s="82"/>
       <c r="J665" s="45"/>
     </row>
     <row r="666" ht="15.75">
-      <c r="A666" s="81"/>
+      <c r="A666" s="82"/>
       <c r="J666" s="45"/>
     </row>
     <row r="667" ht="15.75">
-      <c r="A667" s="81"/>
+      <c r="A667" s="82"/>
       <c r="J667" s="45"/>
     </row>
     <row r="668" ht="15.75">
-      <c r="A668" s="81"/>
+      <c r="A668" s="82"/>
       <c r="J668" s="45"/>
     </row>
     <row r="669" ht="15.75">
-      <c r="A669" s="81"/>
+      <c r="A669" s="82"/>
       <c r="J669" s="45"/>
     </row>
     <row r="670" ht="15.75">
-      <c r="A670" s="81"/>
+      <c r="A670" s="82"/>
       <c r="J670" s="45"/>
     </row>
     <row r="671" ht="15.75">
-      <c r="A671" s="81"/>
+      <c r="A671" s="82"/>
       <c r="J671" s="45"/>
     </row>
     <row r="672" ht="15.75">
-      <c r="A672" s="81"/>
+      <c r="A672" s="82"/>
       <c r="J672" s="45"/>
     </row>
     <row r="673" ht="15.75">
-      <c r="A673" s="81"/>
+      <c r="A673" s="82"/>
       <c r="J673" s="45"/>
     </row>
     <row r="674" ht="15.75">
-      <c r="A674" s="81"/>
+      <c r="A674" s="82"/>
       <c r="J674" s="45"/>
     </row>
     <row r="675" ht="15.75">
-      <c r="A675" s="81"/>
+      <c r="A675" s="82"/>
       <c r="J675" s="45"/>
     </row>
     <row r="676" ht="15.75">
-      <c r="A676" s="81"/>
+      <c r="A676" s="82"/>
       <c r="J676" s="45"/>
     </row>
     <row r="677" ht="15.75">
-      <c r="A677" s="81"/>
+      <c r="A677" s="82"/>
       <c r="J677" s="45"/>
     </row>
     <row r="678" ht="15.75">
-      <c r="A678" s="81"/>
+      <c r="A678" s="82"/>
       <c r="J678" s="45"/>
     </row>
     <row r="679" ht="15.75">
-      <c r="A679" s="81"/>
+      <c r="A679" s="82"/>
       <c r="J679" s="45"/>
     </row>
     <row r="680" ht="15.75">
-      <c r="A680" s="81"/>
+      <c r="A680" s="82"/>
       <c r="J680" s="45"/>
     </row>
     <row r="681" ht="15.75">
-      <c r="A681" s="81"/>
+      <c r="A681" s="82"/>
       <c r="J681" s="45"/>
     </row>
     <row r="682" ht="15.75">
-      <c r="A682" s="81"/>
+      <c r="A682" s="82"/>
       <c r="J682" s="45"/>
     </row>
     <row r="683" ht="15.75">
-      <c r="A683" s="81"/>
+      <c r="A683" s="82"/>
       <c r="J683" s="45"/>
     </row>
     <row r="684" ht="15.75">
-      <c r="A684" s="81"/>
+      <c r="A684" s="82"/>
       <c r="J684" s="45"/>
     </row>
     <row r="685" ht="15.75">
-      <c r="A685" s="81"/>
+      <c r="A685" s="82"/>
       <c r="J685" s="45"/>
     </row>
     <row r="686" ht="15.75">
-      <c r="A686" s="81"/>
+      <c r="A686" s="82"/>
       <c r="J686" s="45"/>
     </row>
     <row r="687" ht="15.75">
-      <c r="A687" s="81"/>
+      <c r="A687" s="82"/>
       <c r="J687" s="45"/>
     </row>
     <row r="688" ht="15.75">
-      <c r="A688" s="81"/>
+      <c r="A688" s="82"/>
       <c r="J688" s="45"/>
     </row>
     <row r="689" ht="15.75">
-      <c r="A689" s="81"/>
+      <c r="A689" s="82"/>
       <c r="J689" s="45"/>
     </row>
     <row r="690" ht="15.75">
-      <c r="A690" s="81"/>
+      <c r="A690" s="82"/>
       <c r="J690" s="45"/>
     </row>
     <row r="691" ht="15.75">
-      <c r="A691" s="81"/>
+      <c r="A691" s="82"/>
       <c r="J691" s="45"/>
     </row>
     <row r="692" ht="15.75">
-      <c r="A692" s="81"/>
+      <c r="A692" s="82"/>
       <c r="J692" s="45"/>
     </row>
     <row r="693" ht="15.75">
-      <c r="A693" s="81"/>
+      <c r="A693" s="82"/>
       <c r="J693" s="45"/>
     </row>
     <row r="694" ht="15.75">
-      <c r="A694" s="81"/>
+      <c r="A694" s="82"/>
       <c r="J694" s="45"/>
     </row>
     <row r="695" ht="15.75">
-      <c r="A695" s="81"/>
+      <c r="A695" s="82"/>
       <c r="J695" s="45"/>
     </row>
     <row r="696" ht="15.75">
-      <c r="A696" s="81"/>
+      <c r="A696" s="82"/>
       <c r="J696" s="45"/>
     </row>
     <row r="697" ht="15.75">
-      <c r="A697" s="81"/>
+      <c r="A697" s="82"/>
       <c r="J697" s="45"/>
     </row>
     <row r="698" ht="15.75">
-      <c r="A698" s="81"/>
+      <c r="A698" s="82"/>
       <c r="J698" s="45"/>
     </row>
     <row r="699" ht="15.75">
-      <c r="A699" s="81"/>
+      <c r="A699" s="82"/>
       <c r="J699" s="45"/>
     </row>
     <row r="700" ht="15.75">
-      <c r="A700" s="81"/>
+      <c r="A700" s="82"/>
       <c r="J700" s="45"/>
     </row>
     <row r="701" ht="15.75">
-      <c r="A701" s="81"/>
+      <c r="A701" s="82"/>
       <c r="J701" s="45"/>
     </row>
     <row r="702" ht="15.75">
-      <c r="A702" s="81"/>
+      <c r="A702" s="82"/>
       <c r="J702" s="45"/>
     </row>
     <row r="703" ht="15.75">
-      <c r="A703" s="81"/>
+      <c r="A703" s="82"/>
       <c r="J703" s="45"/>
     </row>
     <row r="704" ht="15.75">
-      <c r="A704" s="81"/>
+      <c r="A704" s="82"/>
       <c r="J704" s="45"/>
     </row>
     <row r="705" ht="15.75">
-      <c r="A705" s="81"/>
+      <c r="A705" s="82"/>
       <c r="J705" s="45"/>
     </row>
     <row r="706" ht="15.75">
-      <c r="A706" s="81"/>
+      <c r="A706" s="82"/>
       <c r="J706" s="45"/>
     </row>
     <row r="707" ht="15.75">
-      <c r="A707" s="81"/>
+      <c r="A707" s="82"/>
       <c r="J707" s="45"/>
     </row>
     <row r="708" ht="15.75">
-      <c r="A708" s="81"/>
+      <c r="A708" s="82"/>
       <c r="J708" s="45"/>
     </row>
     <row r="709" ht="15.75">
-      <c r="A709" s="81"/>
+      <c r="A709" s="82"/>
       <c r="J709" s="45"/>
     </row>
     <row r="710" ht="15.75">
-      <c r="A710" s="81"/>
+      <c r="A710" s="82"/>
       <c r="J710" s="45"/>
     </row>
     <row r="711" ht="15.75">
-      <c r="A711" s="81"/>
+      <c r="A711" s="82"/>
       <c r="J711" s="45"/>
     </row>
     <row r="712" ht="15.75">
-      <c r="A712" s="81"/>
+      <c r="A712" s="82"/>
       <c r="J712" s="45"/>
     </row>
     <row r="713" ht="15.75">
-      <c r="A713" s="81"/>
+      <c r="A713" s="82"/>
       <c r="J713" s="45"/>
     </row>
     <row r="714" ht="15.75">
-      <c r="A714" s="81"/>
+      <c r="A714" s="82"/>
       <c r="J714" s="45"/>
     </row>
     <row r="715" ht="15.75">
-      <c r="A715" s="81"/>
+      <c r="A715" s="82"/>
       <c r="J715" s="45"/>
     </row>
     <row r="716" ht="15.75">
-      <c r="A716" s="81"/>
+      <c r="A716" s="82"/>
       <c r="J716" s="45"/>
     </row>
     <row r="717" ht="15.75">
-      <c r="A717" s="81"/>
+      <c r="A717" s="82"/>
       <c r="J717" s="45"/>
     </row>
     <row r="718" ht="15.75">
-      <c r="A718" s="81"/>
+      <c r="A718" s="82"/>
       <c r="J718" s="45"/>
     </row>
     <row r="719" ht="15.75">
-      <c r="A719" s="81"/>
+      <c r="A719" s="82"/>
       <c r="J719" s="45"/>
     </row>
     <row r="720" ht="15.75">
-      <c r="A720" s="81"/>
+      <c r="A720" s="82"/>
       <c r="J720" s="45"/>
     </row>
     <row r="721" ht="15.75">
-      <c r="A721" s="81"/>
+      <c r="A721" s="82"/>
       <c r="J721" s="45"/>
     </row>
     <row r="722" ht="15.75">
-      <c r="A722" s="81"/>
+      <c r="A722" s="82"/>
       <c r="J722" s="45"/>
     </row>
     <row r="723" ht="15.75">
-      <c r="A723" s="81"/>
+      <c r="A723" s="82"/>
       <c r="J723" s="45"/>
     </row>
     <row r="724" ht="15.75">
-      <c r="A724" s="81"/>
+      <c r="A724" s="82"/>
       <c r="J724" s="45"/>
     </row>
     <row r="725" ht="15.75">
-      <c r="A725" s="81"/>
+      <c r="A725" s="82"/>
       <c r="J725" s="45"/>
     </row>
     <row r="726" ht="15.75">
-      <c r="A726" s="81"/>
+      <c r="A726" s="82"/>
       <c r="J726" s="45"/>
     </row>
     <row r="727" ht="15.75">
-      <c r="A727" s="81"/>
+      <c r="A727" s="82"/>
       <c r="J727" s="45"/>
     </row>
     <row r="728" ht="15.75">
-      <c r="A728" s="81"/>
+      <c r="A728" s="82"/>
       <c r="J728" s="45"/>
     </row>
     <row r="729" ht="15.75">
-      <c r="A729" s="81"/>
+      <c r="A729" s="82"/>
       <c r="J729" s="45"/>
     </row>
     <row r="730" ht="15.75">
-      <c r="A730" s="81"/>
+      <c r="A730" s="82"/>
       <c r="J730" s="45"/>
     </row>
     <row r="731" ht="15.75">
-      <c r="A731" s="81"/>
+      <c r="A731" s="82"/>
       <c r="J731" s="45"/>
     </row>
     <row r="732" ht="15.75">
-      <c r="A732" s="81"/>
+      <c r="A732" s="82"/>
       <c r="J732" s="45"/>
     </row>
     <row r="733" ht="15.75">
-      <c r="A733" s="81"/>
+      <c r="A733" s="82"/>
       <c r="J733" s="45"/>
     </row>
     <row r="734" ht="15.75">
-      <c r="A734" s="81"/>
+      <c r="A734" s="82"/>
       <c r="J734" s="45"/>
     </row>
     <row r="735" ht="15.75">
-      <c r="A735" s="81"/>
+      <c r="A735" s="82"/>
       <c r="J735" s="45"/>
     </row>
     <row r="736" ht="15.75">
-      <c r="A736" s="81"/>
+      <c r="A736" s="82"/>
       <c r="J736" s="45"/>
     </row>
     <row r="737" ht="15.75">
-      <c r="A737" s="81"/>
+      <c r="A737" s="82"/>
       <c r="J737" s="45"/>
     </row>
     <row r="738" ht="15.75">
-      <c r="A738" s="81"/>
+      <c r="A738" s="82"/>
       <c r="J738" s="45"/>
     </row>
     <row r="739" ht="15.75">
-      <c r="A739" s="81"/>
+      <c r="A739" s="82"/>
       <c r="J739" s="45"/>
     </row>
     <row r="740" ht="15.75">
-      <c r="A740" s="81"/>
+      <c r="A740" s="82"/>
       <c r="J740" s="45"/>
     </row>
     <row r="741" ht="15.75">
-      <c r="A741" s="81"/>
+      <c r="A741" s="82"/>
       <c r="J741" s="45"/>
     </row>
     <row r="742" ht="15.75">
-      <c r="A742" s="81"/>
+      <c r="A742" s="82"/>
       <c r="J742" s="45"/>
     </row>
     <row r="743" ht="15.75">
-      <c r="A743" s="81"/>
+      <c r="A743" s="82"/>
       <c r="J743" s="45"/>
     </row>
     <row r="744" ht="15.75">
-      <c r="A744" s="81"/>
+      <c r="A744" s="82"/>
       <c r="J744" s="45"/>
     </row>
     <row r="745" ht="15.75">
-      <c r="A745" s="81"/>
+      <c r="A745" s="82"/>
       <c r="J745" s="45"/>
     </row>
     <row r="746" ht="15.75">
-      <c r="A746" s="81"/>
+      <c r="A746" s="82"/>
       <c r="J746" s="45"/>
     </row>
     <row r="747" ht="15.75">
-      <c r="A747" s="81"/>
+      <c r="A747" s="82"/>
       <c r="J747" s="45"/>
     </row>
     <row r="748" ht="15.75">
-      <c r="A748" s="81"/>
+      <c r="A748" s="82"/>
       <c r="J748" s="45"/>
     </row>
     <row r="749" ht="15.75">
-      <c r="A749" s="81"/>
+      <c r="A749" s="82"/>
       <c r="J749" s="45"/>
     </row>
     <row r="750" ht="15.75">
-      <c r="A750" s="81"/>
+      <c r="A750" s="82"/>
       <c r="J750" s="45"/>
     </row>
-    <row r="751" s="82" customFormat="1" ht="15.75">
-      <c r="A751" s="81"/>
+    <row r="751" s="83" customFormat="1" ht="15.75">
+      <c r="A751" s="82"/>
       <c r="G751" s="43"/>
       <c r="H751" s="44"/>
       <c r="I751" s="45"/>
@@ -62176,7 +62323,7 @@
       <c r="BH751" s="47"/>
     </row>
     <row r="752" ht="15.75">
-      <c r="A752" s="81"/>
+      <c r="A752" s="82"/>
       <c r="J752" s="45"/>
     </row>
   </sheetData>
@@ -62186,16 +62333,64 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AY38"/>
-    <hyperlink r:id="rId2" ref="AY74"/>
-    <hyperlink r:id="rId3" ref="AY83"/>
-    <hyperlink r:id="rId4" ref="AY84"/>
-    <hyperlink r:id="rId5" ref="AY112"/>
-    <hyperlink r:id="rId6" ref="AY137"/>
-    <hyperlink r:id="rId7" ref="AY150"/>
-    <hyperlink r:id="rId8" ref="AY173"/>
-    <hyperlink r:id="rId9" ref="AY183"/>
-    <hyperlink r:id="rId10" ref="AY221"/>
+    <hyperlink r:id="rId1" ref="AY3"/>
+    <hyperlink r:id="rId2" ref="AY5"/>
+    <hyperlink r:id="rId3" ref="AY12"/>
+    <hyperlink r:id="rId4" ref="AY13"/>
+    <hyperlink r:id="rId5" ref="AY14"/>
+    <hyperlink r:id="rId6" ref="AY19"/>
+    <hyperlink r:id="rId7" ref="AY31"/>
+    <hyperlink r:id="rId8" ref="AY33"/>
+    <hyperlink r:id="rId9" ref="AY34"/>
+    <hyperlink r:id="rId10" ref="AY38"/>
+    <hyperlink r:id="rId11" ref="AY41"/>
+    <hyperlink r:id="rId12" ref="AY44"/>
+    <hyperlink r:id="rId13" ref="AY47"/>
+    <hyperlink r:id="rId14" ref="AY48"/>
+    <hyperlink r:id="rId15" ref="AY52"/>
+    <hyperlink r:id="rId16" ref="AY56"/>
+    <hyperlink r:id="rId17" ref="AY65"/>
+    <hyperlink r:id="rId18" ref="AY72"/>
+    <hyperlink r:id="rId19" ref="AY74"/>
+    <hyperlink r:id="rId20" ref="AY82"/>
+    <hyperlink r:id="rId21" ref="AY83"/>
+    <hyperlink r:id="rId22" ref="AY84"/>
+    <hyperlink r:id="rId23" ref="AY91"/>
+    <hyperlink r:id="rId24" ref="AY92"/>
+    <hyperlink r:id="rId25" ref="AY93"/>
+    <hyperlink r:id="rId26" ref="AY97"/>
+    <hyperlink r:id="rId27" ref="AY98"/>
+    <hyperlink r:id="rId28" ref="AY100"/>
+    <hyperlink r:id="rId29" ref="AY104"/>
+    <hyperlink r:id="rId30" ref="AY107"/>
+    <hyperlink r:id="rId31" ref="AY112"/>
+    <hyperlink r:id="rId32" ref="AY130"/>
+    <hyperlink r:id="rId33" ref="AY132"/>
+    <hyperlink r:id="rId34" ref="AY135"/>
+    <hyperlink r:id="rId35" ref="AY136"/>
+    <hyperlink r:id="rId36" ref="AY137"/>
+    <hyperlink r:id="rId37" ref="AY149"/>
+    <hyperlink r:id="rId38" ref="AY150"/>
+    <hyperlink r:id="rId39" ref="AY160"/>
+    <hyperlink r:id="rId40" ref="AY173"/>
+    <hyperlink r:id="rId41" ref="AY177"/>
+    <hyperlink r:id="rId42" ref="AY182"/>
+    <hyperlink r:id="rId43" ref="AY189"/>
+    <hyperlink r:id="rId44" ref="AY194"/>
+    <hyperlink r:id="rId45" ref="AY195"/>
+    <hyperlink r:id="rId46" ref="AY200"/>
+    <hyperlink r:id="rId47" ref="AY206"/>
+    <hyperlink r:id="rId48" ref="AY210"/>
+    <hyperlink r:id="rId49" ref="AY217"/>
+    <hyperlink r:id="rId50" ref="AY219"/>
+    <hyperlink r:id="rId51" ref="AY221"/>
+    <hyperlink r:id="rId52" ref="AY223"/>
+    <hyperlink r:id="rId53" ref="AY224"/>
+    <hyperlink r:id="rId54" ref="AY226"/>
+    <hyperlink r:id="rId55" ref="AY227"/>
+    <hyperlink r:id="rId56" ref="AY230"/>
+    <hyperlink r:id="rId57" ref="AY232"/>
+    <hyperlink r:id="rId58" ref="AY236"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
@@ -62205,7 +62400,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="4" aboveAverage="0" rank="0" text="" id="{00320041-0023-4506-882C-009F002700AE}">
+          <x14:cfRule type="duplicateValues" priority="4" aboveAverage="0" rank="0" text="" id="{00D1000F-0053-4532-AA16-00EE004E0060}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -62221,7 +62416,7 @@
           <xm:sqref>G753:G1048576 G2:G93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="3" aboveAverage="0" rank="0" text="" id="{000D0060-0048-41CA-88D8-001F00B900E9}">
+          <x14:cfRule type="duplicateValues" priority="3" aboveAverage="0" rank="0" text="" id="{00C50012-006F-46B4-BE13-00FD00B30047}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -62237,7 +62432,7 @@
           <xm:sqref>G753:G1048576 G2:G93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="2" aboveAverage="0" rank="0" text="" id="{00C2000E-008B-4CB6-96A6-00C400820040}">
+          <x14:cfRule type="duplicateValues" priority="2" aboveAverage="0" rank="0" text="" id="{008C0053-00DB-4405-8F6D-0068001300F0}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>

--- a/express/db/filesheet.xlsx
+++ b/express/db/filesheet.xlsx
@@ -20747,7 +20747,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" priority="2" id="{00290073-00F2-473A-9BA9-000000810011}">
+          <x14:cfRule type="dataBar" priority="2" id="{00620057-007A-4D32-BEE8-00ED00BE001B}">
             <x14:dataBar maxLength="90" minLength="10" axisPosition="none" direction="context">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -20762,7 +20762,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{007E00F6-0073-4338-9CB3-00B8005F0087}" type="custom" allowBlank="1" error="Must be a valid date." errorStyle="stop" errorTitle="Incorrect format" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000A0047-0046-4B72-99EE-00FA00E60042}" type="custom" allowBlank="1" error="Must be a valid date." errorStyle="stop" errorTitle="Incorrect format" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(ISNUMBER(AG2),LEFT(CELL("format",AG2),1)="D")</xm:f>
           </x14:formula1>
@@ -26444,7 +26444,7 @@
       <c r="BG37" s="72"/>
       <c r="BH37" s="72"/>
     </row>
-    <row r="38" ht="28.5">
+    <row r="38" ht="16.5">
       <c r="A38" s="68" t="s">
         <v>927</v>
       </c>
@@ -62400,7 +62400,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="4" aboveAverage="0" rank="0" text="" id="{00D1000F-0053-4532-AA16-00EE004E0060}">
+          <x14:cfRule type="duplicateValues" priority="4" aboveAverage="0" rank="0" text="" id="{001C0016-00D0-49F9-BAC8-00F600260082}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -62416,7 +62416,7 @@
           <xm:sqref>G753:G1048576 G2:G93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="3" aboveAverage="0" rank="0" text="" id="{00C50012-006F-46B4-BE13-00FD00B30047}">
+          <x14:cfRule type="duplicateValues" priority="3" aboveAverage="0" rank="0" text="" id="{00C1005C-00B6-4CA6-9289-005A00DE0087}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -62432,7 +62432,7 @@
           <xm:sqref>G753:G1048576 G2:G93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="2" aboveAverage="0" rank="0" text="" id="{008C0053-00DB-4405-8F6D-0068001300F0}">
+          <x14:cfRule type="duplicateValues" priority="2" aboveAverage="0" rank="0" text="" id="{00060009-0057-47C4-B4AB-0000004A0075}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>

--- a/express/db/filesheet.xlsx
+++ b/express/db/filesheet.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="1148">
   <si>
     <t>ResID</t>
   </si>
@@ -2771,6 +2771,9 @@
     <t>N.Zenna@cgiar.org</t>
   </si>
   <si>
+    <t>W.Yergo@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">YEO, Pétanhangui Arnaud</t>
   </si>
   <si>
@@ -2792,6 +2795,9 @@
     <t xml:space="preserve">Yao, Kouamé Eric</t>
   </si>
   <si>
+    <t>E.Yao@cgiar.org</t>
+  </si>
+  <si>
     <t>A10680</t>
   </si>
   <si>
@@ -2819,6 +2825,9 @@
     <t xml:space="preserve">TRAORE, Jean baptiste</t>
   </si>
   <si>
+    <t>S.Toure@cgiar.org</t>
+  </si>
+  <si>
     <t>A10826</t>
   </si>
   <si>
@@ -2831,6 +2840,9 @@
     <t>J.Tougma@cgiar.org</t>
   </si>
   <si>
+    <t>D.Tia@cgiar.org</t>
+  </si>
+  <si>
     <t>A10816</t>
   </si>
   <si>
@@ -2852,12 +2864,18 @@
     <t xml:space="preserve">Consultant Expert en Evaluation des partenariats</t>
   </si>
   <si>
+    <t>E.Tella@cgiar.org</t>
+  </si>
+  <si>
     <t>A10675</t>
   </si>
   <si>
     <t xml:space="preserve">TEHUA Bini Kouadio Hermann-Landry</t>
   </si>
   <si>
+    <t>I.Tawiah@cgiar.org</t>
+  </si>
+  <si>
     <t>A10824</t>
   </si>
   <si>
@@ -2867,6 +2885,9 @@
     <t xml:space="preserve">Communication &amp; Knowledge Management Specialist</t>
   </si>
   <si>
+    <t>M.Sock@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sitraka, Maminiaina ANDRIAMIHAJA</t>
   </si>
   <si>
@@ -2879,6 +2900,9 @@
     <t>A.Sanwidi@cgiar.org</t>
   </si>
   <si>
+    <t>B.Sanneh@cgiar.org</t>
+  </si>
+  <si>
     <t>A10825</t>
   </si>
   <si>
@@ -2891,6 +2915,9 @@
     <t>k.sams@cgiar.org</t>
   </si>
   <si>
+    <t>D.Sagna@cgiar.org</t>
+  </si>
+  <si>
     <t>A.Sadikou@cgiar.org</t>
   </si>
   <si>
@@ -2999,9 +3026,18 @@
     <t>N.OSUOLALE@cgiar.org</t>
   </si>
   <si>
+    <t>K.Orou@cgiar.org</t>
+  </si>
+  <si>
     <t>k.olatifede@cgiar.org</t>
   </si>
   <si>
+    <t>c.ogwuike@cgiar.org</t>
+  </si>
+  <si>
+    <t>C.Nzi@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">NWILENE, Francis</t>
   </si>
   <si>
@@ -3020,6 +3056,9 @@
     <t xml:space="preserve">Coordinateur National de Projet </t>
   </si>
   <si>
+    <t>M.Ndour@cgiar.org</t>
+  </si>
+  <si>
     <t>M.Ndjiondjop@cgiar.org</t>
   </si>
   <si>
@@ -3050,9 +3089,15 @@
     <t>L.Medenilla@cgiar.org</t>
   </si>
   <si>
+    <t>D.Mbodj@cgiar.org</t>
+  </si>
+  <si>
     <t>B.Manneh@cgiar.org</t>
   </si>
   <si>
+    <t>O.Mane@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">A10821 </t>
   </si>
   <si>
@@ -3068,18 +3113,30 @@
     <t>E.Pegalepo@cgiar.org</t>
   </si>
   <si>
+    <t>C.Ly@cgiar.org</t>
+  </si>
+  <si>
+    <t>G.Lo@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kristina, Grotelueschen</t>
   </si>
   <si>
     <t>kenya</t>
   </si>
   <si>
+    <t>B.Kpeki@cgiar.org</t>
+  </si>
+  <si>
     <t>k.kpangui@cgiar.org</t>
   </si>
   <si>
     <t xml:space="preserve">KOUASSI, Kouao Bruce Eric</t>
   </si>
   <si>
+    <t>M.Kouassi@cgiar.org</t>
+  </si>
+  <si>
     <t>A10827</t>
   </si>
   <si>
@@ -3089,6 +3146,18 @@
     <t xml:space="preserve">Technicien(ne) de Laboratoire des Sols et des Plantes</t>
   </si>
   <si>
+    <t>N.Kouassi@cgiar.org</t>
+  </si>
+  <si>
+    <t>P.Kouame@cgiar.org</t>
+  </si>
+  <si>
+    <t>K.G.Kouame@cgiar.org</t>
+  </si>
+  <si>
+    <t>A.Kouame@cgiar.org</t>
+  </si>
+  <si>
     <t>A10804</t>
   </si>
   <si>
@@ -3098,9 +3167,18 @@
     <t xml:space="preserve">Observateur Terrain-Sélection bas-fond</t>
   </si>
   <si>
+    <t>K.Kouadio@cgiar.org</t>
+  </si>
+  <si>
+    <t>E.Kouadio@cgiar.org</t>
+  </si>
+  <si>
     <t>V.Kouadio@cgiar.org</t>
   </si>
   <si>
+    <t>A.Kouadio@cgiar.org</t>
+  </si>
+  <si>
     <t>A10820</t>
   </si>
   <si>
@@ -3134,15 +3212,30 @@
     <t>m.konan@cgiar.org</t>
   </si>
   <si>
+    <t>G.Konan@cgiar.org</t>
+  </si>
+  <si>
+    <t>S.Konan@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">KOITA, Mamoutou</t>
   </si>
   <si>
+    <t>M.Koita@cgiar.org</t>
+  </si>
+  <si>
+    <t>Y.Koffi@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Koffi, Amoin Inès</t>
   </si>
   <si>
     <t xml:space="preserve">Assistant de Recherche en production de semences </t>
   </si>
   <si>
+    <t>M.Kittika@cgiar.org</t>
+  </si>
+  <si>
     <t>A10818</t>
   </si>
   <si>
@@ -3158,6 +3251,9 @@
     <t>c.kacou@cgiar.org</t>
   </si>
   <si>
+    <t>E.Kabore@cgiar.org</t>
+  </si>
+  <si>
     <t>A10811</t>
   </si>
   <si>
@@ -3179,6 +3275,9 @@
     <t xml:space="preserve">Climate change and agriculture greenhouse gas emission</t>
   </si>
   <si>
+    <t>P.Houessionon@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">HARISON NOMEJANAHARY, Fifaliana</t>
   </si>
   <si>
@@ -3197,15 +3296,24 @@
     <t xml:space="preserve">Chauffeur / Assistant Protocole</t>
   </si>
   <si>
+    <t>M.Gouete@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gouda, Comlan Arnaud</t>
   </si>
   <si>
+    <t>S.GoubeMairoua@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">GOLLI, SIAGBE</t>
   </si>
   <si>
     <t xml:space="preserve">Jacquet Stephanie</t>
   </si>
   <si>
+    <t>K.Gnikoua@cgiar.org</t>
+  </si>
+  <si>
     <t>g.onaga@cgiar.org</t>
   </si>
   <si>
@@ -3218,6 +3326,12 @@
     <t xml:space="preserve">Assistant De Recherche Agroeconomiste</t>
   </si>
   <si>
+    <t>T.Gbede@cgiar.org</t>
+  </si>
+  <si>
+    <t>F.Gaye@cgiar.org</t>
+  </si>
+  <si>
     <t>K.Futakuchi@cgiar.org</t>
   </si>
   <si>
@@ -3230,12 +3344,18 @@
     <t xml:space="preserve">Analyste De Comptes</t>
   </si>
   <si>
+    <t>M.Faye@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fatoumata, Diabaté</t>
   </si>
   <si>
     <t>F.Famey@cgiar.org</t>
   </si>
   <si>
+    <t>N.Fall@cgiar.org</t>
+  </si>
+  <si>
     <t>A10829</t>
   </si>
   <si>
@@ -3257,6 +3377,15 @@
     <t>E.Dossou-Yovo@cgiar.org</t>
   </si>
   <si>
+    <t>N.Dossou-Yovo@cgiar.org</t>
+  </si>
+  <si>
+    <t>J.Djagba@cgiar.org</t>
+  </si>
+  <si>
+    <t>K.Diop@cgiar.org</t>
+  </si>
+  <si>
     <t>G.Dion@cgiar.org</t>
   </si>
   <si>
@@ -3275,12 +3404,33 @@
     <t xml:space="preserve">DIALLO, Aboubacar</t>
   </si>
   <si>
+    <t>P.Diakhate@cgiar.org</t>
+  </si>
+  <si>
     <t>M.Diagne@cgiar.org</t>
   </si>
   <si>
+    <t>I.Diagne@cgiar.org</t>
+  </si>
+  <si>
+    <t>P.Dia@cgiar.org</t>
+  </si>
+  <si>
+    <t>A.Dembele@cgiar.org</t>
+  </si>
+  <si>
+    <t>L.Dalie@cgiar.org</t>
+  </si>
+  <si>
+    <t>M.Dagou@cgiar.org</t>
+  </si>
+  <si>
     <t>G.Dago@cgiar.org</t>
   </si>
   <si>
+    <t>J.Coulibaly@cgiar.org</t>
+  </si>
+  <si>
     <t>N.O.Coulibaly@cgiar.org</t>
   </si>
   <si>
@@ -3299,12 +3449,18 @@
     <t xml:space="preserve">BENGALY, Oumar</t>
   </si>
   <si>
+    <t>O.Bengaly@cgiar.org</t>
+  </si>
+  <si>
     <t>N.Belko@cgiar.org</t>
   </si>
   <si>
     <t>F.Balley@cgiar.org</t>
   </si>
   <si>
+    <t>F.Baikeh@cgiar.org</t>
+  </si>
+  <si>
     <t>s.bah@cgiar.org</t>
   </si>
   <si>
@@ -3320,6 +3476,9 @@
     <t>A.Arouna@cgiar.org</t>
   </si>
   <si>
+    <t>M.Anougbre@cgiar.org</t>
+  </si>
+  <si>
     <t>E.Anoh@cgiar.org</t>
   </si>
   <si>
@@ -3350,6 +3509,9 @@
     <t>N.Amoah@cgiar.org</t>
   </si>
   <si>
+    <t>A.Amagnide@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alvari, Christian Tarfa</t>
   </si>
   <si>
@@ -3362,7 +3524,22 @@
     <t xml:space="preserve">ALI Abrahim </t>
   </si>
   <si>
+    <t>M.Akpoffo@cgiar.org</t>
+  </si>
+  <si>
+    <t>A.Akpa@cgiar.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Akintayo, Inoussa</t>
+  </si>
+  <si>
+    <t>K.Ahouanton@cgiar.org</t>
+  </si>
+  <si>
+    <t>R.Agnimonhan@cgiar.org</t>
+  </si>
+  <si>
+    <t>R.Aboudou@cgiar.org</t>
   </si>
 </sst>
 </file>
@@ -3629,7 +3806,7 @@
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -3904,6 +4081,9 @@
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="20" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
@@ -3914,6 +4094,9 @@
     </xf>
     <xf fontId="5" fillId="5" borderId="2" numFmtId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="2" numFmtId="49" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -20747,7 +20930,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" priority="2" id="{00620057-007A-4D32-BEE8-00ED00BE001B}">
+          <x14:cfRule type="dataBar" priority="2" id="{008A00EC-006B-40D9-BD4C-00BE00B00015}">
             <x14:dataBar maxLength="90" minLength="10" axisPosition="none" direction="context">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -20762,7 +20945,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{000A0047-0046-4B72-99EE-00FA00E60042}" type="custom" allowBlank="1" error="Must be a valid date." errorStyle="stop" errorTitle="Incorrect format" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F5005A-009A-48FF-9216-00DC00B6005A}" type="custom" allowBlank="1" error="Must be a valid date." errorStyle="stop" errorTitle="Incorrect format" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(ISNUMBER(AG2),LEFT(CELL("format",AG2),1)="D")</xm:f>
           </x14:formula1>
@@ -21349,8 +21532,8 @@
       <c r="AX4" s="72">
         <v>0</v>
       </c>
-      <c r="AY4" s="72">
-        <v>0</v>
+      <c r="AY4" s="74" t="s">
+        <v>891</v>
       </c>
       <c r="AZ4" s="72"/>
       <c r="BA4" s="72"/>
@@ -21385,7 +21568,7 @@
         <v>817</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I5" s="72" t="s">
         <v>52</v>
@@ -21504,7 +21687,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="73" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AZ5" s="72"/>
       <c r="BA5" s="72"/>
@@ -21518,13 +21701,13 @@
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="68" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B6" s="69">
         <v>0</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D6" s="69">
         <v>0</v>
@@ -21536,13 +21719,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I6" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J6" s="72" t="s">
         <v>37</v>
@@ -21556,7 +21739,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="72" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="P6" s="72">
         <v>0</v>
@@ -21693,7 +21876,7 @@
         <v>778</v>
       </c>
       <c r="H7" s="71" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I7" s="72" t="s">
         <v>180</v>
@@ -21811,8 +21994,8 @@
       <c r="AX7" s="72">
         <v>0</v>
       </c>
-      <c r="AY7" s="72">
-        <v>0</v>
+      <c r="AY7" s="74" t="s">
+        <v>899</v>
       </c>
       <c r="AZ7" s="72"/>
       <c r="BA7" s="72"/>
@@ -21826,13 +22009,13 @@
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="68" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B8" s="69">
         <v>0</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D8" s="69">
         <v>0</v>
@@ -21844,16 +22027,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H8" s="71" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J8" s="72" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="K8" s="72"/>
       <c r="L8" s="72"/>
@@ -21863,8 +22046,8 @@
       <c r="N8" s="72">
         <v>0</v>
       </c>
-      <c r="O8" s="74" t="s">
-        <v>901</v>
+      <c r="O8" s="75" t="s">
+        <v>903</v>
       </c>
       <c r="P8" s="72">
         <v>0</v>
@@ -22415,8 +22598,8 @@
       <c r="AT11" s="72">
         <v>0</v>
       </c>
-      <c r="AU11" s="75" t="s">
-        <v>902</v>
+      <c r="AU11" s="76" t="s">
+        <v>904</v>
       </c>
       <c r="AV11" s="72">
         <v>0</v>
@@ -22582,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="AY12" s="73" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="AZ12" s="72"/>
       <c r="BA12" s="72"/>
@@ -22736,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="AY13" s="73" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AZ13" s="72"/>
       <c r="BA13" s="72"/>
@@ -22890,7 +23073,7 @@
         <v>0</v>
       </c>
       <c r="AY14" s="73" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="AZ14" s="72"/>
       <c r="BA14" s="72"/>
@@ -22925,10 +23108,10 @@
         <v>159</v>
       </c>
       <c r="H15" s="71" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="I15" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J15" s="72" t="s">
         <v>161</v>
@@ -23351,8 +23534,8 @@
       <c r="AX17" s="72">
         <v>0</v>
       </c>
-      <c r="AY17" s="72">
-        <v>0</v>
+      <c r="AY17" s="74" t="s">
+        <v>909</v>
       </c>
       <c r="AZ17" s="72"/>
       <c r="BA17" s="72"/>
@@ -23390,7 +23573,7 @@
         <v>857</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J18" s="72" t="s">
         <v>282</v>
@@ -23520,7 +23703,7 @@
     </row>
     <row r="19" ht="16.5">
       <c r="A19" s="68" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B19" s="69">
         <v>0</v>
@@ -23535,13 +23718,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="H19" s="71" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="I19" s="72" t="s">
         <v>631</v>
@@ -23558,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="72" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="P19" s="72">
         <v>0</v>
@@ -23660,7 +23843,7 @@
         <v>0</v>
       </c>
       <c r="AY19" s="73" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="AZ19" s="72"/>
       <c r="BA19" s="72"/>
@@ -23967,8 +24150,8 @@
       <c r="AX21" s="72">
         <v>0</v>
       </c>
-      <c r="AY21" s="72">
-        <v>0</v>
+      <c r="AY21" s="74" t="s">
+        <v>914</v>
       </c>
       <c r="AZ21" s="72"/>
       <c r="BA21" s="72"/>
@@ -23982,13 +24165,13 @@
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="68" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B22" s="69">
         <v>0</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D22" s="69">
         <v>0</v>
@@ -24000,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="H22" s="71" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="I22" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J22" s="72" t="s">
         <v>130</v>
@@ -24020,7 +24203,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="72" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="P22" s="72">
         <v>0</v>
@@ -24136,13 +24319,13 @@
     </row>
     <row r="23" ht="16.5">
       <c r="A23" s="68" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B23" s="69">
         <v>0</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="D23" s="69">
         <v>0</v>
@@ -24154,13 +24337,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="H23" s="71" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="I23" s="72" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J23" s="72" t="s">
         <v>293</v>
@@ -24174,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="72" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="P23" s="72">
         <v>0</v>
@@ -24429,8 +24612,8 @@
       <c r="AX24" s="72">
         <v>0</v>
       </c>
-      <c r="AY24" s="72">
-        <v>0</v>
+      <c r="AY24" s="74" t="s">
+        <v>922</v>
       </c>
       <c r="AZ24" s="72"/>
       <c r="BA24" s="72"/>
@@ -24444,13 +24627,13 @@
     </row>
     <row r="25" ht="16.5">
       <c r="A25" s="68" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="B25" s="69">
         <v>0</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="D25" s="69">
         <v>0</v>
@@ -24462,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="H25" s="71" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="I25" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J25" s="72" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="K25" s="72"/>
       <c r="L25" s="72"/>
@@ -24481,8 +24664,8 @@
       <c r="N25" s="72">
         <v>0</v>
       </c>
-      <c r="O25" s="74" t="s">
-        <v>901</v>
+      <c r="O25" s="75" t="s">
+        <v>903</v>
       </c>
       <c r="P25" s="72">
         <v>0</v>
@@ -24737,8 +24920,8 @@
       <c r="AX26" s="72">
         <v>0</v>
       </c>
-      <c r="AY26" s="72">
-        <v>0</v>
+      <c r="AY26" s="74" t="s">
+        <v>925</v>
       </c>
       <c r="AZ26" s="72"/>
       <c r="BA26" s="72"/>
@@ -24906,7 +25089,7 @@
     </row>
     <row r="28" ht="16.5">
       <c r="A28" s="68" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="B28" s="69">
         <v>0</v>
@@ -24915,7 +25098,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="E28" s="69">
         <v>0</v>
@@ -24924,10 +25107,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="H28" s="71" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="I28" s="72" t="s">
         <v>180</v>
@@ -24944,7 +25127,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="72" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="P28" s="72">
         <v>0</v>
@@ -25199,8 +25382,8 @@
       <c r="AX29" s="72">
         <v>0</v>
       </c>
-      <c r="AY29" s="72">
-        <v>0</v>
+      <c r="AY29" s="74" t="s">
+        <v>929</v>
       </c>
       <c r="AZ29" s="72"/>
       <c r="BA29" s="72"/>
@@ -25235,7 +25418,7 @@
         <v>671</v>
       </c>
       <c r="H30" s="71" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="I30" s="72" t="s">
         <v>180</v>
@@ -25508,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="AY31" s="73" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="AZ31" s="72"/>
       <c r="BA31" s="72"/>
@@ -25816,7 +25999,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="73" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="AZ33" s="72"/>
       <c r="BA33" s="72"/>
@@ -25970,7 +26153,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="73" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="AZ34" s="72"/>
       <c r="BA34" s="72"/>
@@ -26008,7 +26191,7 @@
         <v>840</v>
       </c>
       <c r="I35" s="72" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J35" s="72" t="s">
         <v>181</v>
@@ -26277,8 +26460,8 @@
       <c r="AX36" s="72">
         <v>0</v>
       </c>
-      <c r="AY36" s="72">
-        <v>0</v>
+      <c r="AY36" s="74" t="s">
+        <v>934</v>
       </c>
       <c r="AZ36" s="72"/>
       <c r="BA36" s="72"/>
@@ -26446,7 +26629,7 @@
     </row>
     <row r="38" ht="16.5">
       <c r="A38" s="68" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="B38" s="69">
         <v>0</v>
@@ -26461,13 +26644,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="H38" s="71" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="I38" s="72" t="s">
         <v>251</v>
@@ -26484,7 +26667,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="72" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="P38" s="72">
         <v>0</v>
@@ -26585,8 +26768,8 @@
       <c r="AX38" s="72">
         <v>0</v>
       </c>
-      <c r="AY38" s="76" t="s">
-        <v>930</v>
+      <c r="AY38" s="77" t="s">
+        <v>938</v>
       </c>
       <c r="AZ38" s="72"/>
       <c r="BA38" s="72"/>
@@ -26893,8 +27076,8 @@
       <c r="AX40" s="72">
         <v>0</v>
       </c>
-      <c r="AY40" s="72">
-        <v>0</v>
+      <c r="AY40" s="78" t="s">
+        <v>939</v>
       </c>
       <c r="AZ40" s="72"/>
       <c r="BA40" s="72"/>
@@ -27048,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="AY41" s="73" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="AZ41" s="72"/>
       <c r="BA41" s="72"/>
@@ -27083,7 +27266,7 @@
         <v>663</v>
       </c>
       <c r="H42" s="71" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="I42" s="72" t="s">
         <v>180</v>
@@ -27237,7 +27420,7 @@
         <v>661</v>
       </c>
       <c r="H43" s="71" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="I43" s="72" t="s">
         <v>180</v>
@@ -27510,7 +27693,7 @@
         <v>0</v>
       </c>
       <c r="AY44" s="73" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="AZ44" s="72"/>
       <c r="BA44" s="72"/>
@@ -27545,7 +27728,7 @@
         <v>665</v>
       </c>
       <c r="H45" s="71" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="I45" s="72" t="s">
         <v>180</v>
@@ -27972,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="AY47" s="73" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="AZ47" s="72"/>
       <c r="BA47" s="72"/>
@@ -28126,7 +28309,7 @@
         <v>0</v>
       </c>
       <c r="AY48" s="73" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="AZ48" s="72"/>
       <c r="BA48" s="72"/>
@@ -28140,7 +28323,7 @@
     </row>
     <row r="49" ht="16.5">
       <c r="A49" s="68" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="B49" s="69">
         <v>0</v>
@@ -28149,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="69" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="E49" s="69">
         <v>0</v>
@@ -28158,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="70" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="H49" s="71" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="I49" s="72" t="s">
         <v>36</v>
@@ -28178,7 +28361,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="72" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="P49" s="72">
         <v>0</v>
@@ -28294,7 +28477,7 @@
     </row>
     <row r="50" ht="16.5">
       <c r="A50" s="68" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="B50" s="69">
         <v>0</v>
@@ -28303,7 +28486,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="E50" s="69">
         <v>0</v>
@@ -28312,10 +28495,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="70" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="H50" s="71" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="I50" s="72" t="s">
         <v>137</v>
@@ -28332,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="72" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="P50" s="72">
         <v>0</v>
@@ -28469,7 +28652,7 @@
         <v>709</v>
       </c>
       <c r="H51" s="71" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="I51" s="72" t="s">
         <v>251</v>
@@ -28742,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="73" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="AZ52" s="72"/>
       <c r="BA52" s="72"/>
@@ -28777,7 +28960,7 @@
         <v>677</v>
       </c>
       <c r="H53" s="71" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="I53" s="72" t="s">
         <v>137</v>
@@ -28931,7 +29114,7 @@
         <v>643</v>
       </c>
       <c r="H54" s="71" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="I54" s="72" t="s">
         <v>180</v>
@@ -29358,7 +29541,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="73" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="AZ56" s="72"/>
       <c r="BA56" s="72"/>
@@ -29372,7 +29555,7 @@
     </row>
     <row r="57" ht="16.5">
       <c r="A57" s="68" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="B57" s="69">
         <v>0</v>
@@ -29381,7 +29564,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="69" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="E57" s="69">
         <v>0</v>
@@ -29390,10 +29573,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="70" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="H57" s="71" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="I57" s="72" t="s">
         <v>36</v>
@@ -29410,7 +29593,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="72" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="P57" s="72">
         <v>0</v>
@@ -29526,7 +29709,7 @@
     </row>
     <row r="58" ht="16.5">
       <c r="A58" s="68" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="B58" s="69">
         <v>0</v>
@@ -29535,7 +29718,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="E58" s="69">
         <v>0</v>
@@ -29544,10 +29727,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="70" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="H58" s="71" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="I58" s="72" t="s">
         <v>137</v>
@@ -29701,7 +29884,7 @@
         <v>668</v>
       </c>
       <c r="H59" s="71" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
       <c r="I59" s="72" t="s">
         <v>180</v>
@@ -29858,7 +30041,7 @@
         <v>850</v>
       </c>
       <c r="I60" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J60" s="72" t="s">
         <v>130</v>
@@ -30163,7 +30346,7 @@
         <v>595</v>
       </c>
       <c r="H62" s="71" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="I62" s="72" t="s">
         <v>137</v>
@@ -30320,7 +30503,7 @@
         <v>531</v>
       </c>
       <c r="I63" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J63" s="72" t="s">
         <v>121</v>
@@ -30450,7 +30633,7 @@
     </row>
     <row r="64" ht="16.5">
       <c r="A64" s="68" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="B64" s="69">
         <v>0</v>
@@ -30459,7 +30642,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="69" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="E64" s="69">
         <v>0</v>
@@ -30468,16 +30651,16 @@
         <v>0</v>
       </c>
       <c r="G64" s="70" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="H64" s="71" t="s">
-        <v>956</v>
-      </c>
-      <c r="I64" s="77" t="s">
+        <v>965</v>
+      </c>
+      <c r="I64" s="79" t="s">
         <v>251</v>
       </c>
       <c r="J64" s="72" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="K64" s="72"/>
       <c r="L64" s="72"/>
@@ -30488,7 +30671,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="72" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="P64" s="72">
         <v>0</v>
@@ -30625,7 +30808,7 @@
         <v>753</v>
       </c>
       <c r="H65" s="71" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="I65" s="72" t="s">
         <v>180</v>
@@ -30744,7 +30927,7 @@
         <v>0</v>
       </c>
       <c r="AY65" s="73" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="AZ65" s="72"/>
       <c r="BA65" s="72"/>
@@ -30779,7 +30962,7 @@
         <v>705</v>
       </c>
       <c r="H66" s="71" t="s">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="I66" s="72" t="s">
         <v>180</v>
@@ -30912,7 +31095,7 @@
     </row>
     <row r="67" ht="15.75">
       <c r="A67" s="68" t="s">
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="B67" s="69">
         <v>0</v>
@@ -30924,16 +31107,16 @@
         <v>0</v>
       </c>
       <c r="E67" s="69" t="s">
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="F67" s="69">
         <v>0</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="H67" s="71" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="I67" s="72" t="s">
         <v>36</v>
@@ -30950,10 +31133,10 @@
         <v>0</v>
       </c>
       <c r="O67" s="72" t="s">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="P67" s="72" t="s">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="Q67" s="72"/>
       <c r="R67" s="72"/>
@@ -31822,7 +32005,7 @@
         <v>0</v>
       </c>
       <c r="AY72" s="73" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="AZ72" s="72"/>
       <c r="BA72" s="72"/>
@@ -31975,8 +32158,8 @@
       <c r="AX73" s="72">
         <v>0</v>
       </c>
-      <c r="AY73" s="72">
-        <v>0</v>
+      <c r="AY73" s="74" t="s">
+        <v>976</v>
       </c>
       <c r="AZ73" s="72"/>
       <c r="BA73" s="72"/>
@@ -32129,8 +32312,8 @@
       <c r="AX74" s="72">
         <v>0</v>
       </c>
-      <c r="AY74" s="75" t="s">
-        <v>967</v>
+      <c r="AY74" s="76" t="s">
+        <v>977</v>
       </c>
       <c r="AZ74" s="72"/>
       <c r="BA74" s="72"/>
@@ -32322,7 +32505,7 @@
         <v>416</v>
       </c>
       <c r="I76" s="72" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J76" s="72" t="s">
         <v>300</v>
@@ -32476,7 +32659,7 @@
         <v>848</v>
       </c>
       <c r="I77" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J77" s="72" t="s">
         <v>122</v>
@@ -32745,8 +32928,8 @@
       <c r="AX78" s="72">
         <v>0</v>
       </c>
-      <c r="AY78" s="72">
-        <v>0</v>
+      <c r="AY78" s="74" t="s">
+        <v>978</v>
       </c>
       <c r="AZ78" s="72"/>
       <c r="BA78" s="72"/>
@@ -33207,8 +33390,8 @@
       <c r="AX81" s="72">
         <v>0</v>
       </c>
-      <c r="AY81" s="72">
-        <v>0</v>
+      <c r="AY81" s="74" t="s">
+        <v>979</v>
       </c>
       <c r="AZ81" s="72"/>
       <c r="BA81" s="72"/>
@@ -33243,7 +33426,7 @@
         <v>84</v>
       </c>
       <c r="H82" s="71" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="I82" s="72" t="s">
         <v>66</v>
@@ -33362,7 +33545,7 @@
         <v>0</v>
       </c>
       <c r="AY82" s="73" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="AZ82" s="72"/>
       <c r="BA82" s="72"/>
@@ -33515,8 +33698,8 @@
       <c r="AX83" s="72">
         <v>0</v>
       </c>
-      <c r="AY83" s="75" t="s">
-        <v>970</v>
+      <c r="AY83" s="76" t="s">
+        <v>982</v>
       </c>
       <c r="AZ83" s="72"/>
       <c r="BA83" s="72"/>
@@ -33669,8 +33852,8 @@
       <c r="AX84" s="72">
         <v>0</v>
       </c>
-      <c r="AY84" s="76" t="s">
-        <v>971</v>
+      <c r="AY84" s="77" t="s">
+        <v>983</v>
       </c>
       <c r="AZ84" s="72"/>
       <c r="BA84" s="72"/>
@@ -34321,10 +34504,10 @@
         <v>831</v>
       </c>
       <c r="H89" s="71" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="I89" s="72" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J89" s="72" t="s">
         <v>65</v>
@@ -34337,8 +34520,8 @@
       <c r="N89" s="72">
         <v>0</v>
       </c>
-      <c r="O89" s="74" t="s">
-        <v>973</v>
+      <c r="O89" s="75" t="s">
+        <v>985</v>
       </c>
       <c r="P89" s="72">
         <v>0</v>
@@ -34593,8 +34776,8 @@
       <c r="AX90" s="72">
         <v>0</v>
       </c>
-      <c r="AY90" s="72">
-        <v>0</v>
+      <c r="AY90" s="74" t="s">
+        <v>986</v>
       </c>
       <c r="AZ90" s="72"/>
       <c r="BA90" s="72"/>
@@ -34748,7 +34931,7 @@
         <v>0</v>
       </c>
       <c r="AY91" s="73" t="s">
-        <v>974</v>
+        <v>987</v>
       </c>
       <c r="AZ91" s="72"/>
       <c r="BA91" s="72"/>
@@ -34902,7 +35085,7 @@
         <v>0</v>
       </c>
       <c r="AY92" s="73" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
       <c r="AZ92" s="72"/>
       <c r="BA92" s="72"/>
@@ -35056,7 +35239,7 @@
         <v>0</v>
       </c>
       <c r="AY93" s="73" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
       <c r="AZ93" s="72"/>
       <c r="BA93" s="72"/>
@@ -35245,7 +35428,7 @@
         <v>700</v>
       </c>
       <c r="H95" s="71" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
       <c r="I95" s="72" t="s">
         <v>137</v>
@@ -35672,7 +35855,7 @@
         <v>0</v>
       </c>
       <c r="AY97" s="73" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
       <c r="AZ97" s="72"/>
       <c r="BA97" s="72"/>
@@ -35686,10 +35869,10 @@
     </row>
     <row r="98" ht="15.75">
       <c r="A98" s="68" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
       <c r="B98" s="69" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
       <c r="C98" s="69">
         <v>0</v>
@@ -35704,10 +35887,10 @@
         <v>0</v>
       </c>
       <c r="G98" s="70" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
       <c r="H98" s="71" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
       <c r="I98" s="72" t="s">
         <v>269</v>
@@ -35724,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="72" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
       <c r="P98" s="72">
         <v>0</v>
@@ -35826,7 +36009,7 @@
         <v>0</v>
       </c>
       <c r="AY98" s="73" t="s">
-        <v>982</v>
+        <v>995</v>
       </c>
       <c r="AZ98" s="72"/>
       <c r="BA98" s="72"/>
@@ -36134,7 +36317,7 @@
         <v>0</v>
       </c>
       <c r="AY100" s="73" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
       <c r="AZ100" s="72"/>
       <c r="BA100" s="72"/>
@@ -36441,8 +36624,8 @@
       <c r="AX102" s="72">
         <v>0</v>
       </c>
-      <c r="AY102" s="72">
-        <v>0</v>
+      <c r="AY102" s="74" t="s">
+        <v>997</v>
       </c>
       <c r="AZ102" s="72"/>
       <c r="BA102" s="72"/>
@@ -36748,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="AY104" s="73" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="AZ104" s="72"/>
       <c r="BA104" s="72"/>
@@ -36901,8 +37084,8 @@
       <c r="AX105" s="72">
         <v>0</v>
       </c>
-      <c r="AY105" s="72">
-        <v>0</v>
+      <c r="AY105" s="74" t="s">
+        <v>999</v>
       </c>
       <c r="AZ105" s="72"/>
       <c r="BA105" s="72"/>
@@ -36916,13 +37099,13 @@
     </row>
     <row r="106" ht="15.75">
       <c r="A106" s="68" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="B106" s="69">
         <v>0</v>
       </c>
       <c r="C106" s="69" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="D106" s="69">
         <v>0</v>
@@ -36934,16 +37117,16 @@
         <v>0</v>
       </c>
       <c r="G106" s="70" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="H106" s="71" t="s">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="I106" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J106" s="72" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
       <c r="K106" s="72"/>
       <c r="L106" s="72"/>
@@ -36953,8 +37136,8 @@
       <c r="N106" s="72">
         <v>0</v>
       </c>
-      <c r="O106" s="74" t="s">
-        <v>988</v>
+      <c r="O106" s="75" t="s">
+        <v>1003</v>
       </c>
       <c r="P106" s="72">
         <v>0</v>
@@ -37210,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="AY107" s="73" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="AZ107" s="72"/>
       <c r="BA107" s="72"/>
@@ -37363,8 +37546,8 @@
       <c r="AX108" s="72">
         <v>0</v>
       </c>
-      <c r="AY108" s="72">
-        <v>0</v>
+      <c r="AY108" s="74" t="s">
+        <v>1005</v>
       </c>
       <c r="AZ108" s="72"/>
       <c r="BA108" s="72"/>
@@ -37517,8 +37700,8 @@
       <c r="AX109" s="72">
         <v>0</v>
       </c>
-      <c r="AY109" s="72">
-        <v>0</v>
+      <c r="AY109" s="74" t="s">
+        <v>1006</v>
       </c>
       <c r="AZ109" s="72"/>
       <c r="BA109" s="72"/>
@@ -37553,10 +37736,10 @@
         <v>811</v>
       </c>
       <c r="H110" s="71" t="s">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="I110" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J110" s="72" t="s">
         <v>130</v>
@@ -37603,7 +37786,7 @@
         <v>81</v>
       </c>
       <c r="AB110" s="72" t="s">
-        <v>991</v>
+        <v>1008</v>
       </c>
       <c r="AC110" s="72" t="s">
         <v>83</v>
@@ -37825,8 +38008,8 @@
       <c r="AX111" s="72">
         <v>0</v>
       </c>
-      <c r="AY111" s="72">
-        <v>0</v>
+      <c r="AY111" s="74" t="s">
+        <v>1009</v>
       </c>
       <c r="AZ111" s="72"/>
       <c r="BA111" s="72"/>
@@ -37979,8 +38162,8 @@
       <c r="AX112" s="72">
         <v>0</v>
       </c>
-      <c r="AY112" s="76" t="s">
-        <v>992</v>
+      <c r="AY112" s="77" t="s">
+        <v>1010</v>
       </c>
       <c r="AZ112" s="72"/>
       <c r="BA112" s="72"/>
@@ -38169,10 +38352,10 @@
         <v>593</v>
       </c>
       <c r="H114" s="71" t="s">
-        <v>993</v>
+        <v>1011</v>
       </c>
       <c r="I114" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J114" s="72" t="s">
         <v>100</v>
@@ -38441,8 +38624,8 @@
       <c r="AX115" s="72">
         <v>0</v>
       </c>
-      <c r="AY115" s="72">
-        <v>0</v>
+      <c r="AY115" s="74" t="s">
+        <v>1012</v>
       </c>
       <c r="AZ115" s="72"/>
       <c r="BA115" s="72"/>
@@ -38456,7 +38639,7 @@
     </row>
     <row r="116" ht="15.75">
       <c r="A116" s="68" t="s">
-        <v>994</v>
+        <v>1013</v>
       </c>
       <c r="B116" s="69">
         <v>0</v>
@@ -38471,13 +38654,13 @@
         <v>0</v>
       </c>
       <c r="F116" s="69" t="s">
-        <v>994</v>
+        <v>1013</v>
       </c>
       <c r="G116" s="70" t="s">
-        <v>994</v>
+        <v>1013</v>
       </c>
       <c r="H116" s="71" t="s">
-        <v>995</v>
+        <v>1014</v>
       </c>
       <c r="I116" s="72" t="s">
         <v>209</v>
@@ -38494,7 +38677,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="72" t="s">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="P116" s="72">
         <v>0</v>
@@ -38595,8 +38778,8 @@
       <c r="AX116" s="72">
         <v>0</v>
       </c>
-      <c r="AY116" s="72">
-        <v>0</v>
+      <c r="AY116" s="74" t="s">
+        <v>1016</v>
       </c>
       <c r="AZ116" s="72"/>
       <c r="BA116" s="72"/>
@@ -38749,8 +38932,8 @@
       <c r="AX117" s="72">
         <v>0</v>
       </c>
-      <c r="AY117" s="72">
-        <v>0</v>
+      <c r="AY117" s="74" t="s">
+        <v>1017</v>
       </c>
       <c r="AZ117" s="72"/>
       <c r="BA117" s="72"/>
@@ -38942,7 +39125,7 @@
         <v>835</v>
       </c>
       <c r="I119" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J119" s="72" t="s">
         <v>181</v>
@@ -39211,8 +39394,8 @@
       <c r="AX120" s="72">
         <v>0</v>
       </c>
-      <c r="AY120" s="72">
-        <v>0</v>
+      <c r="AY120" s="74" t="s">
+        <v>1018</v>
       </c>
       <c r="AZ120" s="72"/>
       <c r="BA120" s="72"/>
@@ -39673,8 +39856,8 @@
       <c r="AX123" s="72">
         <v>0</v>
       </c>
-      <c r="AY123" s="72">
-        <v>0</v>
+      <c r="AY123" s="74" t="s">
+        <v>1019</v>
       </c>
       <c r="AZ123" s="72"/>
       <c r="BA123" s="72"/>
@@ -39842,7 +40025,7 @@
     </row>
     <row r="125" ht="15.75">
       <c r="A125" s="68" t="s">
-        <v>997</v>
+        <v>1020</v>
       </c>
       <c r="B125" s="69">
         <v>0</v>
@@ -39857,13 +40040,13 @@
         <v>0</v>
       </c>
       <c r="F125" s="69" t="s">
-        <v>997</v>
+        <v>1020</v>
       </c>
       <c r="G125" s="70" t="s">
-        <v>997</v>
+        <v>1020</v>
       </c>
       <c r="H125" s="71" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
       <c r="I125" s="72" t="s">
         <v>137</v>
@@ -39880,7 +40063,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="72" t="s">
-        <v>999</v>
+        <v>1022</v>
       </c>
       <c r="P125" s="72">
         <v>0</v>
@@ -40443,8 +40626,8 @@
       <c r="AX128" s="72">
         <v>0</v>
       </c>
-      <c r="AY128" s="72">
-        <v>0</v>
+      <c r="AY128" s="74" t="s">
+        <v>1023</v>
       </c>
       <c r="AZ128" s="72"/>
       <c r="BA128" s="72"/>
@@ -40597,8 +40780,8 @@
       <c r="AX129" s="72">
         <v>0</v>
       </c>
-      <c r="AY129" s="72">
-        <v>0</v>
+      <c r="AY129" s="74" t="s">
+        <v>1024</v>
       </c>
       <c r="AZ129" s="72"/>
       <c r="BA129" s="72"/>
@@ -40752,7 +40935,7 @@
         <v>0</v>
       </c>
       <c r="AY130" s="73" t="s">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="AZ130" s="72"/>
       <c r="BA130" s="72"/>
@@ -40905,8 +41088,8 @@
       <c r="AX131" s="72">
         <v>0</v>
       </c>
-      <c r="AY131" s="72">
-        <v>0</v>
+      <c r="AY131" s="74" t="s">
+        <v>1026</v>
       </c>
       <c r="AZ131" s="72"/>
       <c r="BA131" s="72"/>
@@ -40920,13 +41103,13 @@
     </row>
     <row r="132" ht="15.75">
       <c r="A132" s="68" t="s">
-        <v>1001</v>
+        <v>1027</v>
       </c>
       <c r="B132" s="69">
         <v>0</v>
       </c>
       <c r="C132" s="69" t="s">
-        <v>1001</v>
+        <v>1027</v>
       </c>
       <c r="D132" s="69">
         <v>0</v>
@@ -40938,13 +41121,13 @@
         <v>0</v>
       </c>
       <c r="G132" s="70" t="s">
-        <v>1001</v>
+        <v>1027</v>
       </c>
       <c r="H132" s="71" t="s">
-        <v>1002</v>
+        <v>1028</v>
       </c>
       <c r="I132" s="72" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J132" s="72" t="s">
         <v>130</v>
@@ -40958,7 +41141,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="72" t="s">
-        <v>1003</v>
+        <v>1029</v>
       </c>
       <c r="P132" s="72">
         <v>0</v>
@@ -41060,7 +41243,7 @@
         <v>0</v>
       </c>
       <c r="AY132" s="73" t="s">
-        <v>1004</v>
+        <v>1030</v>
       </c>
       <c r="AZ132" s="72"/>
       <c r="BA132" s="72"/>
@@ -41249,10 +41432,10 @@
         <v>694</v>
       </c>
       <c r="H134" s="71" t="s">
-        <v>1005</v>
+        <v>1031</v>
       </c>
       <c r="I134" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J134" s="72" t="s">
         <v>282</v>
@@ -41382,7 +41565,7 @@
     </row>
     <row r="135" ht="15.75">
       <c r="A135" s="68" t="s">
-        <v>1006</v>
+        <v>1032</v>
       </c>
       <c r="B135" s="69">
         <v>0</v>
@@ -41397,13 +41580,13 @@
         <v>0</v>
       </c>
       <c r="F135" s="69" t="s">
-        <v>1006</v>
+        <v>1032</v>
       </c>
       <c r="G135" s="70" t="s">
-        <v>1006</v>
+        <v>1032</v>
       </c>
       <c r="H135" s="71" t="s">
-        <v>1007</v>
+        <v>1033</v>
       </c>
       <c r="I135" s="72" t="s">
         <v>251</v>
@@ -41420,7 +41603,7 @@
         <v>0</v>
       </c>
       <c r="O135" s="72" t="s">
-        <v>1008</v>
+        <v>1034</v>
       </c>
       <c r="P135" s="72">
         <v>0</v>
@@ -41522,7 +41705,7 @@
         <v>0</v>
       </c>
       <c r="AY135" s="73" t="s">
-        <v>1009</v>
+        <v>1035</v>
       </c>
       <c r="AZ135" s="72"/>
       <c r="BA135" s="72"/>
@@ -41676,7 +41859,7 @@
         <v>0</v>
       </c>
       <c r="AY136" s="73" t="s">
-        <v>1010</v>
+        <v>1036</v>
       </c>
       <c r="AZ136" s="72"/>
       <c r="BA136" s="72"/>
@@ -41829,8 +42012,8 @@
       <c r="AX137" s="72">
         <v>0</v>
       </c>
-      <c r="AY137" s="75" t="s">
-        <v>1011</v>
+      <c r="AY137" s="76" t="s">
+        <v>1037</v>
       </c>
       <c r="AZ137" s="72"/>
       <c r="BA137" s="72"/>
@@ -42137,8 +42320,8 @@
       <c r="AX139" s="72">
         <v>0</v>
       </c>
-      <c r="AY139" s="72">
-        <v>0</v>
+      <c r="AY139" s="74" t="s">
+        <v>1038</v>
       </c>
       <c r="AZ139" s="72"/>
       <c r="BA139" s="72"/>
@@ -42291,8 +42474,8 @@
       <c r="AX140" s="72">
         <v>0</v>
       </c>
-      <c r="AY140" s="72">
-        <v>0</v>
+      <c r="AY140" s="74" t="s">
+        <v>1039</v>
       </c>
       <c r="AZ140" s="72"/>
       <c r="BA140" s="72"/>
@@ -42330,7 +42513,7 @@
         <v>859</v>
       </c>
       <c r="I141" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J141" s="72" t="s">
         <v>181</v>
@@ -42481,7 +42664,7 @@
         <v>619</v>
       </c>
       <c r="H142" s="71" t="s">
-        <v>1012</v>
+        <v>1040</v>
       </c>
       <c r="I142" s="72" t="s">
         <v>36</v>
@@ -42599,8 +42782,8 @@
       <c r="AX142" s="72">
         <v>0</v>
       </c>
-      <c r="AY142" s="72">
-        <v>0</v>
+      <c r="AY142" s="74" t="s">
+        <v>1041</v>
       </c>
       <c r="AZ142" s="72"/>
       <c r="BA142" s="72"/>
@@ -42753,8 +42936,8 @@
       <c r="AX143" s="72">
         <v>0</v>
       </c>
-      <c r="AY143" s="72">
-        <v>0</v>
+      <c r="AY143" s="74" t="s">
+        <v>1042</v>
       </c>
       <c r="AZ143" s="72"/>
       <c r="BA143" s="72"/>
@@ -42943,7 +43126,7 @@
         <v>760</v>
       </c>
       <c r="H145" s="71" t="s">
-        <v>1013</v>
+        <v>1043</v>
       </c>
       <c r="I145" s="72" t="s">
         <v>137</v>
@@ -43114,7 +43297,7 @@
         <v>252</v>
       </c>
       <c r="O146" s="72" t="s">
-        <v>1014</v>
+        <v>1044</v>
       </c>
       <c r="P146" s="72" t="s">
         <v>71</v>
@@ -43215,8 +43398,8 @@
       <c r="AX146" s="72">
         <v>0</v>
       </c>
-      <c r="AY146" s="72">
-        <v>0</v>
+      <c r="AY146" s="74" t="s">
+        <v>1045</v>
       </c>
       <c r="AZ146" s="72"/>
       <c r="BA146" s="72"/>
@@ -43230,13 +43413,13 @@
     </row>
     <row r="147" ht="15.75">
       <c r="A147" s="68" t="s">
-        <v>1015</v>
+        <v>1046</v>
       </c>
       <c r="B147" s="69">
         <v>0</v>
       </c>
       <c r="C147" s="69" t="s">
-        <v>1015</v>
+        <v>1046</v>
       </c>
       <c r="D147" s="69">
         <v>0</v>
@@ -43248,13 +43431,13 @@
         <v>0</v>
       </c>
       <c r="G147" s="70" t="s">
-        <v>1015</v>
+        <v>1046</v>
       </c>
       <c r="H147" s="71" t="s">
-        <v>1016</v>
+        <v>1047</v>
       </c>
       <c r="I147" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J147" s="72" t="s">
         <v>130</v>
@@ -43268,7 +43451,7 @@
         <v>0</v>
       </c>
       <c r="O147" s="72" t="s">
-        <v>1017</v>
+        <v>1048</v>
       </c>
       <c r="P147" s="72">
         <v>0</v>
@@ -43677,8 +43860,8 @@
       <c r="AX149" s="72">
         <v>0</v>
       </c>
-      <c r="AY149" s="78" t="s">
-        <v>1018</v>
+      <c r="AY149" s="80" t="s">
+        <v>1049</v>
       </c>
       <c r="AZ149" s="72"/>
       <c r="BA149" s="72"/>
@@ -43831,8 +44014,8 @@
       <c r="AX150" s="72">
         <v>0</v>
       </c>
-      <c r="AY150" s="76" t="s">
-        <v>1019</v>
+      <c r="AY150" s="77" t="s">
+        <v>1050</v>
       </c>
       <c r="AZ150" s="72"/>
       <c r="BA150" s="72"/>
@@ -43883,7 +44066,7 @@
       <c r="N151" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="O151" s="79" t="s">
+      <c r="O151" s="81" t="s">
         <v>552</v>
       </c>
       <c r="P151" s="72" t="s">
@@ -43985,8 +44168,8 @@
       <c r="AX151" s="72">
         <v>0</v>
       </c>
-      <c r="AY151" s="72">
-        <v>0</v>
+      <c r="AY151" s="74" t="s">
+        <v>1051</v>
       </c>
       <c r="AZ151" s="72"/>
       <c r="BA151" s="72"/>
@@ -44000,13 +44183,13 @@
     </row>
     <row r="152" ht="15.75">
       <c r="A152" s="68" t="s">
-        <v>1020</v>
+        <v>1052</v>
       </c>
       <c r="B152" s="69">
         <v>0</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>1020</v>
+        <v>1052</v>
       </c>
       <c r="D152" s="69">
         <v>0</v>
@@ -44018,16 +44201,16 @@
         <v>0</v>
       </c>
       <c r="G152" s="70" t="s">
-        <v>1020</v>
+        <v>1052</v>
       </c>
       <c r="H152" s="71" t="s">
-        <v>1021</v>
+        <v>1053</v>
       </c>
       <c r="I152" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J152" s="72" t="s">
-        <v>1022</v>
+        <v>1054</v>
       </c>
       <c r="K152" s="72"/>
       <c r="L152" s="72"/>
@@ -44175,10 +44358,10 @@
         <v>257</v>
       </c>
       <c r="H153" s="71" t="s">
-        <v>1023</v>
+        <v>1055</v>
       </c>
       <c r="I153" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J153" s="72" t="s">
         <v>130</v>
@@ -44486,7 +44669,7 @@
         <v>841</v>
       </c>
       <c r="I155" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J155" s="72" t="s">
         <v>224</v>
@@ -44616,13 +44799,13 @@
     </row>
     <row r="156" ht="15.75">
       <c r="A156" s="68" t="s">
-        <v>1024</v>
+        <v>1056</v>
       </c>
       <c r="B156" s="69">
         <v>0</v>
       </c>
       <c r="C156" s="69" t="s">
-        <v>1024</v>
+        <v>1056</v>
       </c>
       <c r="D156" s="69">
         <v>0</v>
@@ -44634,13 +44817,13 @@
         <v>0</v>
       </c>
       <c r="G156" s="70" t="s">
-        <v>1024</v>
+        <v>1056</v>
       </c>
       <c r="H156" s="71" t="s">
-        <v>1025</v>
+        <v>1057</v>
       </c>
       <c r="I156" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J156" s="72" t="s">
         <v>282</v>
@@ -44654,7 +44837,7 @@
         <v>0</v>
       </c>
       <c r="O156" s="72" t="s">
-        <v>1026</v>
+        <v>1058</v>
       </c>
       <c r="P156" s="72">
         <v>0</v>
@@ -44909,8 +45092,8 @@
       <c r="AX157" s="72">
         <v>0</v>
       </c>
-      <c r="AY157" s="72">
-        <v>0</v>
+      <c r="AY157" s="74" t="s">
+        <v>1059</v>
       </c>
       <c r="AZ157" s="72"/>
       <c r="BA157" s="72"/>
@@ -45099,7 +45282,7 @@
         <v>481</v>
       </c>
       <c r="H159" s="71" t="s">
-        <v>1027</v>
+        <v>1060</v>
       </c>
       <c r="I159" s="72" t="s">
         <v>209</v>
@@ -45253,10 +45436,10 @@
         <v>697</v>
       </c>
       <c r="H160" s="71" t="s">
-        <v>1028</v>
+        <v>1061</v>
       </c>
       <c r="I160" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J160" s="72" t="s">
         <v>282</v>
@@ -45372,7 +45555,7 @@
         <v>0</v>
       </c>
       <c r="AY160" s="73" t="s">
-        <v>1029</v>
+        <v>1062</v>
       </c>
       <c r="AZ160" s="72"/>
       <c r="BA160" s="72"/>
@@ -45386,7 +45569,7 @@
     </row>
     <row r="161" ht="15.75">
       <c r="A161" s="68" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
       <c r="B161" s="69">
         <v>0</v>
@@ -45398,16 +45581,16 @@
         <v>0</v>
       </c>
       <c r="E161" s="69" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
       <c r="F161" s="69">
         <v>0</v>
       </c>
       <c r="G161" s="70" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
       <c r="H161" s="71" t="s">
-        <v>1031</v>
+        <v>1064</v>
       </c>
       <c r="I161" s="72" t="s">
         <v>180</v>
@@ -45424,7 +45607,7 @@
         <v>0</v>
       </c>
       <c r="O161" s="72" t="s">
-        <v>1032</v>
+        <v>1065</v>
       </c>
       <c r="P161" s="72">
         <v>0</v>
@@ -46449,8 +46632,8 @@
       <c r="AX167" s="72">
         <v>0</v>
       </c>
-      <c r="AY167" s="72">
-        <v>0</v>
+      <c r="AY167" s="74" t="s">
+        <v>1066</v>
       </c>
       <c r="AZ167" s="72"/>
       <c r="BA167" s="72"/>
@@ -46485,10 +46668,10 @@
         <v>820</v>
       </c>
       <c r="H168" s="71" t="s">
-        <v>1033</v>
+        <v>1067</v>
       </c>
       <c r="I168" s="72" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J168" s="72" t="s">
         <v>165</v>
@@ -46757,8 +46940,8 @@
       <c r="AX169" s="72">
         <v>0</v>
       </c>
-      <c r="AY169" s="72">
-        <v>0</v>
+      <c r="AY169" s="74" t="s">
+        <v>1068</v>
       </c>
       <c r="AZ169" s="72"/>
       <c r="BA169" s="72"/>
@@ -46793,13 +46976,13 @@
         <v>715</v>
       </c>
       <c r="H170" s="71" t="s">
-        <v>1034</v>
+        <v>1069</v>
       </c>
       <c r="I170" s="72" t="s">
         <v>180</v>
       </c>
       <c r="J170" s="72" t="s">
-        <v>1035</v>
+        <v>1070</v>
       </c>
       <c r="K170" s="72"/>
       <c r="L170" s="72"/>
@@ -47219,8 +47402,8 @@
       <c r="AX172" s="72">
         <v>0</v>
       </c>
-      <c r="AY172" s="72">
-        <v>0</v>
+      <c r="AY172" s="74" t="s">
+        <v>1071</v>
       </c>
       <c r="AZ172" s="72"/>
       <c r="BA172" s="72"/>
@@ -47373,8 +47556,8 @@
       <c r="AX173" s="72">
         <v>0</v>
       </c>
-      <c r="AY173" s="75" t="s">
-        <v>1036</v>
+      <c r="AY173" s="76" t="s">
+        <v>1072</v>
       </c>
       <c r="AZ173" s="72"/>
       <c r="BA173" s="72"/>
@@ -47388,7 +47571,7 @@
     </row>
     <row r="174" ht="15.75">
       <c r="A174" s="68" t="s">
-        <v>1037</v>
+        <v>1073</v>
       </c>
       <c r="B174" s="69">
         <v>0</v>
@@ -47403,13 +47586,13 @@
         <v>0</v>
       </c>
       <c r="F174" s="69" t="s">
-        <v>1037</v>
+        <v>1073</v>
       </c>
       <c r="G174" s="70" t="s">
-        <v>1037</v>
+        <v>1073</v>
       </c>
       <c r="H174" s="71" t="s">
-        <v>1038</v>
+        <v>1074</v>
       </c>
       <c r="I174" s="72" t="s">
         <v>180</v>
@@ -47426,7 +47609,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="72" t="s">
-        <v>1039</v>
+        <v>1075</v>
       </c>
       <c r="P174" s="72">
         <v>0</v>
@@ -47527,8 +47710,8 @@
       <c r="AX174" s="72">
         <v>0</v>
       </c>
-      <c r="AY174" s="72">
-        <v>0</v>
+      <c r="AY174" s="74" t="s">
+        <v>1076</v>
       </c>
       <c r="AZ174" s="72"/>
       <c r="BA174" s="72"/>
@@ -47681,8 +47864,8 @@
       <c r="AX175" s="72">
         <v>0</v>
       </c>
-      <c r="AY175" s="72">
-        <v>0</v>
+      <c r="AY175" s="74" t="s">
+        <v>1077</v>
       </c>
       <c r="AZ175" s="72"/>
       <c r="BA175" s="72"/>
@@ -47720,7 +47903,7 @@
         <v>828</v>
       </c>
       <c r="I176" s="72" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J176" s="72" t="s">
         <v>37</v>
@@ -47990,7 +48173,7 @@
         <v>0</v>
       </c>
       <c r="AY177" s="73" t="s">
-        <v>1040</v>
+        <v>1078</v>
       </c>
       <c r="AZ177" s="72"/>
       <c r="BA177" s="72"/>
@@ -48004,7 +48187,7 @@
     </row>
     <row r="178" ht="15.75">
       <c r="A178" s="68" t="s">
-        <v>1041</v>
+        <v>1079</v>
       </c>
       <c r="B178" s="69">
         <v>0</v>
@@ -48016,16 +48199,16 @@
         <v>0</v>
       </c>
       <c r="E178" s="69" t="s">
-        <v>1041</v>
+        <v>1079</v>
       </c>
       <c r="F178" s="69">
         <v>0</v>
       </c>
       <c r="G178" s="70" t="s">
-        <v>1041</v>
+        <v>1079</v>
       </c>
       <c r="H178" s="71" t="s">
-        <v>1042</v>
+        <v>1080</v>
       </c>
       <c r="I178" s="72" t="s">
         <v>36</v>
@@ -48042,7 +48225,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="72" t="s">
-        <v>1043</v>
+        <v>1081</v>
       </c>
       <c r="P178" s="72">
         <v>0</v>
@@ -48297,8 +48480,8 @@
       <c r="AX179" s="72">
         <v>0</v>
       </c>
-      <c r="AY179" s="72">
-        <v>0</v>
+      <c r="AY179" s="74" t="s">
+        <v>1082</v>
       </c>
       <c r="AZ179" s="72"/>
       <c r="BA179" s="72"/>
@@ -48333,10 +48516,10 @@
         <v>686</v>
       </c>
       <c r="H180" s="71" t="s">
-        <v>1044</v>
+        <v>1083</v>
       </c>
       <c r="I180" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J180" s="72" t="s">
         <v>121</v>
@@ -48760,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="AY182" s="73" t="s">
-        <v>1045</v>
+        <v>1084</v>
       </c>
       <c r="AZ182" s="72"/>
       <c r="BA182" s="72"/>
@@ -49219,8 +49402,8 @@
       <c r="AX185" s="72">
         <v>0</v>
       </c>
-      <c r="AY185" s="72">
-        <v>0</v>
+      <c r="AY185" s="74" t="s">
+        <v>1085</v>
       </c>
       <c r="AZ185" s="72"/>
       <c r="BA185" s="72"/>
@@ -49234,7 +49417,7 @@
     </row>
     <row r="186" ht="15.75">
       <c r="A186" s="68" t="s">
-        <v>1046</v>
+        <v>1086</v>
       </c>
       <c r="B186" s="69">
         <v>0</v>
@@ -49243,7 +49426,7 @@
         <v>0</v>
       </c>
       <c r="D186" s="69" t="s">
-        <v>1046</v>
+        <v>1086</v>
       </c>
       <c r="E186" s="69">
         <v>0</v>
@@ -49252,10 +49435,10 @@
         <v>0</v>
       </c>
       <c r="G186" s="70" t="s">
-        <v>1046</v>
+        <v>1086</v>
       </c>
       <c r="H186" s="71" t="s">
-        <v>1047</v>
+        <v>1087</v>
       </c>
       <c r="I186" s="72" t="s">
         <v>137</v>
@@ -49272,7 +49455,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="72" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="P186" s="72">
         <v>0</v>
@@ -49542,7 +49725,7 @@
     </row>
     <row r="188" ht="15.75">
       <c r="A188" s="68" t="s">
-        <v>1048</v>
+        <v>1088</v>
       </c>
       <c r="B188" s="69">
         <v>0</v>
@@ -49554,19 +49737,19 @@
         <v>0</v>
       </c>
       <c r="E188" s="69" t="s">
-        <v>1048</v>
+        <v>1088</v>
       </c>
       <c r="F188" s="69">
         <v>0</v>
       </c>
       <c r="G188" s="70" t="s">
-        <v>1048</v>
+        <v>1088</v>
       </c>
       <c r="H188" s="71" t="s">
-        <v>1049</v>
+        <v>1089</v>
       </c>
       <c r="I188" s="72" t="s">
-        <v>1050</v>
+        <v>1090</v>
       </c>
       <c r="J188" s="72" t="s">
         <v>286</v>
@@ -49580,7 +49763,7 @@
         <v>0</v>
       </c>
       <c r="O188" s="72" t="s">
-        <v>1051</v>
+        <v>1091</v>
       </c>
       <c r="P188" s="72">
         <v>0</v>
@@ -49836,7 +50019,7 @@
         <v>0</v>
       </c>
       <c r="AY189" s="73" t="s">
-        <v>1052</v>
+        <v>1092</v>
       </c>
       <c r="AZ189" s="72"/>
       <c r="BA189" s="72"/>
@@ -49989,8 +50172,8 @@
       <c r="AX190" s="72">
         <v>0</v>
       </c>
-      <c r="AY190" s="72">
-        <v>0</v>
+      <c r="AY190" s="74" t="s">
+        <v>1093</v>
       </c>
       <c r="AZ190" s="72"/>
       <c r="BA190" s="72"/>
@@ -50143,8 +50326,8 @@
       <c r="AX191" s="72">
         <v>0</v>
       </c>
-      <c r="AY191" s="72">
-        <v>0</v>
+      <c r="AY191" s="74" t="s">
+        <v>1094</v>
       </c>
       <c r="AZ191" s="72"/>
       <c r="BA191" s="72"/>
@@ -50451,8 +50634,8 @@
       <c r="AX193" s="72">
         <v>0</v>
       </c>
-      <c r="AY193" s="72">
-        <v>0</v>
+      <c r="AY193" s="74" t="s">
+        <v>1095</v>
       </c>
       <c r="AZ193" s="72"/>
       <c r="BA193" s="72"/>
@@ -50606,7 +50789,7 @@
         <v>0</v>
       </c>
       <c r="AY194" s="73" t="s">
-        <v>1053</v>
+        <v>1096</v>
       </c>
       <c r="AZ194" s="72"/>
       <c r="BA194" s="72"/>
@@ -50620,10 +50803,10 @@
     </row>
     <row r="195" ht="15.75">
       <c r="A195" s="68" t="s">
-        <v>1054</v>
+        <v>1097</v>
       </c>
       <c r="B195" s="69" t="s">
-        <v>1054</v>
+        <v>1097</v>
       </c>
       <c r="C195" s="69">
         <v>0</v>
@@ -50638,10 +50821,10 @@
         <v>0</v>
       </c>
       <c r="G195" s="70" t="s">
-        <v>1054</v>
+        <v>1097</v>
       </c>
       <c r="H195" s="71" t="s">
-        <v>1055</v>
+        <v>1098</v>
       </c>
       <c r="I195" s="72" t="s">
         <v>269</v>
@@ -50657,8 +50840,8 @@
       <c r="N195" s="72">
         <v>0</v>
       </c>
-      <c r="O195" s="74" t="s">
-        <v>1056</v>
+      <c r="O195" s="75" t="s">
+        <v>1099</v>
       </c>
       <c r="P195" s="72">
         <v>0</v>
@@ -50760,7 +50943,7 @@
         <v>0</v>
       </c>
       <c r="AY195" s="73" t="s">
-        <v>1057</v>
+        <v>1100</v>
       </c>
       <c r="AZ195" s="72"/>
       <c r="BA195" s="72"/>
@@ -51103,10 +51286,10 @@
         <v>737</v>
       </c>
       <c r="H198" s="71" t="s">
-        <v>1058</v>
+        <v>1101</v>
       </c>
       <c r="I198" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J198" s="72" t="s">
         <v>282</v>
@@ -51375,8 +51558,8 @@
       <c r="AX199" s="72">
         <v>0</v>
       </c>
-      <c r="AY199" s="72">
-        <v>0</v>
+      <c r="AY199" s="74" t="s">
+        <v>1102</v>
       </c>
       <c r="AZ199" s="72"/>
       <c r="BA199" s="72"/>
@@ -51530,7 +51713,7 @@
         <v>0</v>
       </c>
       <c r="AY200" s="73" t="s">
-        <v>1059</v>
+        <v>1103</v>
       </c>
       <c r="AZ200" s="72"/>
       <c r="BA200" s="72"/>
@@ -51683,8 +51866,8 @@
       <c r="AX201" s="72">
         <v>0</v>
       </c>
-      <c r="AY201" s="72">
-        <v>0</v>
+      <c r="AY201" s="74" t="s">
+        <v>1104</v>
       </c>
       <c r="AZ201" s="72"/>
       <c r="BA201" s="72"/>
@@ -51837,8 +52020,8 @@
       <c r="AX202" s="72">
         <v>0</v>
       </c>
-      <c r="AY202" s="72">
-        <v>0</v>
+      <c r="AY202" s="74" t="s">
+        <v>1105</v>
       </c>
       <c r="AZ202" s="72"/>
       <c r="BA202" s="72"/>
@@ -51991,8 +52174,8 @@
       <c r="AX203" s="72">
         <v>0</v>
       </c>
-      <c r="AY203" s="72">
-        <v>0</v>
+      <c r="AY203" s="74" t="s">
+        <v>1106</v>
       </c>
       <c r="AZ203" s="72"/>
       <c r="BA203" s="72"/>
@@ -52145,8 +52328,8 @@
       <c r="AX204" s="72">
         <v>0</v>
       </c>
-      <c r="AY204" s="72">
-        <v>0</v>
+      <c r="AY204" s="74" t="s">
+        <v>1107</v>
       </c>
       <c r="AZ204" s="72"/>
       <c r="BA204" s="72"/>
@@ -52299,8 +52482,8 @@
       <c r="AX205" s="72">
         <v>0</v>
       </c>
-      <c r="AY205" s="72">
-        <v>0</v>
+      <c r="AY205" s="74" t="s">
+        <v>1108</v>
       </c>
       <c r="AZ205" s="72"/>
       <c r="BA205" s="72"/>
@@ -52454,7 +52637,7 @@
         <v>0</v>
       </c>
       <c r="AY206" s="73" t="s">
-        <v>1060</v>
+        <v>1109</v>
       </c>
       <c r="AZ206" s="72"/>
       <c r="BA206" s="72"/>
@@ -52915,8 +53098,8 @@
       <c r="AX209" s="72">
         <v>0</v>
       </c>
-      <c r="AY209" s="72">
-        <v>0</v>
+      <c r="AY209" s="74" t="s">
+        <v>1110</v>
       </c>
       <c r="AZ209" s="72"/>
       <c r="BA209" s="72"/>
@@ -53070,7 +53253,7 @@
         <v>0</v>
       </c>
       <c r="AY210" s="73" t="s">
-        <v>1061</v>
+        <v>1111</v>
       </c>
       <c r="AZ210" s="72"/>
       <c r="BA210" s="72"/>
@@ -53238,7 +53421,7 @@
     </row>
     <row r="212" ht="15.75">
       <c r="A212" s="68" t="s">
-        <v>1062</v>
+        <v>1112</v>
       </c>
       <c r="B212" s="69">
         <v>0</v>
@@ -53250,16 +53433,16 @@
         <v>0</v>
       </c>
       <c r="E212" s="69" t="s">
-        <v>1062</v>
+        <v>1112</v>
       </c>
       <c r="F212" s="69">
         <v>0</v>
       </c>
       <c r="G212" s="70" t="s">
-        <v>1062</v>
+        <v>1112</v>
       </c>
       <c r="H212" s="71" t="s">
-        <v>1063</v>
+        <v>1113</v>
       </c>
       <c r="I212" s="72" t="s">
         <v>180</v>
@@ -53276,7 +53459,7 @@
         <v>0</v>
       </c>
       <c r="O212" s="72" t="s">
-        <v>1064</v>
+        <v>1114</v>
       </c>
       <c r="P212" s="72">
         <v>0</v>
@@ -53721,7 +53904,7 @@
         <v>234</v>
       </c>
       <c r="H215" s="71" t="s">
-        <v>1065</v>
+        <v>1115</v>
       </c>
       <c r="I215" s="72" t="s">
         <v>137</v>
@@ -53875,10 +54058,10 @@
         <v>739</v>
       </c>
       <c r="H216" s="71" t="s">
-        <v>1066</v>
+        <v>1116</v>
       </c>
       <c r="I216" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J216" s="72" t="s">
         <v>282</v>
@@ -53993,8 +54176,8 @@
       <c r="AX216" s="72">
         <v>0</v>
       </c>
-      <c r="AY216" s="72">
-        <v>0</v>
+      <c r="AY216" s="74" t="s">
+        <v>1117</v>
       </c>
       <c r="AZ216" s="72"/>
       <c r="BA216" s="72"/>
@@ -54148,7 +54331,7 @@
         <v>0</v>
       </c>
       <c r="AY217" s="73" t="s">
-        <v>1067</v>
+        <v>1118</v>
       </c>
       <c r="AZ217" s="72"/>
       <c r="BA217" s="72"/>
@@ -54185,7 +54368,7 @@
       <c r="H218" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="I218" s="80" t="s">
+      <c r="I218" s="82" t="s">
         <v>144</v>
       </c>
       <c r="J218" s="72" t="s">
@@ -54456,7 +54639,7 @@
         <v>0</v>
       </c>
       <c r="AY219" s="73" t="s">
-        <v>1068</v>
+        <v>1119</v>
       </c>
       <c r="AZ219" s="72"/>
       <c r="BA219" s="72"/>
@@ -54507,7 +54690,7 @@
       <c r="N220" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="O220" s="79" t="s">
+      <c r="O220" s="81" t="s">
         <v>401</v>
       </c>
       <c r="P220" s="72" t="s">
@@ -54609,8 +54792,8 @@
       <c r="AX220" s="72">
         <v>0</v>
       </c>
-      <c r="AY220" s="72">
-        <v>0</v>
+      <c r="AY220" s="74" t="s">
+        <v>1120</v>
       </c>
       <c r="AZ220" s="72"/>
       <c r="BA220" s="72"/>
@@ -54763,8 +54946,8 @@
       <c r="AX221" s="72">
         <v>0</v>
       </c>
-      <c r="AY221" s="75" t="s">
-        <v>1069</v>
+      <c r="AY221" s="76" t="s">
+        <v>1121</v>
       </c>
       <c r="AZ221" s="72"/>
       <c r="BA221" s="72"/>
@@ -55072,7 +55255,7 @@
         <v>0</v>
       </c>
       <c r="AY223" s="73" t="s">
-        <v>1070</v>
+        <v>1122</v>
       </c>
       <c r="AZ223" s="72"/>
       <c r="BA223" s="72"/>
@@ -55226,7 +55409,7 @@
         <v>0</v>
       </c>
       <c r="AY224" s="73" t="s">
-        <v>1071</v>
+        <v>1123</v>
       </c>
       <c r="AZ224" s="72"/>
       <c r="BA224" s="72"/>
@@ -55534,7 +55717,7 @@
         <v>0</v>
       </c>
       <c r="AY226" s="73" t="s">
-        <v>1072</v>
+        <v>1124</v>
       </c>
       <c r="AZ226" s="72"/>
       <c r="BA226" s="72"/>
@@ -55688,7 +55871,7 @@
         <v>0</v>
       </c>
       <c r="AY227" s="73" t="s">
-        <v>1073</v>
+        <v>1125</v>
       </c>
       <c r="AZ227" s="72"/>
       <c r="BA227" s="72"/>
@@ -55723,7 +55906,7 @@
         <v>630</v>
       </c>
       <c r="H228" s="71" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="I228" s="72" t="s">
         <v>631</v>
@@ -55995,8 +56178,8 @@
       <c r="AX229" s="72">
         <v>0</v>
       </c>
-      <c r="AY229" s="72">
-        <v>0</v>
+      <c r="AY229" s="74" t="s">
+        <v>1126</v>
       </c>
       <c r="AZ229" s="72"/>
       <c r="BA229" s="72"/>
@@ -56150,7 +56333,7 @@
         <v>0</v>
       </c>
       <c r="AY230" s="73" t="s">
-        <v>1074</v>
+        <v>1127</v>
       </c>
       <c r="AZ230" s="72"/>
       <c r="BA230" s="72"/>
@@ -56164,13 +56347,13 @@
     </row>
     <row r="231" ht="15.75">
       <c r="A231" s="68" t="s">
-        <v>1075</v>
+        <v>1128</v>
       </c>
       <c r="B231" s="69">
         <v>0</v>
       </c>
       <c r="C231" s="69" t="s">
-        <v>1075</v>
+        <v>1128</v>
       </c>
       <c r="D231" s="69">
         <v>0</v>
@@ -56182,7 +56365,7 @@
         <v>0</v>
       </c>
       <c r="G231" s="70" t="s">
-        <v>1075</v>
+        <v>1128</v>
       </c>
       <c r="H231" s="71" t="s">
         <v>105</v>
@@ -56339,7 +56522,7 @@
         <v>533</v>
       </c>
       <c r="H232" s="71" t="s">
-        <v>1076</v>
+        <v>1129</v>
       </c>
       <c r="I232" s="72" t="s">
         <v>180</v>
@@ -56458,7 +56641,7 @@
         <v>0</v>
       </c>
       <c r="AY232" s="73" t="s">
-        <v>1077</v>
+        <v>1130</v>
       </c>
       <c r="AZ232" s="72"/>
       <c r="BA232" s="72"/>
@@ -56626,7 +56809,7 @@
     </row>
     <row r="234" ht="15.75">
       <c r="A234" s="68" t="s">
-        <v>1078</v>
+        <v>1131</v>
       </c>
       <c r="B234" s="69">
         <v>0</v>
@@ -56635,7 +56818,7 @@
         <v>0</v>
       </c>
       <c r="D234" s="69" t="s">
-        <v>1078</v>
+        <v>1131</v>
       </c>
       <c r="E234" s="69">
         <v>0</v>
@@ -56644,12 +56827,12 @@
         <v>0</v>
       </c>
       <c r="G234" s="70" t="s">
-        <v>1078</v>
+        <v>1131</v>
       </c>
       <c r="H234" s="71" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I234" s="81" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I234" s="83" t="s">
         <v>137</v>
       </c>
       <c r="J234" s="72" t="s">
@@ -56664,7 +56847,7 @@
         <v>0</v>
       </c>
       <c r="O234" s="72" t="s">
-        <v>1080</v>
+        <v>1133</v>
       </c>
       <c r="P234" s="72">
         <v>0</v>
@@ -56801,13 +56984,13 @@
         <v>762</v>
       </c>
       <c r="H235" s="71" t="s">
-        <v>1081</v>
+        <v>1134</v>
       </c>
       <c r="I235" s="72" t="s">
         <v>36</v>
       </c>
       <c r="J235" s="72" t="s">
-        <v>1082</v>
+        <v>1135</v>
       </c>
       <c r="K235" s="72"/>
       <c r="L235" s="72"/>
@@ -57074,7 +57257,7 @@
         <v>0</v>
       </c>
       <c r="AY236" s="73" t="s">
-        <v>1083</v>
+        <v>1136</v>
       </c>
       <c r="AZ236" s="72"/>
       <c r="BA236" s="72"/>
@@ -57227,8 +57410,8 @@
       <c r="AX237" s="72">
         <v>0</v>
       </c>
-      <c r="AY237" s="72">
-        <v>0</v>
+      <c r="AY237" s="74" t="s">
+        <v>1137</v>
       </c>
       <c r="AZ237" s="72"/>
       <c r="BA237" s="72"/>
@@ -57263,13 +57446,13 @@
         <v>748</v>
       </c>
       <c r="H238" s="71" t="s">
-        <v>1084</v>
+        <v>1138</v>
       </c>
       <c r="I238" s="72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J238" s="72" t="s">
-        <v>1085</v>
+        <v>1139</v>
       </c>
       <c r="K238" s="72"/>
       <c r="L238" s="72"/>
@@ -57396,13 +57579,13 @@
     </row>
     <row r="239" ht="15.75">
       <c r="A239" s="68" t="s">
-        <v>1086</v>
+        <v>1140</v>
       </c>
       <c r="B239" s="69">
         <v>0</v>
       </c>
       <c r="C239" s="69" t="s">
-        <v>1086</v>
+        <v>1140</v>
       </c>
       <c r="D239" s="69">
         <v>0</v>
@@ -57414,13 +57597,13 @@
         <v>0</v>
       </c>
       <c r="G239" s="70" t="s">
-        <v>1086</v>
+        <v>1140</v>
       </c>
       <c r="H239" s="71" t="s">
-        <v>1087</v>
+        <v>1141</v>
       </c>
       <c r="I239" s="72" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J239" s="72" t="s">
         <v>130</v>
@@ -57433,7 +57616,7 @@
       <c r="N239" s="72">
         <v>0</v>
       </c>
-      <c r="O239" s="74" t="s">
+      <c r="O239" s="75" t="s">
         <v>509</v>
       </c>
       <c r="P239" s="72">
@@ -57843,8 +58026,8 @@
       <c r="AX241" s="72">
         <v>0</v>
       </c>
-      <c r="AY241" s="72">
-        <v>0</v>
+      <c r="AY241" s="74" t="s">
+        <v>1142</v>
       </c>
       <c r="AZ241" s="72"/>
       <c r="BA241" s="72"/>
@@ -57997,8 +58180,8 @@
       <c r="AX242" s="72">
         <v>0</v>
       </c>
-      <c r="AY242" s="72">
-        <v>0</v>
+      <c r="AY242" s="74" t="s">
+        <v>1143</v>
       </c>
       <c r="AZ242" s="72"/>
       <c r="BA242" s="72"/>
@@ -58049,7 +58232,7 @@
       <c r="N243" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="O243" s="79" t="s">
+      <c r="O243" s="81" t="s">
         <v>789</v>
       </c>
       <c r="P243" s="72" t="s">
@@ -58187,10 +58370,10 @@
         <v>272</v>
       </c>
       <c r="H244" s="71" t="s">
-        <v>1088</v>
+        <v>1144</v>
       </c>
       <c r="I244" s="72" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J244" s="72" t="s">
         <v>86</v>
@@ -58459,8 +58642,8 @@
       <c r="AX245" s="72">
         <v>0</v>
       </c>
-      <c r="AY245" s="72">
-        <v>0</v>
+      <c r="AY245" s="74" t="s">
+        <v>1145</v>
       </c>
       <c r="AZ245" s="72"/>
       <c r="BA245" s="72"/>
@@ -58511,7 +58694,7 @@
       <c r="N246" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="O246" s="79" t="s">
+      <c r="O246" s="81" t="s">
         <v>804</v>
       </c>
       <c r="P246" s="72" t="s">
@@ -58613,8 +58796,8 @@
       <c r="AX246" s="72">
         <v>0</v>
       </c>
-      <c r="AY246" s="72">
-        <v>0</v>
+      <c r="AY246" s="74" t="s">
+        <v>1146</v>
       </c>
       <c r="AZ246" s="72"/>
       <c r="BA246" s="72"/>
@@ -58767,8 +58950,8 @@
       <c r="AX247" s="72">
         <v>0</v>
       </c>
-      <c r="AY247" s="72">
-        <v>0</v>
+      <c r="AY247" s="74" t="s">
+        <v>1147</v>
       </c>
       <c r="AZ247" s="72"/>
       <c r="BA247" s="72"/>
@@ -60393,1915 +60576,1915 @@
       <c r="BH273" s="72"/>
     </row>
     <row r="274" ht="15.75">
-      <c r="A274" s="82"/>
+      <c r="A274" s="84"/>
       <c r="J274" s="45"/>
     </row>
     <row r="275" ht="15.75">
-      <c r="A275" s="82"/>
+      <c r="A275" s="84"/>
       <c r="J275" s="45"/>
     </row>
     <row r="276" ht="15.75">
-      <c r="A276" s="82"/>
+      <c r="A276" s="84"/>
       <c r="J276" s="45"/>
     </row>
     <row r="277" ht="15.75">
-      <c r="A277" s="82"/>
+      <c r="A277" s="84"/>
       <c r="J277" s="45"/>
     </row>
     <row r="278" ht="15.75">
-      <c r="A278" s="82"/>
+      <c r="A278" s="84"/>
       <c r="J278" s="45"/>
     </row>
     <row r="279" ht="15.75">
-      <c r="A279" s="82"/>
+      <c r="A279" s="84"/>
       <c r="J279" s="45"/>
     </row>
     <row r="280" ht="15.75">
-      <c r="A280" s="82"/>
+      <c r="A280" s="84"/>
       <c r="J280" s="45"/>
     </row>
     <row r="281" ht="15.75">
-      <c r="A281" s="82"/>
+      <c r="A281" s="84"/>
       <c r="J281" s="45"/>
     </row>
     <row r="282" ht="15.75">
-      <c r="A282" s="82"/>
+      <c r="A282" s="84"/>
       <c r="J282" s="45"/>
     </row>
     <row r="283" ht="15.75">
-      <c r="A283" s="82"/>
+      <c r="A283" s="84"/>
       <c r="J283" s="45"/>
     </row>
     <row r="284" ht="15.75">
-      <c r="A284" s="82"/>
+      <c r="A284" s="84"/>
       <c r="J284" s="45"/>
     </row>
     <row r="285" ht="15.75">
-      <c r="A285" s="82"/>
+      <c r="A285" s="84"/>
       <c r="J285" s="45"/>
     </row>
     <row r="286" ht="15.75">
-      <c r="A286" s="82"/>
+      <c r="A286" s="84"/>
       <c r="J286" s="45"/>
     </row>
     <row r="287" ht="15.75">
-      <c r="A287" s="82"/>
+      <c r="A287" s="84"/>
       <c r="J287" s="45"/>
     </row>
     <row r="288" ht="15.75">
-      <c r="A288" s="82"/>
+      <c r="A288" s="84"/>
       <c r="J288" s="45"/>
     </row>
     <row r="289" ht="15.75">
-      <c r="A289" s="82"/>
+      <c r="A289" s="84"/>
       <c r="J289" s="45"/>
     </row>
     <row r="290" ht="15.75">
-      <c r="A290" s="82"/>
+      <c r="A290" s="84"/>
       <c r="J290" s="45"/>
     </row>
     <row r="291" ht="15.75">
-      <c r="A291" s="82"/>
+      <c r="A291" s="84"/>
       <c r="J291" s="45"/>
     </row>
     <row r="292" ht="15.75">
-      <c r="A292" s="82"/>
+      <c r="A292" s="84"/>
       <c r="J292" s="45"/>
     </row>
     <row r="293" ht="15.75">
-      <c r="A293" s="82"/>
+      <c r="A293" s="84"/>
       <c r="J293" s="45"/>
     </row>
     <row r="294" ht="15.75">
-      <c r="A294" s="82"/>
+      <c r="A294" s="84"/>
       <c r="J294" s="45"/>
     </row>
     <row r="295" ht="15.75">
-      <c r="A295" s="82"/>
+      <c r="A295" s="84"/>
       <c r="J295" s="45"/>
     </row>
     <row r="296" ht="15.75">
-      <c r="A296" s="82"/>
+      <c r="A296" s="84"/>
       <c r="J296" s="45"/>
     </row>
     <row r="297" ht="15.75">
-      <c r="A297" s="82"/>
+      <c r="A297" s="84"/>
       <c r="J297" s="45"/>
     </row>
     <row r="298" ht="15.75">
-      <c r="A298" s="82"/>
+      <c r="A298" s="84"/>
       <c r="J298" s="45"/>
     </row>
     <row r="299" ht="15.75">
-      <c r="A299" s="82"/>
+      <c r="A299" s="84"/>
       <c r="J299" s="45"/>
     </row>
     <row r="300" ht="15.75">
-      <c r="A300" s="82"/>
+      <c r="A300" s="84"/>
       <c r="J300" s="45"/>
     </row>
     <row r="301" ht="15.75">
-      <c r="A301" s="82"/>
+      <c r="A301" s="84"/>
       <c r="J301" s="45"/>
     </row>
     <row r="302" ht="15.75">
-      <c r="A302" s="82"/>
+      <c r="A302" s="84"/>
       <c r="J302" s="45"/>
     </row>
     <row r="303" ht="15.75">
-      <c r="A303" s="82"/>
+      <c r="A303" s="84"/>
       <c r="J303" s="45"/>
     </row>
     <row r="304" ht="15.75">
-      <c r="A304" s="82"/>
+      <c r="A304" s="84"/>
       <c r="J304" s="45"/>
     </row>
     <row r="305" ht="15.75">
-      <c r="A305" s="82"/>
+      <c r="A305" s="84"/>
       <c r="J305" s="45"/>
     </row>
     <row r="306" ht="15.75">
-      <c r="A306" s="82"/>
+      <c r="A306" s="84"/>
       <c r="J306" s="45"/>
     </row>
     <row r="307" ht="15.75">
-      <c r="A307" s="82"/>
+      <c r="A307" s="84"/>
       <c r="J307" s="45"/>
     </row>
     <row r="308" ht="15.75">
-      <c r="A308" s="82"/>
+      <c r="A308" s="84"/>
       <c r="J308" s="45"/>
     </row>
     <row r="309" ht="15.75">
-      <c r="A309" s="82"/>
+      <c r="A309" s="84"/>
       <c r="J309" s="45"/>
     </row>
     <row r="310" ht="15.75">
-      <c r="A310" s="82"/>
+      <c r="A310" s="84"/>
       <c r="J310" s="45"/>
     </row>
     <row r="311" ht="15.75">
-      <c r="A311" s="82"/>
+      <c r="A311" s="84"/>
       <c r="J311" s="45"/>
     </row>
     <row r="312" ht="15.75">
-      <c r="A312" s="82"/>
+      <c r="A312" s="84"/>
       <c r="J312" s="45"/>
     </row>
     <row r="313" ht="15.75">
-      <c r="A313" s="82"/>
+      <c r="A313" s="84"/>
       <c r="J313" s="45"/>
     </row>
     <row r="314" ht="15.75">
-      <c r="A314" s="82"/>
+      <c r="A314" s="84"/>
       <c r="J314" s="45"/>
     </row>
     <row r="315" ht="15.75">
-      <c r="A315" s="82"/>
+      <c r="A315" s="84"/>
       <c r="J315" s="45"/>
     </row>
     <row r="316" ht="15.75">
-      <c r="A316" s="82"/>
+      <c r="A316" s="84"/>
       <c r="J316" s="45"/>
     </row>
     <row r="317" ht="15.75">
-      <c r="A317" s="82"/>
+      <c r="A317" s="84"/>
       <c r="J317" s="45"/>
     </row>
     <row r="318" ht="15.75">
-      <c r="A318" s="82"/>
+      <c r="A318" s="84"/>
       <c r="J318" s="45"/>
     </row>
     <row r="319" ht="15.75">
-      <c r="A319" s="82"/>
+      <c r="A319" s="84"/>
       <c r="J319" s="45"/>
     </row>
     <row r="320" ht="15.75">
-      <c r="A320" s="82"/>
+      <c r="A320" s="84"/>
       <c r="J320" s="45"/>
     </row>
     <row r="321" ht="15.75">
-      <c r="A321" s="82"/>
+      <c r="A321" s="84"/>
       <c r="J321" s="45"/>
     </row>
     <row r="322" ht="15.75">
-      <c r="A322" s="82"/>
+      <c r="A322" s="84"/>
       <c r="J322" s="45"/>
     </row>
     <row r="323" ht="15.75">
-      <c r="A323" s="82"/>
+      <c r="A323" s="84"/>
       <c r="J323" s="45"/>
     </row>
     <row r="324" ht="15.75">
-      <c r="A324" s="82"/>
+      <c r="A324" s="84"/>
       <c r="J324" s="45"/>
     </row>
     <row r="325" ht="15.75">
-      <c r="A325" s="82"/>
+      <c r="A325" s="84"/>
       <c r="J325" s="45"/>
     </row>
     <row r="326" ht="15.75">
-      <c r="A326" s="82"/>
+      <c r="A326" s="84"/>
       <c r="J326" s="45"/>
     </row>
     <row r="327" ht="15.75">
-      <c r="A327" s="82"/>
+      <c r="A327" s="84"/>
       <c r="J327" s="45"/>
     </row>
     <row r="328" ht="15.75">
-      <c r="A328" s="82"/>
+      <c r="A328" s="84"/>
       <c r="J328" s="45"/>
     </row>
     <row r="329" ht="15.75">
-      <c r="A329" s="82"/>
+      <c r="A329" s="84"/>
       <c r="J329" s="45"/>
     </row>
     <row r="330" ht="15.75">
-      <c r="A330" s="82"/>
+      <c r="A330" s="84"/>
       <c r="J330" s="45"/>
     </row>
     <row r="331" ht="15.75">
-      <c r="A331" s="82"/>
+      <c r="A331" s="84"/>
       <c r="J331" s="45"/>
     </row>
     <row r="332" ht="15.75">
-      <c r="A332" s="82"/>
+      <c r="A332" s="84"/>
       <c r="J332" s="45"/>
     </row>
     <row r="333" ht="15.75">
-      <c r="A333" s="82"/>
+      <c r="A333" s="84"/>
       <c r="J333" s="45"/>
     </row>
     <row r="334" ht="15.75">
-      <c r="A334" s="82"/>
+      <c r="A334" s="84"/>
       <c r="J334" s="45"/>
     </row>
     <row r="335" ht="15.75">
-      <c r="A335" s="82"/>
+      <c r="A335" s="84"/>
       <c r="J335" s="45"/>
     </row>
     <row r="336" ht="15.75">
-      <c r="A336" s="82"/>
+      <c r="A336" s="84"/>
       <c r="J336" s="45"/>
     </row>
     <row r="337" ht="15.75">
-      <c r="A337" s="82"/>
+      <c r="A337" s="84"/>
       <c r="J337" s="45"/>
     </row>
     <row r="338" ht="15.75">
-      <c r="A338" s="82"/>
+      <c r="A338" s="84"/>
       <c r="J338" s="45"/>
     </row>
     <row r="339" ht="15.75">
-      <c r="A339" s="82"/>
+      <c r="A339" s="84"/>
       <c r="J339" s="45"/>
     </row>
     <row r="340" ht="15.75">
-      <c r="A340" s="82"/>
+      <c r="A340" s="84"/>
       <c r="J340" s="45"/>
     </row>
     <row r="341" ht="15.75">
-      <c r="A341" s="82"/>
+      <c r="A341" s="84"/>
       <c r="J341" s="45"/>
     </row>
     <row r="342" ht="15.75">
-      <c r="A342" s="82"/>
+      <c r="A342" s="84"/>
       <c r="J342" s="45"/>
     </row>
     <row r="343" ht="15.75">
-      <c r="A343" s="82"/>
+      <c r="A343" s="84"/>
       <c r="J343" s="45"/>
     </row>
     <row r="344" ht="15.75">
-      <c r="A344" s="82"/>
+      <c r="A344" s="84"/>
       <c r="J344" s="45"/>
     </row>
     <row r="345" ht="15.75">
-      <c r="A345" s="82"/>
+      <c r="A345" s="84"/>
       <c r="J345" s="45"/>
     </row>
     <row r="346" ht="15.75">
-      <c r="A346" s="82"/>
+      <c r="A346" s="84"/>
       <c r="J346" s="45"/>
     </row>
     <row r="347" ht="15.75">
-      <c r="A347" s="82"/>
+      <c r="A347" s="84"/>
       <c r="J347" s="45"/>
     </row>
     <row r="348" ht="15.75">
-      <c r="A348" s="82"/>
+      <c r="A348" s="84"/>
       <c r="J348" s="45"/>
     </row>
     <row r="349" ht="15.75">
-      <c r="A349" s="82"/>
+      <c r="A349" s="84"/>
       <c r="J349" s="45"/>
     </row>
     <row r="350" ht="15.75">
-      <c r="A350" s="82"/>
+      <c r="A350" s="84"/>
       <c r="J350" s="45"/>
     </row>
     <row r="351" ht="15.75">
-      <c r="A351" s="82"/>
+      <c r="A351" s="84"/>
       <c r="J351" s="45"/>
     </row>
     <row r="352" ht="15.75">
-      <c r="A352" s="82"/>
+      <c r="A352" s="84"/>
       <c r="J352" s="45"/>
     </row>
     <row r="353" ht="15.75">
-      <c r="A353" s="82"/>
+      <c r="A353" s="84"/>
       <c r="J353" s="45"/>
     </row>
     <row r="354" ht="15.75">
-      <c r="A354" s="82"/>
+      <c r="A354" s="84"/>
       <c r="J354" s="45"/>
     </row>
     <row r="355" ht="15.75">
-      <c r="A355" s="82"/>
+      <c r="A355" s="84"/>
       <c r="J355" s="45"/>
     </row>
     <row r="356" ht="15.75">
-      <c r="A356" s="82"/>
+      <c r="A356" s="84"/>
       <c r="J356" s="45"/>
     </row>
     <row r="357" ht="15.75">
-      <c r="A357" s="82"/>
+      <c r="A357" s="84"/>
       <c r="J357" s="45"/>
     </row>
     <row r="358" ht="15.75">
-      <c r="A358" s="82"/>
+      <c r="A358" s="84"/>
       <c r="J358" s="45"/>
     </row>
     <row r="359" ht="15.75">
-      <c r="A359" s="82"/>
+      <c r="A359" s="84"/>
       <c r="J359" s="45"/>
     </row>
     <row r="360" ht="15.75">
-      <c r="A360" s="82"/>
+      <c r="A360" s="84"/>
       <c r="J360" s="45"/>
     </row>
     <row r="361" ht="15.75">
-      <c r="A361" s="82"/>
+      <c r="A361" s="84"/>
       <c r="J361" s="45"/>
     </row>
     <row r="362" ht="15.75">
-      <c r="A362" s="82"/>
+      <c r="A362" s="84"/>
       <c r="J362" s="45"/>
     </row>
     <row r="363" ht="15.75">
-      <c r="A363" s="82"/>
+      <c r="A363" s="84"/>
       <c r="J363" s="45"/>
     </row>
     <row r="364" ht="15.75">
-      <c r="A364" s="82"/>
+      <c r="A364" s="84"/>
       <c r="J364" s="45"/>
     </row>
     <row r="365" ht="15.75">
-      <c r="A365" s="82"/>
+      <c r="A365" s="84"/>
       <c r="J365" s="45"/>
     </row>
     <row r="366" ht="15.75">
-      <c r="A366" s="82"/>
+      <c r="A366" s="84"/>
       <c r="J366" s="45"/>
     </row>
     <row r="367" ht="15.75">
-      <c r="A367" s="82"/>
+      <c r="A367" s="84"/>
       <c r="J367" s="45"/>
     </row>
     <row r="368" ht="15.75">
-      <c r="A368" s="82"/>
+      <c r="A368" s="84"/>
       <c r="J368" s="45"/>
     </row>
     <row r="369" ht="15.75">
-      <c r="A369" s="82"/>
+      <c r="A369" s="84"/>
       <c r="J369" s="45"/>
     </row>
     <row r="370" ht="15.75">
-      <c r="A370" s="82"/>
+      <c r="A370" s="84"/>
       <c r="J370" s="45"/>
     </row>
     <row r="371" ht="15.75">
-      <c r="A371" s="82"/>
+      <c r="A371" s="84"/>
       <c r="J371" s="45"/>
     </row>
     <row r="372" ht="15.75">
-      <c r="A372" s="82"/>
+      <c r="A372" s="84"/>
       <c r="J372" s="45"/>
     </row>
     <row r="373" ht="15.75">
-      <c r="A373" s="82"/>
+      <c r="A373" s="84"/>
       <c r="J373" s="45"/>
     </row>
     <row r="374" ht="15.75">
-      <c r="A374" s="82"/>
+      <c r="A374" s="84"/>
       <c r="J374" s="45"/>
     </row>
     <row r="375" ht="15.75">
-      <c r="A375" s="82"/>
+      <c r="A375" s="84"/>
       <c r="J375" s="45"/>
     </row>
     <row r="376" ht="15.75">
-      <c r="A376" s="82"/>
+      <c r="A376" s="84"/>
       <c r="J376" s="45"/>
     </row>
     <row r="377" ht="15.75">
-      <c r="A377" s="82"/>
+      <c r="A377" s="84"/>
       <c r="J377" s="45"/>
     </row>
     <row r="378" ht="15.75">
-      <c r="A378" s="82"/>
+      <c r="A378" s="84"/>
       <c r="J378" s="45"/>
     </row>
     <row r="379" ht="15.75">
-      <c r="A379" s="82"/>
+      <c r="A379" s="84"/>
       <c r="J379" s="45"/>
     </row>
     <row r="380" ht="15.75">
-      <c r="A380" s="82"/>
+      <c r="A380" s="84"/>
       <c r="J380" s="45"/>
     </row>
     <row r="381" ht="15.75">
-      <c r="A381" s="82"/>
+      <c r="A381" s="84"/>
       <c r="J381" s="45"/>
     </row>
     <row r="382" ht="15.75">
-      <c r="A382" s="82"/>
+      <c r="A382" s="84"/>
       <c r="J382" s="45"/>
     </row>
     <row r="383" ht="15.75">
-      <c r="A383" s="82"/>
+      <c r="A383" s="84"/>
       <c r="J383" s="45"/>
     </row>
     <row r="384" ht="15.75">
-      <c r="A384" s="82"/>
+      <c r="A384" s="84"/>
       <c r="J384" s="45"/>
     </row>
     <row r="385" ht="15.75">
-      <c r="A385" s="82"/>
+      <c r="A385" s="84"/>
       <c r="J385" s="45"/>
     </row>
     <row r="386" ht="15.75">
-      <c r="A386" s="82"/>
+      <c r="A386" s="84"/>
       <c r="J386" s="45"/>
     </row>
     <row r="387" ht="15.75">
-      <c r="A387" s="82"/>
+      <c r="A387" s="84"/>
       <c r="J387" s="45"/>
     </row>
     <row r="388" ht="15.75">
-      <c r="A388" s="82"/>
+      <c r="A388" s="84"/>
       <c r="J388" s="45"/>
     </row>
     <row r="389" ht="15.75">
-      <c r="A389" s="82"/>
+      <c r="A389" s="84"/>
       <c r="J389" s="45"/>
     </row>
     <row r="390" ht="15.75">
-      <c r="A390" s="82"/>
+      <c r="A390" s="84"/>
       <c r="J390" s="45"/>
     </row>
     <row r="391" ht="15.75">
-      <c r="A391" s="82"/>
+      <c r="A391" s="84"/>
       <c r="J391" s="45"/>
     </row>
     <row r="392" ht="15.75">
-      <c r="A392" s="82"/>
+      <c r="A392" s="84"/>
       <c r="J392" s="45"/>
     </row>
     <row r="393" ht="15.75">
-      <c r="A393" s="82"/>
+      <c r="A393" s="84"/>
       <c r="J393" s="45"/>
     </row>
     <row r="394" ht="15.75">
-      <c r="A394" s="82"/>
+      <c r="A394" s="84"/>
       <c r="J394" s="45"/>
     </row>
     <row r="395" ht="15.75">
-      <c r="A395" s="82"/>
+      <c r="A395" s="84"/>
       <c r="J395" s="45"/>
     </row>
     <row r="396" ht="15.75">
-      <c r="A396" s="82"/>
+      <c r="A396" s="84"/>
       <c r="J396" s="45"/>
     </row>
     <row r="397" ht="15.75">
-      <c r="A397" s="82"/>
+      <c r="A397" s="84"/>
       <c r="J397" s="45"/>
     </row>
     <row r="398" ht="15.75">
-      <c r="A398" s="82"/>
+      <c r="A398" s="84"/>
       <c r="J398" s="45"/>
     </row>
     <row r="399" ht="15.75">
-      <c r="A399" s="82"/>
+      <c r="A399" s="84"/>
       <c r="J399" s="45"/>
     </row>
     <row r="400" ht="15.75">
-      <c r="A400" s="82"/>
+      <c r="A400" s="84"/>
       <c r="J400" s="45"/>
     </row>
     <row r="401" ht="15.75">
-      <c r="A401" s="82"/>
+      <c r="A401" s="84"/>
       <c r="J401" s="45"/>
     </row>
     <row r="402" ht="15.75">
-      <c r="A402" s="82"/>
+      <c r="A402" s="84"/>
       <c r="J402" s="45"/>
     </row>
     <row r="403" ht="15.75">
-      <c r="A403" s="82"/>
+      <c r="A403" s="84"/>
       <c r="J403" s="45"/>
     </row>
     <row r="404" ht="15.75">
-      <c r="A404" s="82"/>
+      <c r="A404" s="84"/>
       <c r="J404" s="45"/>
     </row>
     <row r="405" ht="15.75">
-      <c r="A405" s="82"/>
+      <c r="A405" s="84"/>
       <c r="J405" s="45"/>
     </row>
     <row r="406" ht="15.75">
-      <c r="A406" s="82"/>
+      <c r="A406" s="84"/>
       <c r="J406" s="45"/>
     </row>
     <row r="407" ht="15.75">
-      <c r="A407" s="82"/>
+      <c r="A407" s="84"/>
       <c r="J407" s="45"/>
     </row>
     <row r="408" ht="15.75">
-      <c r="A408" s="82"/>
+      <c r="A408" s="84"/>
       <c r="J408" s="45"/>
     </row>
     <row r="409" ht="15.75">
-      <c r="A409" s="82"/>
+      <c r="A409" s="84"/>
       <c r="J409" s="45"/>
     </row>
     <row r="410" ht="15.75">
-      <c r="A410" s="82"/>
+      <c r="A410" s="84"/>
       <c r="J410" s="45"/>
     </row>
     <row r="411" ht="15.75">
-      <c r="A411" s="82"/>
+      <c r="A411" s="84"/>
       <c r="J411" s="45"/>
     </row>
     <row r="412" ht="15.75">
-      <c r="A412" s="82"/>
+      <c r="A412" s="84"/>
       <c r="J412" s="45"/>
     </row>
     <row r="413" ht="15.75">
-      <c r="A413" s="82"/>
+      <c r="A413" s="84"/>
       <c r="J413" s="45"/>
     </row>
     <row r="414" ht="15.75">
-      <c r="A414" s="82"/>
+      <c r="A414" s="84"/>
       <c r="J414" s="45"/>
     </row>
     <row r="415" ht="15.75">
-      <c r="A415" s="82"/>
+      <c r="A415" s="84"/>
       <c r="J415" s="45"/>
     </row>
     <row r="416" ht="15.75">
-      <c r="A416" s="82"/>
+      <c r="A416" s="84"/>
       <c r="J416" s="45"/>
     </row>
     <row r="417" ht="15.75">
-      <c r="A417" s="82"/>
+      <c r="A417" s="84"/>
       <c r="J417" s="45"/>
     </row>
     <row r="418" ht="15.75">
-      <c r="A418" s="82"/>
+      <c r="A418" s="84"/>
       <c r="J418" s="45"/>
     </row>
     <row r="419" ht="15.75">
-      <c r="A419" s="82"/>
+      <c r="A419" s="84"/>
       <c r="J419" s="45"/>
     </row>
     <row r="420" ht="15.75">
-      <c r="A420" s="82"/>
+      <c r="A420" s="84"/>
       <c r="J420" s="45"/>
     </row>
     <row r="421" ht="15.75">
-      <c r="A421" s="82"/>
+      <c r="A421" s="84"/>
       <c r="J421" s="45"/>
     </row>
     <row r="422" ht="15.75">
-      <c r="A422" s="82"/>
+      <c r="A422" s="84"/>
       <c r="J422" s="45"/>
     </row>
     <row r="423" ht="15.75">
-      <c r="A423" s="82"/>
+      <c r="A423" s="84"/>
       <c r="J423" s="45"/>
     </row>
     <row r="424" ht="15.75">
-      <c r="A424" s="82"/>
+      <c r="A424" s="84"/>
       <c r="J424" s="45"/>
     </row>
     <row r="425" ht="15.75">
-      <c r="A425" s="82"/>
+      <c r="A425" s="84"/>
       <c r="J425" s="45"/>
     </row>
     <row r="426" ht="15.75">
-      <c r="A426" s="82"/>
+      <c r="A426" s="84"/>
       <c r="J426" s="45"/>
     </row>
     <row r="427" ht="15.75">
-      <c r="A427" s="82"/>
+      <c r="A427" s="84"/>
       <c r="J427" s="45"/>
     </row>
     <row r="428" ht="15.75">
-      <c r="A428" s="82"/>
+      <c r="A428" s="84"/>
       <c r="J428" s="45"/>
     </row>
     <row r="429" ht="15.75">
-      <c r="A429" s="82"/>
+      <c r="A429" s="84"/>
       <c r="J429" s="45"/>
     </row>
     <row r="430" ht="15.75">
-      <c r="A430" s="82"/>
+      <c r="A430" s="84"/>
       <c r="J430" s="45"/>
     </row>
     <row r="431" ht="15.75">
-      <c r="A431" s="82"/>
+      <c r="A431" s="84"/>
       <c r="J431" s="45"/>
     </row>
     <row r="432" ht="15.75">
-      <c r="A432" s="82"/>
+      <c r="A432" s="84"/>
       <c r="J432" s="45"/>
     </row>
     <row r="433" ht="15.75">
-      <c r="A433" s="82"/>
+      <c r="A433" s="84"/>
       <c r="J433" s="45"/>
     </row>
     <row r="434" ht="15.75">
-      <c r="A434" s="82"/>
+      <c r="A434" s="84"/>
       <c r="J434" s="45"/>
     </row>
     <row r="435" ht="15.75">
-      <c r="A435" s="82"/>
+      <c r="A435" s="84"/>
       <c r="J435" s="45"/>
     </row>
     <row r="436" ht="15.75">
-      <c r="A436" s="82"/>
+      <c r="A436" s="84"/>
       <c r="J436" s="45"/>
     </row>
     <row r="437" ht="15.75">
-      <c r="A437" s="82"/>
+      <c r="A437" s="84"/>
       <c r="J437" s="45"/>
     </row>
     <row r="438" ht="15.75">
-      <c r="A438" s="82"/>
+      <c r="A438" s="84"/>
       <c r="J438" s="45"/>
     </row>
     <row r="439" ht="15.75">
-      <c r="A439" s="82"/>
+      <c r="A439" s="84"/>
       <c r="J439" s="45"/>
     </row>
     <row r="440" ht="15.75">
-      <c r="A440" s="82"/>
+      <c r="A440" s="84"/>
       <c r="J440" s="45"/>
     </row>
     <row r="441" ht="15.75">
-      <c r="A441" s="82"/>
+      <c r="A441" s="84"/>
       <c r="J441" s="45"/>
     </row>
     <row r="442" ht="15.75">
-      <c r="A442" s="82"/>
+      <c r="A442" s="84"/>
       <c r="J442" s="45"/>
     </row>
     <row r="443" ht="15.75">
-      <c r="A443" s="82"/>
+      <c r="A443" s="84"/>
       <c r="J443" s="45"/>
     </row>
     <row r="444" ht="15.75">
-      <c r="A444" s="82"/>
+      <c r="A444" s="84"/>
       <c r="J444" s="45"/>
     </row>
     <row r="445" ht="15.75">
-      <c r="A445" s="82"/>
+      <c r="A445" s="84"/>
       <c r="J445" s="45"/>
     </row>
     <row r="446" ht="15.75">
-      <c r="A446" s="82"/>
+      <c r="A446" s="84"/>
       <c r="J446" s="45"/>
     </row>
     <row r="447" ht="15.75">
-      <c r="A447" s="82"/>
+      <c r="A447" s="84"/>
       <c r="J447" s="45"/>
     </row>
     <row r="448" ht="15.75">
-      <c r="A448" s="82"/>
+      <c r="A448" s="84"/>
       <c r="J448" s="45"/>
     </row>
     <row r="449" ht="15.75">
-      <c r="A449" s="82"/>
+      <c r="A449" s="84"/>
       <c r="J449" s="45"/>
     </row>
     <row r="450" ht="15.75">
-      <c r="A450" s="82"/>
+      <c r="A450" s="84"/>
       <c r="J450" s="45"/>
     </row>
     <row r="451" ht="15.75">
-      <c r="A451" s="82"/>
+      <c r="A451" s="84"/>
       <c r="J451" s="45"/>
     </row>
     <row r="452" ht="15.75">
-      <c r="A452" s="82"/>
+      <c r="A452" s="84"/>
       <c r="J452" s="45"/>
     </row>
     <row r="453" ht="15.75">
-      <c r="A453" s="82"/>
+      <c r="A453" s="84"/>
       <c r="J453" s="45"/>
     </row>
     <row r="454" ht="15.75">
-      <c r="A454" s="82"/>
+      <c r="A454" s="84"/>
       <c r="J454" s="45"/>
     </row>
     <row r="455" ht="15.75">
-      <c r="A455" s="82"/>
+      <c r="A455" s="84"/>
       <c r="J455" s="45"/>
     </row>
     <row r="456" ht="15.75">
-      <c r="A456" s="82"/>
+      <c r="A456" s="84"/>
       <c r="J456" s="45"/>
     </row>
     <row r="457" ht="15.75">
-      <c r="A457" s="82"/>
+      <c r="A457" s="84"/>
       <c r="J457" s="45"/>
     </row>
     <row r="458" ht="15.75">
-      <c r="A458" s="82"/>
+      <c r="A458" s="84"/>
       <c r="J458" s="45"/>
     </row>
     <row r="459" ht="15.75">
-      <c r="A459" s="82"/>
+      <c r="A459" s="84"/>
       <c r="J459" s="45"/>
     </row>
     <row r="460" ht="15.75">
-      <c r="A460" s="82"/>
+      <c r="A460" s="84"/>
       <c r="J460" s="45"/>
     </row>
     <row r="461" ht="15.75">
-      <c r="A461" s="82"/>
+      <c r="A461" s="84"/>
       <c r="J461" s="45"/>
     </row>
     <row r="462" ht="15.75">
-      <c r="A462" s="82"/>
+      <c r="A462" s="84"/>
       <c r="J462" s="45"/>
     </row>
     <row r="463" ht="15.75">
-      <c r="A463" s="82"/>
+      <c r="A463" s="84"/>
       <c r="J463" s="45"/>
     </row>
     <row r="464" ht="15.75">
-      <c r="A464" s="82"/>
+      <c r="A464" s="84"/>
       <c r="J464" s="45"/>
     </row>
     <row r="465" ht="15.75">
-      <c r="A465" s="82"/>
+      <c r="A465" s="84"/>
       <c r="J465" s="45"/>
     </row>
     <row r="466" ht="15.75">
-      <c r="A466" s="82"/>
+      <c r="A466" s="84"/>
       <c r="J466" s="45"/>
     </row>
     <row r="467" ht="15.75">
-      <c r="A467" s="82"/>
+      <c r="A467" s="84"/>
       <c r="J467" s="45"/>
     </row>
     <row r="468" ht="15.75">
-      <c r="A468" s="82"/>
+      <c r="A468" s="84"/>
       <c r="J468" s="45"/>
     </row>
     <row r="469" ht="15.75">
-      <c r="A469" s="82"/>
+      <c r="A469" s="84"/>
       <c r="J469" s="45"/>
     </row>
     <row r="470" ht="15.75">
-      <c r="A470" s="82"/>
+      <c r="A470" s="84"/>
       <c r="J470" s="45"/>
     </row>
     <row r="471" ht="15.75">
-      <c r="A471" s="82"/>
+      <c r="A471" s="84"/>
       <c r="J471" s="45"/>
     </row>
     <row r="472" ht="15.75">
-      <c r="A472" s="82"/>
+      <c r="A472" s="84"/>
       <c r="J472" s="45"/>
     </row>
     <row r="473" ht="15.75">
-      <c r="A473" s="82"/>
+      <c r="A473" s="84"/>
       <c r="J473" s="45"/>
     </row>
     <row r="474" ht="15.75">
-      <c r="A474" s="82"/>
+      <c r="A474" s="84"/>
       <c r="J474" s="45"/>
     </row>
     <row r="475" ht="15.75">
-      <c r="A475" s="82"/>
+      <c r="A475" s="84"/>
       <c r="J475" s="45"/>
     </row>
     <row r="476" ht="15.75">
-      <c r="A476" s="82"/>
+      <c r="A476" s="84"/>
       <c r="J476" s="45"/>
     </row>
     <row r="477" ht="15.75">
-      <c r="A477" s="82"/>
+      <c r="A477" s="84"/>
       <c r="J477" s="45"/>
     </row>
     <row r="478" ht="15.75">
-      <c r="A478" s="82"/>
+      <c r="A478" s="84"/>
       <c r="J478" s="45"/>
     </row>
     <row r="479" ht="15.75">
-      <c r="A479" s="82"/>
+      <c r="A479" s="84"/>
       <c r="J479" s="45"/>
     </row>
     <row r="480" ht="15.75">
-      <c r="A480" s="82"/>
+      <c r="A480" s="84"/>
       <c r="J480" s="45"/>
     </row>
     <row r="481" ht="15.75">
-      <c r="A481" s="82"/>
+      <c r="A481" s="84"/>
       <c r="J481" s="45"/>
     </row>
     <row r="482" ht="15.75">
-      <c r="A482" s="82"/>
+      <c r="A482" s="84"/>
       <c r="J482" s="45"/>
     </row>
     <row r="483" ht="15.75">
-      <c r="A483" s="82"/>
+      <c r="A483" s="84"/>
       <c r="J483" s="45"/>
     </row>
     <row r="484" ht="15.75">
-      <c r="A484" s="82"/>
+      <c r="A484" s="84"/>
       <c r="J484" s="45"/>
     </row>
     <row r="485" ht="15.75">
-      <c r="A485" s="82"/>
+      <c r="A485" s="84"/>
       <c r="J485" s="45"/>
     </row>
     <row r="486" ht="15.75">
-      <c r="A486" s="82"/>
+      <c r="A486" s="84"/>
       <c r="J486" s="45"/>
     </row>
     <row r="487" ht="15.75">
-      <c r="A487" s="82"/>
+      <c r="A487" s="84"/>
       <c r="J487" s="45"/>
     </row>
     <row r="488" ht="15.75">
-      <c r="A488" s="82"/>
+      <c r="A488" s="84"/>
       <c r="J488" s="45"/>
     </row>
     <row r="489" ht="15.75">
-      <c r="A489" s="82"/>
+      <c r="A489" s="84"/>
       <c r="J489" s="45"/>
     </row>
     <row r="490" ht="15.75">
-      <c r="A490" s="82"/>
+      <c r="A490" s="84"/>
       <c r="J490" s="45"/>
     </row>
     <row r="491" ht="15.75">
-      <c r="A491" s="82"/>
+      <c r="A491" s="84"/>
       <c r="J491" s="45"/>
     </row>
     <row r="492" ht="15.75">
-      <c r="A492" s="82"/>
+      <c r="A492" s="84"/>
       <c r="J492" s="45"/>
     </row>
     <row r="493" ht="15.75">
-      <c r="A493" s="82"/>
+      <c r="A493" s="84"/>
       <c r="J493" s="45"/>
     </row>
     <row r="494" ht="15.75">
-      <c r="A494" s="82"/>
+      <c r="A494" s="84"/>
       <c r="J494" s="45"/>
     </row>
     <row r="495" ht="15.75">
-      <c r="A495" s="82"/>
+      <c r="A495" s="84"/>
       <c r="J495" s="45"/>
     </row>
     <row r="496" ht="15.75">
-      <c r="A496" s="82"/>
+      <c r="A496" s="84"/>
       <c r="J496" s="45"/>
     </row>
     <row r="497" ht="15.75">
-      <c r="A497" s="82"/>
+      <c r="A497" s="84"/>
       <c r="J497" s="45"/>
     </row>
     <row r="498" ht="15.75">
-      <c r="A498" s="82"/>
+      <c r="A498" s="84"/>
       <c r="J498" s="45"/>
     </row>
     <row r="499" ht="15.75">
-      <c r="A499" s="82"/>
+      <c r="A499" s="84"/>
       <c r="J499" s="45"/>
     </row>
     <row r="500" ht="15.75">
-      <c r="A500" s="82"/>
+      <c r="A500" s="84"/>
       <c r="J500" s="45"/>
     </row>
     <row r="501" ht="15.75">
-      <c r="A501" s="82"/>
+      <c r="A501" s="84"/>
       <c r="J501" s="45"/>
     </row>
     <row r="502" ht="15.75">
-      <c r="A502" s="82"/>
+      <c r="A502" s="84"/>
       <c r="J502" s="45"/>
     </row>
     <row r="503" ht="15.75">
-      <c r="A503" s="82"/>
+      <c r="A503" s="84"/>
       <c r="J503" s="45"/>
     </row>
     <row r="504" ht="15.75">
-      <c r="A504" s="82"/>
+      <c r="A504" s="84"/>
       <c r="J504" s="45"/>
     </row>
     <row r="505" ht="15.75">
-      <c r="A505" s="82"/>
+      <c r="A505" s="84"/>
       <c r="J505" s="45"/>
     </row>
     <row r="506" ht="15.75">
-      <c r="A506" s="82"/>
+      <c r="A506" s="84"/>
       <c r="J506" s="45"/>
     </row>
     <row r="507" ht="15.75">
-      <c r="A507" s="82"/>
+      <c r="A507" s="84"/>
       <c r="J507" s="45"/>
     </row>
     <row r="508" ht="15.75">
-      <c r="A508" s="82"/>
+      <c r="A508" s="84"/>
       <c r="J508" s="45"/>
     </row>
     <row r="509" ht="15.75">
-      <c r="A509" s="82"/>
+      <c r="A509" s="84"/>
       <c r="J509" s="45"/>
     </row>
     <row r="510" ht="15.75">
-      <c r="A510" s="82"/>
+      <c r="A510" s="84"/>
       <c r="J510" s="45"/>
     </row>
     <row r="511" ht="15.75">
-      <c r="A511" s="82"/>
+      <c r="A511" s="84"/>
       <c r="J511" s="45"/>
     </row>
     <row r="512" ht="15.75">
-      <c r="A512" s="82"/>
+      <c r="A512" s="84"/>
       <c r="J512" s="45"/>
     </row>
     <row r="513" ht="15.75">
-      <c r="A513" s="82"/>
+      <c r="A513" s="84"/>
       <c r="J513" s="45"/>
     </row>
     <row r="514" ht="15.75">
-      <c r="A514" s="82"/>
+      <c r="A514" s="84"/>
       <c r="J514" s="45"/>
     </row>
     <row r="515" ht="15.75">
-      <c r="A515" s="82"/>
+      <c r="A515" s="84"/>
       <c r="J515" s="45"/>
     </row>
     <row r="516" ht="15.75">
-      <c r="A516" s="82"/>
+      <c r="A516" s="84"/>
       <c r="J516" s="45"/>
     </row>
     <row r="517" ht="15.75">
-      <c r="A517" s="82"/>
+      <c r="A517" s="84"/>
       <c r="J517" s="45"/>
     </row>
     <row r="518" ht="15.75">
-      <c r="A518" s="82"/>
+      <c r="A518" s="84"/>
       <c r="J518" s="45"/>
     </row>
     <row r="519" ht="15.75">
-      <c r="A519" s="82"/>
+      <c r="A519" s="84"/>
       <c r="J519" s="45"/>
     </row>
     <row r="520" ht="15.75">
-      <c r="A520" s="82"/>
+      <c r="A520" s="84"/>
       <c r="J520" s="45"/>
     </row>
     <row r="521" ht="15.75">
-      <c r="A521" s="82"/>
+      <c r="A521" s="84"/>
       <c r="J521" s="45"/>
     </row>
     <row r="522" ht="15.75">
-      <c r="A522" s="82"/>
+      <c r="A522" s="84"/>
       <c r="J522" s="45"/>
     </row>
     <row r="523" ht="15.75">
-      <c r="A523" s="82"/>
+      <c r="A523" s="84"/>
       <c r="J523" s="45"/>
     </row>
     <row r="524" ht="15.75">
-      <c r="A524" s="82"/>
+      <c r="A524" s="84"/>
       <c r="J524" s="45"/>
     </row>
     <row r="525" ht="15.75">
-      <c r="A525" s="82"/>
+      <c r="A525" s="84"/>
       <c r="J525" s="45"/>
     </row>
     <row r="526" ht="15.75">
-      <c r="A526" s="82"/>
+      <c r="A526" s="84"/>
       <c r="J526" s="45"/>
     </row>
     <row r="527" ht="15.75">
-      <c r="A527" s="82"/>
+      <c r="A527" s="84"/>
       <c r="J527" s="45"/>
     </row>
     <row r="528" ht="15.75">
-      <c r="A528" s="82"/>
+      <c r="A528" s="84"/>
       <c r="J528" s="45"/>
     </row>
     <row r="529" ht="15.75">
-      <c r="A529" s="82"/>
+      <c r="A529" s="84"/>
       <c r="J529" s="45"/>
     </row>
     <row r="530" ht="15.75">
-      <c r="A530" s="82"/>
+      <c r="A530" s="84"/>
       <c r="J530" s="45"/>
     </row>
     <row r="531" ht="15.75">
-      <c r="A531" s="82"/>
+      <c r="A531" s="84"/>
       <c r="J531" s="45"/>
     </row>
     <row r="532" ht="15.75">
-      <c r="A532" s="82"/>
+      <c r="A532" s="84"/>
       <c r="J532" s="45"/>
     </row>
     <row r="533" ht="15.75">
-      <c r="A533" s="82"/>
+      <c r="A533" s="84"/>
       <c r="J533" s="45"/>
     </row>
     <row r="534" ht="15.75">
-      <c r="A534" s="82"/>
+      <c r="A534" s="84"/>
       <c r="J534" s="45"/>
     </row>
     <row r="535" ht="15.75">
-      <c r="A535" s="82"/>
+      <c r="A535" s="84"/>
       <c r="J535" s="45"/>
     </row>
     <row r="536" ht="15.75">
-      <c r="A536" s="82"/>
+      <c r="A536" s="84"/>
       <c r="J536" s="45"/>
     </row>
     <row r="537" ht="15.75">
-      <c r="A537" s="82"/>
+      <c r="A537" s="84"/>
       <c r="J537" s="45"/>
     </row>
     <row r="538" ht="15.75">
-      <c r="A538" s="82"/>
+      <c r="A538" s="84"/>
       <c r="J538" s="45"/>
     </row>
     <row r="539" ht="15.75">
-      <c r="A539" s="82"/>
+      <c r="A539" s="84"/>
       <c r="J539" s="45"/>
     </row>
     <row r="540" ht="15.75">
-      <c r="A540" s="82"/>
+      <c r="A540" s="84"/>
       <c r="J540" s="45"/>
     </row>
     <row r="541" ht="15.75">
-      <c r="A541" s="82"/>
+      <c r="A541" s="84"/>
       <c r="J541" s="45"/>
     </row>
     <row r="542" ht="15.75">
-      <c r="A542" s="82"/>
+      <c r="A542" s="84"/>
       <c r="J542" s="45"/>
     </row>
     <row r="543" ht="15.75">
-      <c r="A543" s="82"/>
+      <c r="A543" s="84"/>
       <c r="J543" s="45"/>
     </row>
     <row r="544" ht="15.75">
-      <c r="A544" s="82"/>
+      <c r="A544" s="84"/>
       <c r="J544" s="45"/>
     </row>
     <row r="545" ht="15.75">
-      <c r="A545" s="82"/>
+      <c r="A545" s="84"/>
       <c r="J545" s="45"/>
     </row>
     <row r="546" ht="15.75">
-      <c r="A546" s="82"/>
+      <c r="A546" s="84"/>
       <c r="J546" s="45"/>
     </row>
     <row r="547" ht="15.75">
-      <c r="A547" s="82"/>
+      <c r="A547" s="84"/>
       <c r="J547" s="45"/>
     </row>
     <row r="548" ht="15.75">
-      <c r="A548" s="82"/>
+      <c r="A548" s="84"/>
       <c r="J548" s="45"/>
     </row>
     <row r="549" ht="15.75">
-      <c r="A549" s="82"/>
+      <c r="A549" s="84"/>
       <c r="J549" s="45"/>
     </row>
     <row r="550" ht="15.75">
-      <c r="A550" s="82"/>
+      <c r="A550" s="84"/>
       <c r="J550" s="45"/>
     </row>
     <row r="551" ht="15.75">
-      <c r="A551" s="82"/>
+      <c r="A551" s="84"/>
       <c r="J551" s="45"/>
     </row>
     <row r="552" ht="15.75">
-      <c r="A552" s="82"/>
+      <c r="A552" s="84"/>
       <c r="J552" s="45"/>
     </row>
     <row r="553" ht="15.75">
-      <c r="A553" s="82"/>
+      <c r="A553" s="84"/>
       <c r="J553" s="45"/>
     </row>
     <row r="554" ht="15.75">
-      <c r="A554" s="82"/>
+      <c r="A554" s="84"/>
       <c r="J554" s="45"/>
     </row>
     <row r="555" ht="15.75">
-      <c r="A555" s="82"/>
+      <c r="A555" s="84"/>
       <c r="J555" s="45"/>
     </row>
     <row r="556" ht="15.75">
-      <c r="A556" s="82"/>
+      <c r="A556" s="84"/>
       <c r="J556" s="45"/>
     </row>
     <row r="557" ht="15.75">
-      <c r="A557" s="82"/>
+      <c r="A557" s="84"/>
       <c r="J557" s="45"/>
     </row>
     <row r="558" ht="15.75">
-      <c r="A558" s="82"/>
+      <c r="A558" s="84"/>
       <c r="J558" s="45"/>
     </row>
     <row r="559" ht="15.75">
-      <c r="A559" s="82"/>
+      <c r="A559" s="84"/>
       <c r="J559" s="45"/>
     </row>
     <row r="560" ht="15.75">
-      <c r="A560" s="82"/>
+      <c r="A560" s="84"/>
       <c r="J560" s="45"/>
     </row>
     <row r="561" ht="15.75">
-      <c r="A561" s="82"/>
+      <c r="A561" s="84"/>
       <c r="J561" s="45"/>
     </row>
     <row r="562" ht="15.75">
-      <c r="A562" s="82"/>
+      <c r="A562" s="84"/>
       <c r="J562" s="45"/>
     </row>
     <row r="563" ht="15.75">
-      <c r="A563" s="82"/>
+      <c r="A563" s="84"/>
       <c r="J563" s="45"/>
     </row>
     <row r="564" ht="15.75">
-      <c r="A564" s="82"/>
+      <c r="A564" s="84"/>
       <c r="J564" s="45"/>
     </row>
     <row r="565" ht="15.75">
-      <c r="A565" s="82"/>
+      <c r="A565" s="84"/>
       <c r="J565" s="45"/>
     </row>
     <row r="566" ht="15.75">
-      <c r="A566" s="82"/>
+      <c r="A566" s="84"/>
       <c r="J566" s="45"/>
     </row>
     <row r="567" ht="15.75">
-      <c r="A567" s="82"/>
+      <c r="A567" s="84"/>
       <c r="J567" s="45"/>
     </row>
     <row r="568" ht="15.75">
-      <c r="A568" s="82"/>
+      <c r="A568" s="84"/>
       <c r="J568" s="45"/>
     </row>
     <row r="569" ht="15.75">
-      <c r="A569" s="82"/>
+      <c r="A569" s="84"/>
       <c r="J569" s="45"/>
     </row>
     <row r="570" ht="15.75">
-      <c r="A570" s="82"/>
+      <c r="A570" s="84"/>
       <c r="J570" s="45"/>
     </row>
     <row r="571" ht="15.75">
-      <c r="A571" s="82"/>
+      <c r="A571" s="84"/>
       <c r="J571" s="45"/>
     </row>
     <row r="572" ht="15.75">
-      <c r="A572" s="82"/>
+      <c r="A572" s="84"/>
       <c r="J572" s="45"/>
     </row>
     <row r="573" ht="15.75">
-      <c r="A573" s="82"/>
+      <c r="A573" s="84"/>
       <c r="J573" s="45"/>
     </row>
     <row r="574" ht="15.75">
-      <c r="A574" s="82"/>
+      <c r="A574" s="84"/>
       <c r="J574" s="45"/>
     </row>
     <row r="575" ht="15.75">
-      <c r="A575" s="82"/>
+      <c r="A575" s="84"/>
       <c r="J575" s="45"/>
     </row>
     <row r="576" ht="15.75">
-      <c r="A576" s="82"/>
+      <c r="A576" s="84"/>
       <c r="J576" s="45"/>
     </row>
     <row r="577" ht="15.75">
-      <c r="A577" s="82"/>
+      <c r="A577" s="84"/>
       <c r="J577" s="45"/>
     </row>
     <row r="578" ht="15.75">
-      <c r="A578" s="82"/>
+      <c r="A578" s="84"/>
       <c r="J578" s="45"/>
     </row>
     <row r="579" ht="15.75">
-      <c r="A579" s="82"/>
+      <c r="A579" s="84"/>
       <c r="J579" s="45"/>
     </row>
     <row r="580" ht="15.75">
-      <c r="A580" s="82"/>
+      <c r="A580" s="84"/>
       <c r="J580" s="45"/>
     </row>
     <row r="581" ht="15.75">
-      <c r="A581" s="82"/>
+      <c r="A581" s="84"/>
       <c r="J581" s="45"/>
     </row>
     <row r="582" ht="15.75">
-      <c r="A582" s="82"/>
+      <c r="A582" s="84"/>
       <c r="J582" s="45"/>
     </row>
     <row r="583" ht="15.75">
-      <c r="A583" s="82"/>
+      <c r="A583" s="84"/>
       <c r="J583" s="45"/>
     </row>
     <row r="584" ht="15.75">
-      <c r="A584" s="82"/>
+      <c r="A584" s="84"/>
       <c r="J584" s="45"/>
     </row>
     <row r="585" ht="15.75">
-      <c r="A585" s="82"/>
+      <c r="A585" s="84"/>
       <c r="J585" s="45"/>
     </row>
     <row r="586" ht="15.75">
-      <c r="A586" s="82"/>
+      <c r="A586" s="84"/>
       <c r="J586" s="45"/>
     </row>
     <row r="587" ht="15.75">
-      <c r="A587" s="82"/>
+      <c r="A587" s="84"/>
       <c r="J587" s="45"/>
     </row>
     <row r="588" ht="15.75">
-      <c r="A588" s="82"/>
+      <c r="A588" s="84"/>
       <c r="J588" s="45"/>
     </row>
     <row r="589" ht="15.75">
-      <c r="A589" s="82"/>
+      <c r="A589" s="84"/>
       <c r="J589" s="45"/>
     </row>
     <row r="590" ht="15.75">
-      <c r="A590" s="82"/>
+      <c r="A590" s="84"/>
       <c r="J590" s="45"/>
     </row>
     <row r="591" ht="15.75">
-      <c r="A591" s="82"/>
+      <c r="A591" s="84"/>
       <c r="J591" s="45"/>
     </row>
     <row r="592" ht="15.75">
-      <c r="A592" s="82"/>
+      <c r="A592" s="84"/>
       <c r="J592" s="45"/>
     </row>
     <row r="593" ht="15.75">
-      <c r="A593" s="82"/>
+      <c r="A593" s="84"/>
       <c r="J593" s="45"/>
     </row>
     <row r="594" ht="15.75">
-      <c r="A594" s="82"/>
+      <c r="A594" s="84"/>
       <c r="J594" s="45"/>
     </row>
     <row r="595" ht="15.75">
-      <c r="A595" s="82"/>
+      <c r="A595" s="84"/>
       <c r="J595" s="45"/>
     </row>
     <row r="596" ht="15.75">
-      <c r="A596" s="82"/>
+      <c r="A596" s="84"/>
       <c r="J596" s="45"/>
     </row>
     <row r="597" ht="15.75">
-      <c r="A597" s="82"/>
+      <c r="A597" s="84"/>
       <c r="J597" s="45"/>
     </row>
     <row r="598" ht="15.75">
-      <c r="A598" s="82"/>
+      <c r="A598" s="84"/>
       <c r="J598" s="45"/>
     </row>
     <row r="599" ht="15.75">
-      <c r="A599" s="82"/>
+      <c r="A599" s="84"/>
       <c r="J599" s="45"/>
     </row>
     <row r="600" ht="15.75">
-      <c r="A600" s="82"/>
+      <c r="A600" s="84"/>
       <c r="J600" s="45"/>
     </row>
     <row r="601" ht="15.75">
-      <c r="A601" s="82"/>
+      <c r="A601" s="84"/>
       <c r="J601" s="45"/>
     </row>
     <row r="602" ht="15.75">
-      <c r="A602" s="82"/>
+      <c r="A602" s="84"/>
       <c r="J602" s="45"/>
     </row>
     <row r="603" ht="15.75">
-      <c r="A603" s="82"/>
+      <c r="A603" s="84"/>
       <c r="J603" s="45"/>
     </row>
     <row r="604" ht="15.75">
-      <c r="A604" s="82"/>
+      <c r="A604" s="84"/>
       <c r="J604" s="45"/>
     </row>
     <row r="605" ht="15.75">
-      <c r="A605" s="82"/>
+      <c r="A605" s="84"/>
       <c r="J605" s="45"/>
     </row>
     <row r="606" ht="15.75">
-      <c r="A606" s="82"/>
+      <c r="A606" s="84"/>
       <c r="J606" s="45"/>
     </row>
     <row r="607" ht="15.75">
-      <c r="A607" s="82"/>
+      <c r="A607" s="84"/>
       <c r="J607" s="45"/>
     </row>
     <row r="608" ht="15.75">
-      <c r="A608" s="82"/>
+      <c r="A608" s="84"/>
       <c r="J608" s="45"/>
     </row>
     <row r="609" ht="15.75">
-      <c r="A609" s="82"/>
+      <c r="A609" s="84"/>
       <c r="J609" s="45"/>
     </row>
     <row r="610" ht="15.75">
-      <c r="A610" s="82"/>
+      <c r="A610" s="84"/>
       <c r="J610" s="45"/>
     </row>
     <row r="611" ht="15.75">
-      <c r="A611" s="82"/>
+      <c r="A611" s="84"/>
       <c r="J611" s="45"/>
     </row>
     <row r="612" ht="15.75">
-      <c r="A612" s="82"/>
+      <c r="A612" s="84"/>
       <c r="J612" s="45"/>
     </row>
     <row r="613" ht="15.75">
-      <c r="A613" s="82"/>
+      <c r="A613" s="84"/>
       <c r="J613" s="45"/>
     </row>
     <row r="614" ht="15.75">
-      <c r="A614" s="82"/>
+      <c r="A614" s="84"/>
       <c r="J614" s="45"/>
     </row>
     <row r="615" ht="15.75">
-      <c r="A615" s="82"/>
+      <c r="A615" s="84"/>
       <c r="J615" s="45"/>
     </row>
     <row r="616" ht="15.75">
-      <c r="A616" s="82"/>
+      <c r="A616" s="84"/>
       <c r="J616" s="45"/>
     </row>
     <row r="617" ht="15.75">
-      <c r="A617" s="82"/>
+      <c r="A617" s="84"/>
       <c r="J617" s="45"/>
     </row>
     <row r="618" ht="15.75">
-      <c r="A618" s="82"/>
+      <c r="A618" s="84"/>
       <c r="J618" s="45"/>
     </row>
     <row r="619" ht="15.75">
-      <c r="A619" s="82"/>
+      <c r="A619" s="84"/>
       <c r="J619" s="45"/>
     </row>
     <row r="620" ht="15.75">
-      <c r="A620" s="82"/>
+      <c r="A620" s="84"/>
       <c r="J620" s="45"/>
     </row>
     <row r="621" ht="15.75">
-      <c r="A621" s="82"/>
+      <c r="A621" s="84"/>
       <c r="J621" s="45"/>
     </row>
     <row r="622" ht="15.75">
-      <c r="A622" s="82"/>
+      <c r="A622" s="84"/>
       <c r="J622" s="45"/>
     </row>
     <row r="623" ht="15.75">
-      <c r="A623" s="82"/>
+      <c r="A623" s="84"/>
       <c r="J623" s="45"/>
     </row>
     <row r="624" ht="15.75">
-      <c r="A624" s="82"/>
+      <c r="A624" s="84"/>
       <c r="J624" s="45"/>
     </row>
     <row r="625" ht="15.75">
-      <c r="A625" s="82"/>
+      <c r="A625" s="84"/>
       <c r="J625" s="45"/>
     </row>
     <row r="626" ht="15.75">
-      <c r="A626" s="82"/>
+      <c r="A626" s="84"/>
       <c r="J626" s="45"/>
     </row>
     <row r="627" ht="15.75">
-      <c r="A627" s="82"/>
+      <c r="A627" s="84"/>
       <c r="J627" s="45"/>
     </row>
     <row r="628" ht="15.75">
-      <c r="A628" s="82"/>
+      <c r="A628" s="84"/>
       <c r="J628" s="45"/>
     </row>
     <row r="629" ht="15.75">
-      <c r="A629" s="82"/>
+      <c r="A629" s="84"/>
       <c r="J629" s="45"/>
     </row>
     <row r="630" ht="15.75">
-      <c r="A630" s="82"/>
+      <c r="A630" s="84"/>
       <c r="J630" s="45"/>
     </row>
     <row r="631" ht="15.75">
-      <c r="A631" s="82"/>
+      <c r="A631" s="84"/>
       <c r="J631" s="45"/>
     </row>
     <row r="632" ht="15.75">
-      <c r="A632" s="82"/>
+      <c r="A632" s="84"/>
       <c r="J632" s="45"/>
     </row>
     <row r="633" ht="15.75">
-      <c r="A633" s="82"/>
+      <c r="A633" s="84"/>
       <c r="J633" s="45"/>
     </row>
     <row r="634" ht="15.75">
-      <c r="A634" s="82"/>
+      <c r="A634" s="84"/>
       <c r="J634" s="45"/>
     </row>
     <row r="635" ht="15.75">
-      <c r="A635" s="82"/>
+      <c r="A635" s="84"/>
       <c r="J635" s="45"/>
     </row>
     <row r="636" ht="15.75">
-      <c r="A636" s="82"/>
+      <c r="A636" s="84"/>
       <c r="J636" s="45"/>
     </row>
     <row r="637" ht="15.75">
-      <c r="A637" s="82"/>
+      <c r="A637" s="84"/>
       <c r="J637" s="45"/>
     </row>
     <row r="638" ht="15.75">
-      <c r="A638" s="82"/>
+      <c r="A638" s="84"/>
       <c r="J638" s="45"/>
     </row>
     <row r="639" ht="15.75">
-      <c r="A639" s="82"/>
+      <c r="A639" s="84"/>
       <c r="J639" s="45"/>
     </row>
     <row r="640" ht="15.75">
-      <c r="A640" s="82"/>
+      <c r="A640" s="84"/>
       <c r="J640" s="45"/>
     </row>
     <row r="641" ht="15.75">
-      <c r="A641" s="82"/>
+      <c r="A641" s="84"/>
       <c r="J641" s="45"/>
     </row>
     <row r="642" ht="15.75">
-      <c r="A642" s="82"/>
+      <c r="A642" s="84"/>
       <c r="J642" s="45"/>
     </row>
     <row r="643" ht="15.75">
-      <c r="A643" s="82"/>
+      <c r="A643" s="84"/>
       <c r="J643" s="45"/>
     </row>
     <row r="644" ht="15.75">
-      <c r="A644" s="82"/>
+      <c r="A644" s="84"/>
       <c r="J644" s="45"/>
     </row>
     <row r="645" ht="15.75">
-      <c r="A645" s="82"/>
+      <c r="A645" s="84"/>
       <c r="J645" s="45"/>
     </row>
     <row r="646" ht="15.75">
-      <c r="A646" s="82"/>
+      <c r="A646" s="84"/>
       <c r="J646" s="45"/>
     </row>
     <row r="647" ht="15.75">
-      <c r="A647" s="82"/>
+      <c r="A647" s="84"/>
       <c r="J647" s="45"/>
     </row>
     <row r="648" ht="15.75">
-      <c r="A648" s="82"/>
+      <c r="A648" s="84"/>
       <c r="J648" s="45"/>
     </row>
     <row r="649" ht="15.75">
-      <c r="A649" s="82"/>
+      <c r="A649" s="84"/>
       <c r="J649" s="45"/>
     </row>
     <row r="650" ht="15.75">
-      <c r="A650" s="82"/>
+      <c r="A650" s="84"/>
       <c r="J650" s="45"/>
     </row>
     <row r="651" ht="15.75">
-      <c r="A651" s="82"/>
+      <c r="A651" s="84"/>
       <c r="J651" s="45"/>
     </row>
     <row r="652" ht="15.75">
-      <c r="A652" s="82"/>
+      <c r="A652" s="84"/>
       <c r="J652" s="45"/>
     </row>
     <row r="653" ht="15.75">
-      <c r="A653" s="82"/>
+      <c r="A653" s="84"/>
       <c r="J653" s="45"/>
     </row>
     <row r="654" ht="15.75">
-      <c r="A654" s="82"/>
+      <c r="A654" s="84"/>
       <c r="J654" s="45"/>
     </row>
     <row r="655" ht="15.75">
-      <c r="A655" s="82"/>
+      <c r="A655" s="84"/>
       <c r="J655" s="45"/>
     </row>
     <row r="656" ht="15.75">
-      <c r="A656" s="82"/>
+      <c r="A656" s="84"/>
       <c r="J656" s="45"/>
     </row>
     <row r="657" ht="15.75">
-      <c r="A657" s="82"/>
+      <c r="A657" s="84"/>
       <c r="J657" s="45"/>
     </row>
     <row r="658" ht="15.75">
-      <c r="A658" s="82"/>
+      <c r="A658" s="84"/>
       <c r="J658" s="45"/>
     </row>
     <row r="659" ht="15.75">
-      <c r="A659" s="82"/>
+      <c r="A659" s="84"/>
       <c r="J659" s="45"/>
     </row>
     <row r="660" ht="15.75">
-      <c r="A660" s="82"/>
+      <c r="A660" s="84"/>
       <c r="J660" s="45"/>
     </row>
     <row r="661" ht="15.75">
-      <c r="A661" s="82"/>
+      <c r="A661" s="84"/>
       <c r="J661" s="45"/>
     </row>
     <row r="662" ht="15.75">
-      <c r="A662" s="82"/>
+      <c r="A662" s="84"/>
       <c r="J662" s="45"/>
     </row>
     <row r="663" ht="15.75">
-      <c r="A663" s="82"/>
+      <c r="A663" s="84"/>
       <c r="J663" s="45"/>
     </row>
     <row r="664" ht="15.75">
-      <c r="A664" s="82"/>
+      <c r="A664" s="84"/>
       <c r="J664" s="45"/>
     </row>
     <row r="665" ht="15.75">
-      <c r="A665" s="82"/>
+      <c r="A665" s="84"/>
       <c r="J665" s="45"/>
     </row>
     <row r="666" ht="15.75">
-      <c r="A666" s="82"/>
+      <c r="A666" s="84"/>
       <c r="J666" s="45"/>
     </row>
     <row r="667" ht="15.75">
-      <c r="A667" s="82"/>
+      <c r="A667" s="84"/>
       <c r="J667" s="45"/>
     </row>
     <row r="668" ht="15.75">
-      <c r="A668" s="82"/>
+      <c r="A668" s="84"/>
       <c r="J668" s="45"/>
     </row>
     <row r="669" ht="15.75">
-      <c r="A669" s="82"/>
+      <c r="A669" s="84"/>
       <c r="J669" s="45"/>
     </row>
     <row r="670" ht="15.75">
-      <c r="A670" s="82"/>
+      <c r="A670" s="84"/>
       <c r="J670" s="45"/>
     </row>
     <row r="671" ht="15.75">
-      <c r="A671" s="82"/>
+      <c r="A671" s="84"/>
       <c r="J671" s="45"/>
     </row>
     <row r="672" ht="15.75">
-      <c r="A672" s="82"/>
+      <c r="A672" s="84"/>
       <c r="J672" s="45"/>
     </row>
     <row r="673" ht="15.75">
-      <c r="A673" s="82"/>
+      <c r="A673" s="84"/>
       <c r="J673" s="45"/>
     </row>
     <row r="674" ht="15.75">
-      <c r="A674" s="82"/>
+      <c r="A674" s="84"/>
       <c r="J674" s="45"/>
     </row>
     <row r="675" ht="15.75">
-      <c r="A675" s="82"/>
+      <c r="A675" s="84"/>
       <c r="J675" s="45"/>
     </row>
     <row r="676" ht="15.75">
-      <c r="A676" s="82"/>
+      <c r="A676" s="84"/>
       <c r="J676" s="45"/>
     </row>
     <row r="677" ht="15.75">
-      <c r="A677" s="82"/>
+      <c r="A677" s="84"/>
       <c r="J677" s="45"/>
     </row>
     <row r="678" ht="15.75">
-      <c r="A678" s="82"/>
+      <c r="A678" s="84"/>
       <c r="J678" s="45"/>
     </row>
     <row r="679" ht="15.75">
-      <c r="A679" s="82"/>
+      <c r="A679" s="84"/>
       <c r="J679" s="45"/>
     </row>
     <row r="680" ht="15.75">
-      <c r="A680" s="82"/>
+      <c r="A680" s="84"/>
       <c r="J680" s="45"/>
     </row>
     <row r="681" ht="15.75">
-      <c r="A681" s="82"/>
+      <c r="A681" s="84"/>
       <c r="J681" s="45"/>
     </row>
     <row r="682" ht="15.75">
-      <c r="A682" s="82"/>
+      <c r="A682" s="84"/>
       <c r="J682" s="45"/>
     </row>
     <row r="683" ht="15.75">
-      <c r="A683" s="82"/>
+      <c r="A683" s="84"/>
       <c r="J683" s="45"/>
     </row>
     <row r="684" ht="15.75">
-      <c r="A684" s="82"/>
+      <c r="A684" s="84"/>
       <c r="J684" s="45"/>
     </row>
     <row r="685" ht="15.75">
-      <c r="A685" s="82"/>
+      <c r="A685" s="84"/>
       <c r="J685" s="45"/>
     </row>
     <row r="686" ht="15.75">
-      <c r="A686" s="82"/>
+      <c r="A686" s="84"/>
       <c r="J686" s="45"/>
     </row>
     <row r="687" ht="15.75">
-      <c r="A687" s="82"/>
+      <c r="A687" s="84"/>
       <c r="J687" s="45"/>
     </row>
     <row r="688" ht="15.75">
-      <c r="A688" s="82"/>
+      <c r="A688" s="84"/>
       <c r="J688" s="45"/>
     </row>
     <row r="689" ht="15.75">
-      <c r="A689" s="82"/>
+      <c r="A689" s="84"/>
       <c r="J689" s="45"/>
     </row>
     <row r="690" ht="15.75">
-      <c r="A690" s="82"/>
+      <c r="A690" s="84"/>
       <c r="J690" s="45"/>
     </row>
     <row r="691" ht="15.75">
-      <c r="A691" s="82"/>
+      <c r="A691" s="84"/>
       <c r="J691" s="45"/>
     </row>
     <row r="692" ht="15.75">
-      <c r="A692" s="82"/>
+      <c r="A692" s="84"/>
       <c r="J692" s="45"/>
     </row>
     <row r="693" ht="15.75">
-      <c r="A693" s="82"/>
+      <c r="A693" s="84"/>
       <c r="J693" s="45"/>
     </row>
     <row r="694" ht="15.75">
-      <c r="A694" s="82"/>
+      <c r="A694" s="84"/>
       <c r="J694" s="45"/>
     </row>
     <row r="695" ht="15.75">
-      <c r="A695" s="82"/>
+      <c r="A695" s="84"/>
       <c r="J695" s="45"/>
     </row>
     <row r="696" ht="15.75">
-      <c r="A696" s="82"/>
+      <c r="A696" s="84"/>
       <c r="J696" s="45"/>
     </row>
     <row r="697" ht="15.75">
-      <c r="A697" s="82"/>
+      <c r="A697" s="84"/>
       <c r="J697" s="45"/>
     </row>
     <row r="698" ht="15.75">
-      <c r="A698" s="82"/>
+      <c r="A698" s="84"/>
       <c r="J698" s="45"/>
     </row>
     <row r="699" ht="15.75">
-      <c r="A699" s="82"/>
+      <c r="A699" s="84"/>
       <c r="J699" s="45"/>
     </row>
     <row r="700" ht="15.75">
-      <c r="A700" s="82"/>
+      <c r="A700" s="84"/>
       <c r="J700" s="45"/>
     </row>
     <row r="701" ht="15.75">
-      <c r="A701" s="82"/>
+      <c r="A701" s="84"/>
       <c r="J701" s="45"/>
     </row>
     <row r="702" ht="15.75">
-      <c r="A702" s="82"/>
+      <c r="A702" s="84"/>
       <c r="J702" s="45"/>
     </row>
     <row r="703" ht="15.75">
-      <c r="A703" s="82"/>
+      <c r="A703" s="84"/>
       <c r="J703" s="45"/>
     </row>
     <row r="704" ht="15.75">
-      <c r="A704" s="82"/>
+      <c r="A704" s="84"/>
       <c r="J704" s="45"/>
     </row>
     <row r="705" ht="15.75">
-      <c r="A705" s="82"/>
+      <c r="A705" s="84"/>
       <c r="J705" s="45"/>
     </row>
     <row r="706" ht="15.75">
-      <c r="A706" s="82"/>
+      <c r="A706" s="84"/>
       <c r="J706" s="45"/>
     </row>
     <row r="707" ht="15.75">
-      <c r="A707" s="82"/>
+      <c r="A707" s="84"/>
       <c r="J707" s="45"/>
     </row>
     <row r="708" ht="15.75">
-      <c r="A708" s="82"/>
+      <c r="A708" s="84"/>
       <c r="J708" s="45"/>
     </row>
     <row r="709" ht="15.75">
-      <c r="A709" s="82"/>
+      <c r="A709" s="84"/>
       <c r="J709" s="45"/>
     </row>
     <row r="710" ht="15.75">
-      <c r="A710" s="82"/>
+      <c r="A710" s="84"/>
       <c r="J710" s="45"/>
     </row>
     <row r="711" ht="15.75">
-      <c r="A711" s="82"/>
+      <c r="A711" s="84"/>
       <c r="J711" s="45"/>
     </row>
     <row r="712" ht="15.75">
-      <c r="A712" s="82"/>
+      <c r="A712" s="84"/>
       <c r="J712" s="45"/>
     </row>
     <row r="713" ht="15.75">
-      <c r="A713" s="82"/>
+      <c r="A713" s="84"/>
       <c r="J713" s="45"/>
     </row>
     <row r="714" ht="15.75">
-      <c r="A714" s="82"/>
+      <c r="A714" s="84"/>
       <c r="J714" s="45"/>
     </row>
     <row r="715" ht="15.75">
-      <c r="A715" s="82"/>
+      <c r="A715" s="84"/>
       <c r="J715" s="45"/>
     </row>
     <row r="716" ht="15.75">
-      <c r="A716" s="82"/>
+      <c r="A716" s="84"/>
       <c r="J716" s="45"/>
     </row>
     <row r="717" ht="15.75">
-      <c r="A717" s="82"/>
+      <c r="A717" s="84"/>
       <c r="J717" s="45"/>
     </row>
     <row r="718" ht="15.75">
-      <c r="A718" s="82"/>
+      <c r="A718" s="84"/>
       <c r="J718" s="45"/>
     </row>
     <row r="719" ht="15.75">
-      <c r="A719" s="82"/>
+      <c r="A719" s="84"/>
       <c r="J719" s="45"/>
     </row>
     <row r="720" ht="15.75">
-      <c r="A720" s="82"/>
+      <c r="A720" s="84"/>
       <c r="J720" s="45"/>
     </row>
     <row r="721" ht="15.75">
-      <c r="A721" s="82"/>
+      <c r="A721" s="84"/>
       <c r="J721" s="45"/>
     </row>
     <row r="722" ht="15.75">
-      <c r="A722" s="82"/>
+      <c r="A722" s="84"/>
       <c r="J722" s="45"/>
     </row>
     <row r="723" ht="15.75">
-      <c r="A723" s="82"/>
+      <c r="A723" s="84"/>
       <c r="J723" s="45"/>
     </row>
     <row r="724" ht="15.75">
-      <c r="A724" s="82"/>
+      <c r="A724" s="84"/>
       <c r="J724" s="45"/>
     </row>
     <row r="725" ht="15.75">
-      <c r="A725" s="82"/>
+      <c r="A725" s="84"/>
       <c r="J725" s="45"/>
     </row>
     <row r="726" ht="15.75">
-      <c r="A726" s="82"/>
+      <c r="A726" s="84"/>
       <c r="J726" s="45"/>
     </row>
     <row r="727" ht="15.75">
-      <c r="A727" s="82"/>
+      <c r="A727" s="84"/>
       <c r="J727" s="45"/>
     </row>
     <row r="728" ht="15.75">
-      <c r="A728" s="82"/>
+      <c r="A728" s="84"/>
       <c r="J728" s="45"/>
     </row>
     <row r="729" ht="15.75">
-      <c r="A729" s="82"/>
+      <c r="A729" s="84"/>
       <c r="J729" s="45"/>
     </row>
     <row r="730" ht="15.75">
-      <c r="A730" s="82"/>
+      <c r="A730" s="84"/>
       <c r="J730" s="45"/>
     </row>
     <row r="731" ht="15.75">
-      <c r="A731" s="82"/>
+      <c r="A731" s="84"/>
       <c r="J731" s="45"/>
     </row>
     <row r="732" ht="15.75">
-      <c r="A732" s="82"/>
+      <c r="A732" s="84"/>
       <c r="J732" s="45"/>
     </row>
     <row r="733" ht="15.75">
-      <c r="A733" s="82"/>
+      <c r="A733" s="84"/>
       <c r="J733" s="45"/>
     </row>
     <row r="734" ht="15.75">
-      <c r="A734" s="82"/>
+      <c r="A734" s="84"/>
       <c r="J734" s="45"/>
     </row>
     <row r="735" ht="15.75">
-      <c r="A735" s="82"/>
+      <c r="A735" s="84"/>
       <c r="J735" s="45"/>
     </row>
     <row r="736" ht="15.75">
-      <c r="A736" s="82"/>
+      <c r="A736" s="84"/>
       <c r="J736" s="45"/>
     </row>
     <row r="737" ht="15.75">
-      <c r="A737" s="82"/>
+      <c r="A737" s="84"/>
       <c r="J737" s="45"/>
     </row>
     <row r="738" ht="15.75">
-      <c r="A738" s="82"/>
+      <c r="A738" s="84"/>
       <c r="J738" s="45"/>
     </row>
     <row r="739" ht="15.75">
-      <c r="A739" s="82"/>
+      <c r="A739" s="84"/>
       <c r="J739" s="45"/>
     </row>
     <row r="740" ht="15.75">
-      <c r="A740" s="82"/>
+      <c r="A740" s="84"/>
       <c r="J740" s="45"/>
     </row>
     <row r="741" ht="15.75">
-      <c r="A741" s="82"/>
+      <c r="A741" s="84"/>
       <c r="J741" s="45"/>
     </row>
     <row r="742" ht="15.75">
-      <c r="A742" s="82"/>
+      <c r="A742" s="84"/>
       <c r="J742" s="45"/>
     </row>
     <row r="743" ht="15.75">
-      <c r="A743" s="82"/>
+      <c r="A743" s="84"/>
       <c r="J743" s="45"/>
     </row>
     <row r="744" ht="15.75">
-      <c r="A744" s="82"/>
+      <c r="A744" s="84"/>
       <c r="J744" s="45"/>
     </row>
     <row r="745" ht="15.75">
-      <c r="A745" s="82"/>
+      <c r="A745" s="84"/>
       <c r="J745" s="45"/>
     </row>
     <row r="746" ht="15.75">
-      <c r="A746" s="82"/>
+      <c r="A746" s="84"/>
       <c r="J746" s="45"/>
     </row>
     <row r="747" ht="15.75">
-      <c r="A747" s="82"/>
+      <c r="A747" s="84"/>
       <c r="J747" s="45"/>
     </row>
     <row r="748" ht="15.75">
-      <c r="A748" s="82"/>
+      <c r="A748" s="84"/>
       <c r="J748" s="45"/>
     </row>
     <row r="749" ht="15.75">
-      <c r="A749" s="82"/>
+      <c r="A749" s="84"/>
       <c r="J749" s="45"/>
     </row>
     <row r="750" ht="15.75">
-      <c r="A750" s="82"/>
+      <c r="A750" s="84"/>
       <c r="J750" s="45"/>
     </row>
-    <row r="751" s="83" customFormat="1" ht="15.75">
-      <c r="A751" s="82"/>
+    <row r="751" s="85" customFormat="1" ht="15.75">
+      <c r="A751" s="84"/>
       <c r="G751" s="43"/>
       <c r="H751" s="44"/>
       <c r="I751" s="45"/>
@@ -62323,7 +62506,7 @@
       <c r="BH751" s="47"/>
     </row>
     <row r="752" ht="15.75">
-      <c r="A752" s="82"/>
+      <c r="A752" s="84"/>
       <c r="J752" s="45"/>
     </row>
   </sheetData>
@@ -62343,54 +62526,55 @@
     <hyperlink r:id="rId8" ref="AY33"/>
     <hyperlink r:id="rId9" ref="AY34"/>
     <hyperlink r:id="rId10" ref="AY38"/>
-    <hyperlink r:id="rId11" ref="AY41"/>
-    <hyperlink r:id="rId12" ref="AY44"/>
-    <hyperlink r:id="rId13" ref="AY47"/>
-    <hyperlink r:id="rId14" ref="AY48"/>
-    <hyperlink r:id="rId15" ref="AY52"/>
-    <hyperlink r:id="rId16" ref="AY56"/>
-    <hyperlink r:id="rId17" ref="AY65"/>
-    <hyperlink r:id="rId18" ref="AY72"/>
-    <hyperlink r:id="rId19" ref="AY74"/>
-    <hyperlink r:id="rId20" ref="AY82"/>
-    <hyperlink r:id="rId21" ref="AY83"/>
-    <hyperlink r:id="rId22" ref="AY84"/>
-    <hyperlink r:id="rId23" ref="AY91"/>
-    <hyperlink r:id="rId24" ref="AY92"/>
-    <hyperlink r:id="rId25" ref="AY93"/>
-    <hyperlink r:id="rId26" ref="AY97"/>
-    <hyperlink r:id="rId27" ref="AY98"/>
-    <hyperlink r:id="rId28" ref="AY100"/>
-    <hyperlink r:id="rId29" ref="AY104"/>
-    <hyperlink r:id="rId30" ref="AY107"/>
-    <hyperlink r:id="rId31" ref="AY112"/>
-    <hyperlink r:id="rId32" ref="AY130"/>
-    <hyperlink r:id="rId33" ref="AY132"/>
-    <hyperlink r:id="rId34" ref="AY135"/>
-    <hyperlink r:id="rId35" ref="AY136"/>
-    <hyperlink r:id="rId36" ref="AY137"/>
-    <hyperlink r:id="rId37" ref="AY149"/>
-    <hyperlink r:id="rId38" ref="AY150"/>
-    <hyperlink r:id="rId39" ref="AY160"/>
-    <hyperlink r:id="rId40" ref="AY173"/>
-    <hyperlink r:id="rId41" ref="AY177"/>
-    <hyperlink r:id="rId42" ref="AY182"/>
-    <hyperlink r:id="rId43" ref="AY189"/>
-    <hyperlink r:id="rId44" ref="AY194"/>
-    <hyperlink r:id="rId45" ref="AY195"/>
-    <hyperlink r:id="rId46" ref="AY200"/>
-    <hyperlink r:id="rId47" ref="AY206"/>
-    <hyperlink r:id="rId48" ref="AY210"/>
-    <hyperlink r:id="rId49" ref="AY217"/>
-    <hyperlink r:id="rId50" ref="AY219"/>
-    <hyperlink r:id="rId51" ref="AY221"/>
-    <hyperlink r:id="rId52" ref="AY223"/>
-    <hyperlink r:id="rId53" ref="AY224"/>
-    <hyperlink r:id="rId54" ref="AY226"/>
-    <hyperlink r:id="rId55" ref="AY227"/>
-    <hyperlink r:id="rId56" ref="AY230"/>
-    <hyperlink r:id="rId57" ref="AY232"/>
-    <hyperlink r:id="rId58" ref="AY236"/>
+    <hyperlink r:id="rId11" ref="AY40"/>
+    <hyperlink r:id="rId12" ref="AY41"/>
+    <hyperlink r:id="rId13" ref="AY44"/>
+    <hyperlink r:id="rId14" ref="AY47"/>
+    <hyperlink r:id="rId15" ref="AY48"/>
+    <hyperlink r:id="rId16" ref="AY52"/>
+    <hyperlink r:id="rId17" ref="AY56"/>
+    <hyperlink r:id="rId18" ref="AY65"/>
+    <hyperlink r:id="rId19" ref="AY72"/>
+    <hyperlink r:id="rId20" ref="AY74"/>
+    <hyperlink r:id="rId21" ref="AY82"/>
+    <hyperlink r:id="rId22" ref="AY83"/>
+    <hyperlink r:id="rId23" ref="AY84"/>
+    <hyperlink r:id="rId24" ref="AY91"/>
+    <hyperlink r:id="rId25" ref="AY92"/>
+    <hyperlink r:id="rId26" ref="AY93"/>
+    <hyperlink r:id="rId27" ref="AY97"/>
+    <hyperlink r:id="rId28" ref="AY98"/>
+    <hyperlink r:id="rId29" ref="AY100"/>
+    <hyperlink r:id="rId30" ref="AY104"/>
+    <hyperlink r:id="rId31" ref="AY107"/>
+    <hyperlink r:id="rId32" ref="AY112"/>
+    <hyperlink r:id="rId33" ref="AY130"/>
+    <hyperlink r:id="rId34" ref="AY132"/>
+    <hyperlink r:id="rId35" ref="AY135"/>
+    <hyperlink r:id="rId36" ref="AY136"/>
+    <hyperlink r:id="rId37" ref="AY137"/>
+    <hyperlink r:id="rId38" ref="AY149"/>
+    <hyperlink r:id="rId39" ref="AY150"/>
+    <hyperlink r:id="rId40" ref="AY160"/>
+    <hyperlink r:id="rId41" ref="AY173"/>
+    <hyperlink r:id="rId42" ref="AY177"/>
+    <hyperlink r:id="rId43" ref="AY182"/>
+    <hyperlink r:id="rId44" ref="AY189"/>
+    <hyperlink r:id="rId45" ref="AY194"/>
+    <hyperlink r:id="rId46" ref="AY195"/>
+    <hyperlink r:id="rId47" ref="AY200"/>
+    <hyperlink r:id="rId48" ref="AY206"/>
+    <hyperlink r:id="rId49" ref="AY210"/>
+    <hyperlink r:id="rId50" ref="AY217"/>
+    <hyperlink r:id="rId51" ref="AY219"/>
+    <hyperlink r:id="rId52" ref="AY221"/>
+    <hyperlink r:id="rId53" ref="AY223"/>
+    <hyperlink r:id="rId54" ref="AY224"/>
+    <hyperlink r:id="rId55" ref="AY226"/>
+    <hyperlink r:id="rId56" ref="AY227"/>
+    <hyperlink r:id="rId57" ref="AY230"/>
+    <hyperlink r:id="rId58" ref="AY232"/>
+    <hyperlink r:id="rId59" ref="AY236"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
@@ -62400,7 +62584,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="4" aboveAverage="0" rank="0" text="" id="{001C0016-00D0-49F9-BAC8-00F600260082}">
+          <x14:cfRule type="duplicateValues" priority="4" aboveAverage="0" rank="0" text="" id="{00020034-0013-4F59-B554-000400D2005A}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -62416,7 +62600,7 @@
           <xm:sqref>G753:G1048576 G2:G93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="3" aboveAverage="0" rank="0" text="" id="{00C1005C-00B6-4CA6-9289-005A00DE0087}">
+          <x14:cfRule type="duplicateValues" priority="3" aboveAverage="0" rank="0" text="" id="{00CE007E-000B-47B9-8182-00A5001B00B3}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -62432,7 +62616,7 @@
           <xm:sqref>G753:G1048576 G2:G93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="2" aboveAverage="0" rank="0" text="" id="{00060009-0057-47C4-B4AB-0000004A0075}">
+          <x14:cfRule type="duplicateValues" priority="2" aboveAverage="0" rank="0" text="" id="{0001001F-00F5-4AA7-8585-0009003C00BB}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>

--- a/express/db/filesheet.xlsx
+++ b/express/db/filesheet.xlsx
@@ -20930,7 +20930,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" priority="2" id="{008A00EC-006B-40D9-BD4C-00BE00B00015}">
+          <x14:cfRule type="dataBar" priority="2" id="{00E700F3-0007-42E1-AE37-007900F700F7}">
             <x14:dataBar maxLength="90" minLength="10" axisPosition="none" direction="context">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -20945,7 +20945,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00F5005A-009A-48FF-9216-00DC00B6005A}" type="custom" allowBlank="1" error="Must be a valid date." errorStyle="stop" errorTitle="Incorrect format" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A40081-00E3-4D0F-A3F2-007B00D9009A}" type="custom" allowBlank="1" error="Must be a valid date." errorStyle="stop" errorTitle="Incorrect format" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(ISNUMBER(AG2),LEFT(CELL("format",AG2),1)="D")</xm:f>
           </x14:formula1>
@@ -62584,7 +62584,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="4" aboveAverage="0" rank="0" text="" id="{00020034-0013-4F59-B554-000400D2005A}">
+          <x14:cfRule type="duplicateValues" priority="4" aboveAverage="0" rank="0" text="" id="{00C300A6-00E0-48B8-9243-00F3004D00B4}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -62600,7 +62600,7 @@
           <xm:sqref>G753:G1048576 G2:G93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="3" aboveAverage="0" rank="0" text="" id="{00CE007E-000B-47B9-8182-00A5001B00B3}">
+          <x14:cfRule type="duplicateValues" priority="3" aboveAverage="0" rank="0" text="" id="{009F00C4-002E-43A8-A7A4-008B00EC00CB}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -62616,7 +62616,7 @@
           <xm:sqref>G753:G1048576 G2:G93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="2" aboveAverage="0" rank="0" text="" id="{0001001F-00F5-4AA7-8585-0009003C00BB}">
+          <x14:cfRule type="duplicateValues" priority="2" aboveAverage="0" rank="0" text="" id="{00DF00EE-00DF-4B45-9CDC-00EC003D0025}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
